--- a/data2/AKu-StuSam/vindex.xlsx
+++ b/data2/AKu-StuSam/vindex.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="6" activeTab="10" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="2" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="datierung" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -64,6 +64,34 @@
       <b val="1"/>
       <sz val="11"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF00B050"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -82,10 +110,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -99,9 +128,32 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
@@ -6743,9 +6795,9 @@
   </sheetPr>
   <dimension ref="A1:G546"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A138" sqref="A138:XFD138"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -15953,29 +16005,33 @@
   </sheetPr>
   <dimension ref="A1:G362"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="40.5703125" customWidth="1" min="1" max="1"/>
-    <col width="26" customWidth="1" min="2" max="2"/>
-    <col width="26.140625" customWidth="1" min="3" max="3"/>
+    <col width="34.85546875" customWidth="1" style="11" min="1" max="1"/>
+    <col width="26" customWidth="1" style="11" min="2" max="2"/>
+    <col width="26.140625" customWidth="1" style="11" min="3" max="3"/>
+    <col width="30.85546875" customWidth="1" style="14" min="5" max="5"/>
+    <col width="38.28515625" customWidth="1" min="6" max="6"/>
+    <col width="34" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="inlineStr">
+      <c r="A1" s="12" t="inlineStr">
         <is>
           <t>GEWIMMEL*</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="9" t="inlineStr">
         <is>
           <t>BEZEICHNUNG*</t>
         </is>
       </c>
-      <c r="C1" s="8" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>VERANTWORTL.*</t>
         </is>
@@ -15985,7 +16041,7 @@
           <t>FREQUENZ*</t>
         </is>
       </c>
-      <c r="E1" s="8" t="inlineStr">
+      <c r="E1" s="12" t="inlineStr">
         <is>
           <t>PREF</t>
         </is>
@@ -15995,24 +16051,24 @@
           <t>NOTIZEN</t>
         </is>
       </c>
-      <c r="G1" s="8" t="inlineStr">
+      <c r="G1" s="10" t="inlineStr">
         <is>
           <t>KONSULTIERTE QUELLEN</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="2" ht="30" customHeight="1">
+      <c r="A2" s="11" t="inlineStr">
         <is>
           <t>"E" in Ruine Alpha</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="11" t="inlineStr">
         <is>
           <t>Höhle/n</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -16021,13 +16077,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="3" ht="30" customHeight="1">
+      <c r="A3" s="11" t="inlineStr">
         <is>
           <t>3. Anlage, Murtuk, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -16036,13 +16092,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="4" ht="30" customHeight="1">
+      <c r="A4" s="11" t="inlineStr">
         <is>
           <t>3. Höhle der zweiten Anlage, Kizil, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -16051,13 +16107,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="5" ht="30" customHeight="1">
+      <c r="A5" s="11" t="inlineStr">
         <is>
           <t>3. Höhle vom Ende der Anlage</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -16066,18 +16122,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="6" ht="30" customHeight="1">
+      <c r="A6" s="11" t="inlineStr">
         <is>
           <t>3. Höhle vom Ende der Anlage II</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="11" t="inlineStr">
         <is>
           <t>Höhle/n</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -16086,13 +16142,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="7" ht="30" customHeight="1">
+      <c r="A7" s="11" t="inlineStr">
         <is>
           <t>3. Höhle von Anlage II</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -16101,13 +16157,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="8" ht="30" customHeight="1">
+      <c r="A8" s="11" t="inlineStr">
         <is>
           <t>3. Höhle, Kizil, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -16115,14 +16171,19 @@
       <c r="D8" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>in separate Zeilen</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="30" customHeight="1">
+      <c r="A9" s="11" t="inlineStr">
         <is>
           <t>3. Höhle, letzte Anlage</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -16130,14 +16191,19 @@
       <c r="D9" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>in separate Zeilen</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="30" customHeight="1">
+      <c r="A10" s="11" t="inlineStr">
         <is>
           <t>3. Raum, 4. Terassen, Bylayik, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -16145,14 +16211,19 @@
       <c r="D10" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>in separate Zeilen</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="30" customHeight="1">
+      <c r="A11" s="11" t="inlineStr">
         <is>
           <t>4. Turfan-Expedition</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -16160,19 +16231,24 @@
       <c r="D11" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>wohl kein Ort?</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="30" customHeight="1">
+      <c r="A12" s="11" t="inlineStr">
         <is>
           <t>A Dämonentempel</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="11" t="inlineStr">
         <is>
           <t>Tempel</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -16182,12 +16258,12 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="11" t="inlineStr">
         <is>
           <t>Aichi</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -16197,17 +16273,17 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="11" t="inlineStr">
         <is>
           <t>Akita</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="11" t="inlineStr">
         <is>
           <t>Provinz</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -16216,13 +16292,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="15" ht="30" customHeight="1">
+      <c r="A15" s="11" t="inlineStr">
         <is>
           <t>Alpha</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -16231,13 +16307,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="16" ht="30" customHeight="1">
+      <c r="A16" s="11" t="inlineStr">
         <is>
           <t>Alte Stadt</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -16246,13 +16322,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="17" ht="30" customHeight="1">
+      <c r="A17" s="11" t="inlineStr">
         <is>
           <t>Alte Stadt Kauf</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -16261,13 +16337,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="18" ht="30" customHeight="1">
+      <c r="A18" s="11" t="inlineStr">
         <is>
           <t>alte Stadt, Chotscho, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -16275,19 +16351,24 @@
       <c r="D18" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>in m+ korrigieren</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="30" customHeight="1">
+      <c r="A19" s="11" t="inlineStr">
         <is>
           <t>Anlage II, Höhle 4</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="11" t="inlineStr">
         <is>
           <t>Höhle/n</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -16297,12 +16378,12 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="11" t="inlineStr">
         <is>
           <t>Aomori (Präfektur)</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -16311,13 +16392,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="21" ht="30" customHeight="1">
+      <c r="A21" s="11" t="inlineStr">
         <is>
           <t>aus dem Schutt Ruine K, Khocho, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -16326,13 +16407,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="22" ht="30" customHeight="1">
+      <c r="A22" s="11" t="inlineStr">
         <is>
           <t>bei A und E, Kocho</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -16341,18 +16422,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="23" ht="30" customHeight="1">
+      <c r="A23" s="11" t="inlineStr">
         <is>
           <t>Berlin</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="11" t="inlineStr">
         <is>
           <t>Stadt</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -16361,13 +16442,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="24" ht="30" customHeight="1">
+      <c r="A24" s="11" t="inlineStr">
         <is>
           <t>Berlin</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -16376,18 +16457,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="25" ht="30" customHeight="1">
+      <c r="A25" s="11" t="inlineStr">
         <is>
           <t>Beta, Nord-Ostturm</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="11" t="inlineStr">
         <is>
           <t>Höhle/n</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -16396,18 +16477,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="26" ht="30" customHeight="1">
+      <c r="A26" s="11" t="inlineStr">
         <is>
           <t>Bezeklik, Hauptterrasse</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="11" t="inlineStr">
         <is>
           <t>Stätte</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -16415,14 +16496,29 @@
       <c r="D26" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="E26" s="14" t="inlineStr">
+        <is>
+          <t>Bezeklik / Bäzäklik / Murtuk I, Bozikeli</t>
+        </is>
+      </c>
+      <c r="F26" s="11" t="inlineStr">
+        <is>
+          <t>m+: Hauptterrasse in eigene Zeile</t>
+        </is>
+      </c>
+      <c r="G26" s="11" t="inlineStr">
+        <is>
+          <t>Liste von LRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="30" customHeight="1">
+      <c r="A27" s="11" t="inlineStr">
         <is>
           <t>Bibliothek K , Kocho, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -16430,14 +16526,19 @@
       <c r="D27" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Bibliothek?</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="30" customHeight="1">
+      <c r="A28" s="11" t="inlineStr">
         <is>
           <t>Borazan bei Khotan</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -16445,19 +16546,29 @@
       <c r="D28" t="n">
         <v>1</v>
       </c>
+      <c r="E28" s="14" t="inlineStr">
+        <is>
+          <t>Borazan</t>
+        </is>
+      </c>
+      <c r="F28" s="11" t="inlineStr">
+        <is>
+          <t>Khotan als Region in eigene Zeile</t>
+        </is>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="11" t="inlineStr">
         <is>
           <t>Busan</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="11" t="inlineStr">
         <is>
           <t>Stadt</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -16466,13 +16577,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="30" ht="30" customHeight="1">
+      <c r="A30" s="11" t="inlineStr">
         <is>
           <t>Bäzäklik</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -16480,19 +16591,29 @@
       <c r="D30" t="n">
         <v>2</v>
       </c>
+      <c r="E30" s="14" t="inlineStr">
+        <is>
+          <t>Bezeklik / Bäzäklik / Murtuk I, Bozikeli</t>
+        </is>
+      </c>
+      <c r="F30" s="11" t="inlineStr">
+        <is>
+          <t>m+: Bezeichnung = Stätte</t>
+        </is>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="11" t="inlineStr">
         <is>
           <t>Changsha</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="11" t="inlineStr">
         <is>
           <t>Stadt</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -16501,18 +16622,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="32" ht="30" customHeight="1">
+      <c r="A32" s="11" t="inlineStr">
         <is>
           <t>Chans Palast</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="11" t="inlineStr">
         <is>
           <t>Stätte</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -16521,13 +16642,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="33" ht="30" customHeight="1">
+      <c r="A33" s="11" t="inlineStr">
         <is>
           <t>Chikkan Köl</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -16535,19 +16656,29 @@
       <c r="D33" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="E33" s="14" t="inlineStr">
+        <is>
+          <t>Chikkan Köl / Tschikkan Köl / Qikanghu</t>
+        </is>
+      </c>
+      <c r="F33" s="11" t="inlineStr">
+        <is>
+          <t>m+: Stätte als Bezeichnung</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="30" customHeight="1">
+      <c r="A34" s="11" t="inlineStr">
         <is>
           <t>China</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="11" t="inlineStr">
         <is>
           <t>Land</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -16556,13 +16687,13 @@
         <v>262</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="35" ht="30" customHeight="1">
+      <c r="A35" s="11" t="inlineStr">
         <is>
           <t>China</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C35" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -16570,14 +16701,19 @@
       <c r="D35" t="n">
         <v>36</v>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>wird immer Land sein, nehme ich an</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="11" t="inlineStr">
         <is>
           <t>China</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -16585,19 +16721,24 @@
       <c r="D36" t="n">
         <v>295</v>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>wird immer Land sein, nehme ich an</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="11" t="inlineStr">
         <is>
           <t>China</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" s="11" t="inlineStr">
         <is>
           <t>Land</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -16607,17 +16748,17 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="11" t="inlineStr">
         <is>
           <t>China</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="11" t="inlineStr">
         <is>
           <t>Land/Region</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -16626,13 +16767,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="39" ht="30" customHeight="1">
+      <c r="A39" s="11" t="inlineStr">
         <is>
           <t>China (Land)</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -16640,14 +16781,19 @@
       <c r="D39" t="n">
         <v>2</v>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>m+: Land als Bezeichnung</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="11" t="inlineStr">
         <is>
           <t>Cholla</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -16656,18 +16802,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="41" ht="30" customHeight="1">
+      <c r="A41" s="11" t="inlineStr">
         <is>
           <t>Chotscho</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="11" t="inlineStr">
         <is>
           <t>Stätte</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -16676,13 +16822,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="42" ht="30" customHeight="1">
+      <c r="A42" s="11" t="inlineStr">
         <is>
           <t>Chotscho, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -16692,17 +16838,17 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="11" t="inlineStr">
         <is>
           <t>Chungcheongnam-do</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="11" t="inlineStr">
         <is>
           <t>Provinz</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -16712,17 +16858,17 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="11" t="inlineStr">
         <is>
           <t>Cixian</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="11" t="inlineStr">
         <is>
           <t>Kreis</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -16732,12 +16878,12 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="11" t="inlineStr">
         <is>
           <t>Cizhou-Öfen</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C45" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -16746,13 +16892,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="46" ht="30" customHeight="1">
+      <c r="A46" s="11" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -16762,12 +16908,12 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="11" t="inlineStr">
         <is>
           <t>Dehua</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C47" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -16777,12 +16923,12 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="11" t="inlineStr">
         <is>
           <t>Ding-Öfen</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -16792,12 +16938,12 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="11" t="inlineStr">
         <is>
           <t>Duandian-Öfen</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -16806,13 +16952,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+    <row r="50" ht="30" customHeight="1">
+      <c r="A50" s="11" t="inlineStr">
         <is>
           <t>Dämonentempel</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -16821,13 +16967,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+    <row r="51" ht="30" customHeight="1">
+      <c r="A51" s="11" t="inlineStr">
         <is>
           <t>Dämonentempel 8</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -16836,13 +16982,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+    <row r="52" ht="30" customHeight="1">
+      <c r="A52" s="11" t="inlineStr">
         <is>
           <t>Dämonentempel Nr. 8</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -16851,13 +16997,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+    <row r="53" ht="30" customHeight="1">
+      <c r="A53" s="11" t="inlineStr">
         <is>
           <t>Ecktempel, mittlere Anlage</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C53" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -16867,12 +17013,12 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="11" t="inlineStr">
         <is>
           <t>Ehime</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -16881,18 +17027,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+    <row r="55" ht="30" customHeight="1">
+      <c r="A55" s="11" t="inlineStr">
         <is>
           <t>Figurentempel</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="11" t="inlineStr">
         <is>
           <t>Tempel</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -16901,13 +17047,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+    <row r="56" ht="30" customHeight="1">
+      <c r="A56" s="11" t="inlineStr">
         <is>
           <t>Freskentempel</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -16916,13 +17062,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+    <row r="57" ht="30" customHeight="1">
+      <c r="A57" s="11" t="inlineStr">
         <is>
           <t>Freskentempel, Tumschuk, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C57" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -16931,13 +17077,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+    <row r="58" ht="30" customHeight="1">
+      <c r="A58" s="11" t="inlineStr">
         <is>
           <t>Fresko-Tempel</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C58" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -16947,17 +17093,17 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" s="11" t="inlineStr">
         <is>
           <t>Fujian</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" s="11" t="inlineStr">
         <is>
           <t>Provinz</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C59" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -16967,17 +17113,17 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" s="11" t="inlineStr">
         <is>
           <t>Fukien</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" s="11" t="inlineStr">
         <is>
           <t>Provinz</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C60" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -16987,12 +17133,12 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" s="11" t="inlineStr">
         <is>
           <t>Fukuoka</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C61" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -17002,12 +17148,12 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" s="11" t="inlineStr">
         <is>
           <t>Fukuoka (Präfektur)</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C62" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -17017,17 +17163,17 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" s="11" t="inlineStr">
         <is>
           <t>Fukuoka-ken</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" s="11" t="inlineStr">
         <is>
           <t>Gebiet</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C63" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -17037,12 +17183,12 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" s="11" t="inlineStr">
         <is>
           <t>Fukushima (Präfektur)</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C64" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -17051,13 +17197,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+    <row r="65" ht="30" customHeight="1">
+      <c r="A65" s="11" t="inlineStr">
         <is>
           <t>Gang neben Treppentempel</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C65" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -17067,17 +17213,17 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" s="11" t="inlineStr">
         <is>
           <t>Gansu oder Qinghai</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" s="11" t="inlineStr">
         <is>
           <t>Provinz</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C66" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -17087,17 +17233,17 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" s="11" t="inlineStr">
         <is>
           <t>Gansu, Qinghai oder Ningxia</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" s="11" t="inlineStr">
         <is>
           <t>Provinz</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C67" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -17107,12 +17253,12 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" s="11" t="inlineStr">
         <is>
           <t>Ganwa-Öfen</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C68" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -17122,12 +17268,12 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" s="11" t="inlineStr">
         <is>
           <t>Ganzhou-Öfen</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C69" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -17137,12 +17283,12 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" s="11" t="inlineStr">
         <is>
           <t>Gifu</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C70" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -17152,12 +17298,12 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" s="11" t="inlineStr">
         <is>
           <t>Gongxian-Öfen</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C71" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -17166,13 +17312,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
+    <row r="72" ht="30" customHeight="1">
+      <c r="A72" s="11" t="inlineStr">
         <is>
           <t>graues Kloster, Yarkhoto, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C72" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -17181,13 +17327,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+    <row r="73" ht="30" customHeight="1">
+      <c r="A73" s="11" t="inlineStr">
         <is>
           <t>große Höhle, Kizil, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C73" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -17196,13 +17342,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+    <row r="74" ht="30" customHeight="1">
+      <c r="A74" s="11" t="inlineStr">
         <is>
           <t>Große Schutthalde des Klosters, unweit Tempel 9</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C74" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -17211,18 +17357,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+    <row r="75" ht="30" customHeight="1">
+      <c r="A75" s="11" t="inlineStr">
         <is>
           <t>Größte Höhle</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" s="11" t="inlineStr">
         <is>
           <t>Höhle/n</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C75" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -17231,13 +17377,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
+    <row r="76" ht="30" customHeight="1">
+      <c r="A76" s="11" t="inlineStr">
         <is>
           <t>Größte Höhle, Kirisch, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C76" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -17246,13 +17392,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
+    <row r="77" ht="30" customHeight="1">
+      <c r="A77" s="11" t="inlineStr">
         <is>
           <t>Größte Höhle, Kizil, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C77" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -17261,13 +17407,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
+    <row r="78" ht="30" customHeight="1">
+      <c r="A78" s="11" t="inlineStr">
         <is>
           <t>Größter Tempel, Kizil, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C78" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -17277,17 +17423,17 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="A79" s="11" t="inlineStr">
         <is>
           <t>Guangdong</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" s="11" t="inlineStr">
         <is>
           <t>Provinz</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C79" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -17297,17 +17443,17 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="A80" s="11" t="inlineStr">
         <is>
           <t>Hamgyeong</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="11" t="inlineStr">
         <is>
           <t>Provinz</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -17316,13 +17462,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
+    <row r="81" ht="30" customHeight="1">
+      <c r="A81" s="11" t="inlineStr">
         <is>
           <t>Hauptterasse, Bäzäklik, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C81" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -17330,14 +17476,24 @@
       <c r="D81" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="E81" s="14" t="inlineStr">
+        <is>
+          <t>Bezeklik / Bäzäklik/ Murtuk I, Bozikeli</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Hauptterasse etc. in 4 eigene Zeilen</t>
+        </is>
+      </c>
+    </row>
+    <row r="82" ht="30" customHeight="1">
+      <c r="A82" s="11" t="inlineStr">
         <is>
           <t>Haus im Zentrum der Stadt Länger, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C82" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -17347,17 +17503,17 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="A83" s="11" t="inlineStr">
         <is>
           <t>Hebei</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" s="11" t="inlineStr">
         <is>
           <t>Provinz</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C83" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -17367,17 +17523,17 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="A84" s="11" t="inlineStr">
         <is>
           <t>Henan</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" s="11" t="inlineStr">
         <is>
           <t>Provinz</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C84" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -17387,17 +17543,17 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="A85" s="11" t="inlineStr">
         <is>
           <t>Henan</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" s="11" t="inlineStr">
         <is>
           <t>Region</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C85" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -17407,17 +17563,17 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="A86" s="11" t="inlineStr">
         <is>
           <t>Henan oder Hebei</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" s="11" t="inlineStr">
         <is>
           <t>Provinz</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C86" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -17427,12 +17583,12 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="A87" s="11" t="inlineStr">
         <is>
           <t>Hiroshima</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C87" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -17442,17 +17598,17 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="A88" s="11" t="inlineStr">
         <is>
           <t>Hokkaidô</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" s="11" t="inlineStr">
         <is>
           <t>Insel</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C88" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -17462,17 +17618,17 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="A89" s="11" t="inlineStr">
         <is>
           <t>Honan</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" s="11" t="inlineStr">
         <is>
           <t>Provinz</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C89" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -17481,18 +17637,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
+    <row r="90" ht="60" customHeight="1">
+      <c r="A90" s="11" t="inlineStr">
         <is>
           <t>Honshu</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" s="11" t="inlineStr">
         <is>
           <t>Insel</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C90" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -17500,19 +17656,24 @@
       <c r="D90" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="F90" s="11" t="inlineStr">
+        <is>
+          <t>bitte Diakritika vereinheitlichen, wohl: Honshû; man wird sich ja wohl für Japan. Noch auf eine Transliteration einigen können.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91" ht="60" customHeight="1">
+      <c r="A91" s="11" t="inlineStr">
         <is>
           <t>Honshû</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" s="11" t="inlineStr">
         <is>
           <t>Insel</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C91" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -17520,19 +17681,24 @@
       <c r="D91" t="n">
         <v>79</v>
       </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="F91" s="11" t="inlineStr">
+        <is>
+          <t>bitte Diakritika vereinheitlichen, wohl: Honshû; man wird sich ja wohl für Japan. Noch auf eine Transliteration einigen können.</t>
+        </is>
+      </c>
+    </row>
+    <row r="92" ht="60" customHeight="1">
+      <c r="A92" s="11" t="inlineStr">
         <is>
           <t>Honshū</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" s="11" t="inlineStr">
         <is>
           <t>Insel</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C92" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -17540,14 +17706,19 @@
       <c r="D92" t="n">
         <v>15</v>
       </c>
+      <c r="F92" s="11" t="inlineStr">
+        <is>
+          <t>bitte Diakritika vereinheitlichen, wohl: Honshû; man wird sich ja wohl für Japan. Noch auf eine Transliteration einigen können.</t>
+        </is>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="A93" s="11" t="inlineStr">
         <is>
           <t>Huangdao-Ware</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C93" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -17557,12 +17728,12 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="A94" s="11" t="inlineStr">
         <is>
           <t>Huangdao-Öfen</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C94" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -17572,12 +17743,12 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="A95" s="11" t="inlineStr">
         <is>
           <t>Hyôgo</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C95" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -17586,13 +17757,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
+    <row r="96" ht="30" customHeight="1">
+      <c r="A96" s="11" t="inlineStr">
         <is>
           <t>Höchste Höhle</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C96" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -17601,13 +17772,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+    <row r="97" ht="30" customHeight="1">
+      <c r="A97" s="11" t="inlineStr">
         <is>
           <t>höchster Tempel, Toyok, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C97" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -17615,14 +17786,19 @@
       <c r="D97" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>in eigene</t>
+        </is>
+      </c>
+    </row>
+    <row r="98" ht="30" customHeight="1">
+      <c r="A98" s="11" t="inlineStr">
         <is>
           <t>Höhle 10, Kizil, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C98" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -17631,18 +17807,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+    <row r="99" ht="30" customHeight="1">
+      <c r="A99" s="11" t="inlineStr">
         <is>
           <t>Höhle 12</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" s="11" t="inlineStr">
         <is>
           <t>Höhle/n</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C99" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -17651,13 +17827,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
+    <row r="100" ht="30" customHeight="1">
+      <c r="A100" s="11" t="inlineStr">
         <is>
           <t>Höhle 13</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C100" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -17666,13 +17842,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
+    <row r="101" ht="30" customHeight="1">
+      <c r="A101" s="11" t="inlineStr">
         <is>
           <t>Höhle 13, Kumtura, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C101" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -17681,13 +17857,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
+    <row r="102" ht="30" customHeight="1">
+      <c r="A102" s="11" t="inlineStr">
         <is>
           <t>Höhle 23, Kumtura, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C102" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -17696,13 +17872,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
+    <row r="103" ht="30" customHeight="1">
+      <c r="A103" s="11" t="inlineStr">
         <is>
           <t>Höhle der Priesterweihe</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C103" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -17711,13 +17887,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
+    <row r="104" ht="30" customHeight="1">
+      <c r="A104" s="11" t="inlineStr">
         <is>
           <t>Höhle des Zebuwagens, Kizil, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C104" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -17726,13 +17902,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
+    <row r="105" ht="30" customHeight="1">
+      <c r="A105" s="11" t="inlineStr">
         <is>
           <t>Höhle H</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C105" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -17741,18 +17917,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
+    <row r="106" ht="30" customHeight="1">
+      <c r="A106" s="11" t="inlineStr">
         <is>
           <t>Höhle oberhalb Kassettenhöhle</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" s="11" t="inlineStr">
         <is>
           <t>Höhle/n</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C106" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -17761,13 +17937,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
+    <row r="107" ht="30" customHeight="1">
+      <c r="A107" s="11" t="inlineStr">
         <is>
           <t>Höhle oberhalb Kassettenhöhle</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C107" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -17776,13 +17952,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
+    <row r="108" ht="30" customHeight="1">
+      <c r="A108" s="11" t="inlineStr">
         <is>
           <t>Höhle unterhalb der Schwertträgerhöhle H.</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C108" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -17791,13 +17967,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
+    <row r="109" ht="30" customHeight="1">
+      <c r="A109" s="11" t="inlineStr">
         <is>
           <t>Höhle vom Ende der Anlage</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C109" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -17807,12 +17983,12 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
+      <c r="A110" s="11" t="inlineStr">
         <is>
           <t>I-hsing</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C110" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -17822,12 +17998,12 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
+      <c r="A111" s="11" t="inlineStr">
         <is>
           <t>Ibaraki (Präfektur)</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C111" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -17835,19 +18011,24 @@
       <c r="D111" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Präfektur in Bezeichnung</t>
+        </is>
+      </c>
+    </row>
+    <row r="112" ht="30" customHeight="1">
+      <c r="A112" s="11" t="inlineStr">
         <is>
           <t>Ili Köl</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" s="11" t="inlineStr">
         <is>
           <t>Stätte</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C112" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -17855,14 +18036,19 @@
       <c r="D112" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
+      <c r="E112" s="14" t="inlineStr">
+        <is>
+          <t>Iliköl / Ili Köl</t>
+        </is>
+      </c>
+    </row>
+    <row r="113" ht="30" customHeight="1">
+      <c r="A113" s="11" t="inlineStr">
         <is>
           <t>Iliköl</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C113" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -17870,19 +18056,29 @@
       <c r="D113" t="n">
         <v>1</v>
       </c>
+      <c r="E113" s="14" t="inlineStr">
+        <is>
+          <t>Iliköl / Ili Köl</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>m+: Stätte</t>
+        </is>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
+      <c r="A114" s="11" t="inlineStr">
         <is>
           <t>Innere Mongolei</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" s="11" t="inlineStr">
         <is>
           <t>Gebiet</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C114" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -17892,12 +18088,12 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
+      <c r="A115" s="11" t="inlineStr">
         <is>
           <t>Ishikawa</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C115" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -17907,12 +18103,12 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
+      <c r="A116" s="11" t="inlineStr">
         <is>
           <t>Japan</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C116" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -17920,19 +18116,24 @@
       <c r="D116" t="n">
         <v>99</v>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>wohl immer Land</t>
+        </is>
+      </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
+      <c r="A117" s="11" t="inlineStr">
         <is>
           <t>Japan</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" s="11" t="inlineStr">
         <is>
           <t>Land</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C117" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -17942,12 +18143,12 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
+      <c r="A118" s="11" t="inlineStr">
         <is>
           <t>Jian-Öfen</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="C118" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -17957,17 +18158,17 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
+      <c r="A119" s="11" t="inlineStr">
         <is>
           <t>Jiangsu</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" s="11" t="inlineStr">
         <is>
           <t>Provinz</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C119" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -17977,17 +18178,17 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
+      <c r="A120" s="11" t="inlineStr">
         <is>
           <t>Jiangxi</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" s="11" t="inlineStr">
         <is>
           <t>Provinz</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C120" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -17997,12 +18198,12 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
+      <c r="A121" s="11" t="inlineStr">
         <is>
           <t>Jingdezhen</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C121" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -18012,12 +18213,12 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
+      <c r="A122" s="11" t="inlineStr">
         <is>
           <t>Jingdezhen-Öfen</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="C122" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -18027,12 +18228,12 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
+      <c r="A123" s="11" t="inlineStr">
         <is>
           <t>Jizhou-Öfen</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C123" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -18042,12 +18243,12 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
+      <c r="A124" s="11" t="inlineStr">
         <is>
           <t>Jun-Öfen</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C124" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -18057,12 +18258,12 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
+      <c r="A125" s="11" t="inlineStr">
         <is>
           <t>Kagoshima</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C125" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -18072,12 +18273,12 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
+      <c r="A126" s="11" t="inlineStr">
         <is>
           <t>Kaiserl. Manufaktur in Jingdezhen</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C126" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -18085,14 +18286,19 @@
       <c r="D126" t="n">
         <v>1</v>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>keine Abkürzungen</t>
+        </is>
+      </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
+      <c r="A127" s="11" t="inlineStr">
         <is>
           <t>Kanagawa</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C127" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -18101,18 +18307,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
+    <row r="128" ht="30" customHeight="1">
+      <c r="A128" s="11" t="inlineStr">
         <is>
           <t>Kanal südlich von Ruine Alpha</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B128" s="11" t="inlineStr">
         <is>
           <t>Stätte</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C128" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -18121,13 +18327,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
+    <row r="129" ht="30" customHeight="1">
+      <c r="A129" s="11" t="inlineStr">
         <is>
           <t>Keramische Werkstatt Margaretenhöhe, Essen</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C129" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -18137,12 +18343,12 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
+      <c r="A130" s="11" t="inlineStr">
         <is>
           <t>Keryong-san?</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C130" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -18151,18 +18357,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
+    <row r="131" ht="45" customHeight="1">
+      <c r="A131" s="11" t="inlineStr">
         <is>
           <t>Khocho</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B131" s="11" t="inlineStr">
         <is>
           <t>Stätte</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C131" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -18170,19 +18376,34 @@
       <c r="D131" t="n">
         <v>25</v>
       </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
+      <c r="E131" s="14" t="inlineStr">
+        <is>
+          <t>Kocho / Khocho / Chotscho, Karakhoja/ Karachodscha / Gaochang</t>
+        </is>
+      </c>
+      <c r="F131" s="11" t="inlineStr">
+        <is>
+          <t>die hier als Vorzugsbezechnung gewählte Schreibung wird auf de.wikipedia.org gar nicht erwähnt.</t>
+        </is>
+      </c>
+      <c r="G131" s="13" t="inlineStr">
+        <is>
+          <t>Liste von LRS, https://en.wikipedia.org/wiki/Gaochang</t>
+        </is>
+      </c>
+    </row>
+    <row r="132" ht="30" customHeight="1">
+      <c r="A132" s="11" t="inlineStr">
         <is>
           <t>Khocho</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B132" s="11" t="inlineStr">
         <is>
           <t>Stadt</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C132" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -18190,19 +18411,20 @@
       <c r="D132" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
+      <c r="F132" s="11" t="n"/>
+    </row>
+    <row r="133" ht="30" customHeight="1">
+      <c r="A133" s="11" t="inlineStr">
         <is>
           <t>Khocho</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B133" s="11" t="inlineStr">
         <is>
           <t>Region</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C133" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -18210,14 +18432,19 @@
       <c r="D133" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
+      <c r="F133" s="11" t="inlineStr">
+        <is>
+          <t>MM: wohl immer Stätte oder Stadt, nicht Region?</t>
+        </is>
+      </c>
+    </row>
+    <row r="134" ht="45" customHeight="1">
+      <c r="A134" s="11" t="inlineStr">
         <is>
           <t>Khocho (Stätte)</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C134" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -18225,14 +18452,24 @@
       <c r="D134" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
+      <c r="E134" s="14" t="inlineStr">
+        <is>
+          <t>Kocho /Khocho/ Chotscho, Karakhoja/ Karachodscha, Gaochang</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>m+: Stätte in Bezeichnung</t>
+        </is>
+      </c>
+    </row>
+    <row r="135" ht="30" customHeight="1">
+      <c r="A135" s="11" t="inlineStr">
         <is>
           <t>Khocho K, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C135" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -18240,14 +18477,19 @@
       <c r="D135" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>m+: in mehrere Zeilen, warum K?</t>
+        </is>
+      </c>
+    </row>
+    <row r="136" ht="30" customHeight="1">
+      <c r="A136" s="11" t="inlineStr">
         <is>
           <t>Khocho, Höhle Alpha und B</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="C136" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -18255,14 +18497,19 @@
       <c r="D136" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>m+: in mehrere Zeilen</t>
+        </is>
+      </c>
+    </row>
+    <row r="137" ht="30" customHeight="1">
+      <c r="A137" s="11" t="inlineStr">
         <is>
           <t>Khocho, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C137" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -18270,14 +18517,19 @@
       <c r="D137" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>wohl "Kocho" (131)? In m+ korrigieren</t>
+        </is>
+      </c>
+    </row>
+    <row r="138" ht="30" customHeight="1">
+      <c r="A138" s="11" t="inlineStr">
         <is>
           <t>Khotscho, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="C138" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -18285,19 +18537,24 @@
       <c r="D138" t="n">
         <v>3</v>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>wohl "Kocho" (131)? In m+ korrigieren</t>
+        </is>
+      </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
+      <c r="A139" s="11" t="inlineStr">
         <is>
           <t>Kiangsu</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B139" s="11" t="inlineStr">
         <is>
           <t>Provinz</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C139" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -18306,13 +18563,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
+    <row r="140" ht="30" customHeight="1">
+      <c r="A140" s="11" t="inlineStr">
         <is>
           <t>Kindik, Turfan-Urumci, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C140" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -18321,18 +18578,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
+    <row r="141" ht="30" customHeight="1">
+      <c r="A141" s="11" t="inlineStr">
         <is>
           <t>Kizil</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B141" s="11" t="inlineStr">
         <is>
           <t>Stätte</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C141" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -18340,14 +18597,24 @@
       <c r="D141" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
+      <c r="E141" s="14" t="inlineStr">
+        <is>
+          <t>Kizil / Qizil / Kyzyl / Kezi’er</t>
+        </is>
+      </c>
+      <c r="F141" s="11" t="inlineStr">
+        <is>
+          <t>Kizil immer Stätte?</t>
+        </is>
+      </c>
+    </row>
+    <row r="142" ht="30" customHeight="1">
+      <c r="A142" s="11" t="inlineStr">
         <is>
           <t>Kizil</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C142" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -18355,19 +18622,29 @@
       <c r="D142" t="n">
         <v>34</v>
       </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
+      <c r="E142" s="14" t="inlineStr">
+        <is>
+          <t>Kizil / Qizil / Kyzyl / Kezi’er</t>
+        </is>
+      </c>
+      <c r="F142" s="11" t="inlineStr">
+        <is>
+          <t>Kizil immer Stätte?</t>
+        </is>
+      </c>
+    </row>
+    <row r="143" ht="30" customHeight="1">
+      <c r="A143" s="11" t="inlineStr">
         <is>
           <t>Kizil</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B143" s="11" t="inlineStr">
         <is>
           <t>Stadt</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C143" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -18375,14 +18652,24 @@
       <c r="D143" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
+      <c r="E143" s="14" t="inlineStr">
+        <is>
+          <t>Kizil / Qizil / Kyzyl / Kezi’er</t>
+        </is>
+      </c>
+      <c r="F143" s="11" t="inlineStr">
+        <is>
+          <t>Kizil immer Stätte?</t>
+        </is>
+      </c>
+    </row>
+    <row r="144" ht="30" customHeight="1">
+      <c r="A144" s="11" t="inlineStr">
         <is>
           <t>Kizil, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C144" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -18390,19 +18677,24 @@
       <c r="D144" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>m+: in eigene Zeilen</t>
+        </is>
+      </c>
+    </row>
+    <row r="145" ht="30" customHeight="1">
+      <c r="A145" s="11" t="inlineStr">
         <is>
           <t>kleine Stupa an westlicher Ruine</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B145" s="11" t="inlineStr">
         <is>
           <t>Stätte</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C145" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -18411,13 +18703,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
+    <row r="146" ht="30" customHeight="1">
+      <c r="A146" s="11" t="inlineStr">
         <is>
           <t>kleiner Stupa</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="C146" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -18426,13 +18718,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
+    <row r="147" ht="30" customHeight="1">
+      <c r="A147" s="11" t="inlineStr">
         <is>
           <t>Kleiner Stupa-Tempel</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
+      <c r="C147" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -18441,13 +18733,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
+    <row r="148" ht="45" customHeight="1">
+      <c r="A148" s="11" t="inlineStr">
         <is>
           <t>Kocho</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
+      <c r="C148" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -18455,19 +18747,24 @@
       <c r="D148" t="n">
         <v>28</v>
       </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
+      <c r="E148" s="14" t="inlineStr">
+        <is>
+          <t>Kocho / Khocho / Chotscho, Karakhoja / Karachodscha, Gaochang</t>
+        </is>
+      </c>
+    </row>
+    <row r="149" ht="45" customHeight="1">
+      <c r="A149" s="11" t="inlineStr">
         <is>
           <t>Kocho</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="B149" s="11" t="inlineStr">
         <is>
           <t>Stätte</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="C149" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -18475,19 +18772,24 @@
       <c r="D149" t="n">
         <v>12</v>
       </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
+      <c r="E149" s="14" t="inlineStr">
+        <is>
+          <t>Kocho / Khocho / Chotscho, Karakhoja / Karachodscha, Gaochang</t>
+        </is>
+      </c>
+    </row>
+    <row r="150" ht="45" customHeight="1">
+      <c r="A150" s="11" t="inlineStr">
         <is>
           <t>Kocho</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B150" s="11" t="inlineStr">
         <is>
           <t>Stadt</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="C150" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -18495,14 +18797,19 @@
       <c r="D150" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
+      <c r="E150" s="14" t="inlineStr">
+        <is>
+          <t>Kocho / Khocho / Chotscho, Karakhoja / Karachodscha, Gaochang</t>
+        </is>
+      </c>
+    </row>
+    <row r="151" ht="30" customHeight="1">
+      <c r="A151" s="11" t="inlineStr">
         <is>
           <t>Kocho, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="C151" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -18510,14 +18817,19 @@
       <c r="D151" t="n">
         <v>1</v>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
+      <c r="A152" s="11" t="inlineStr">
         <is>
           <t>Korea</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
+      <c r="C152" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -18525,19 +18837,24 @@
       <c r="D152" t="n">
         <v>122</v>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>wohl immer Land</t>
+        </is>
+      </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
+      <c r="A153" s="11" t="inlineStr">
         <is>
           <t>Korea</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
+      <c r="B153" s="11" t="inlineStr">
         <is>
           <t>Land</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
+      <c r="C153" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -18547,12 +18864,12 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
+      <c r="A154" s="11" t="inlineStr">
         <is>
           <t>Korea (?)</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="C154" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -18560,19 +18877,24 @@
       <c r="D154" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>wohl immer Land</t>
+        </is>
+      </c>
+    </row>
+    <row r="155" ht="30" customHeight="1">
+      <c r="A155" s="11" t="inlineStr">
         <is>
           <t>Kucha</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr">
+      <c r="B155" s="11" t="inlineStr">
         <is>
           <t>Gebiet</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="C155" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -18580,14 +18902,24 @@
       <c r="D155" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
+      <c r="E155" s="14" t="inlineStr">
+        <is>
+          <t>Kucha / Kuqa Kuche/ Qiuci</t>
+        </is>
+      </c>
+      <c r="F155" s="11" t="inlineStr">
+        <is>
+          <t>Bezeichnung lieber Region?</t>
+        </is>
+      </c>
+    </row>
+    <row r="156" ht="30" customHeight="1">
+      <c r="A156" s="11" t="inlineStr">
         <is>
           <t>Kum Ariq</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
+      <c r="C156" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -18597,12 +18929,12 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
+      <c r="A157" s="11" t="inlineStr">
         <is>
           <t>Kumamoto</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="C157" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -18611,18 +18943,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
+    <row r="158" ht="30" customHeight="1">
+      <c r="A158" s="11" t="inlineStr">
         <is>
           <t>Kumtura</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="B158" s="11" t="inlineStr">
         <is>
           <t>Region</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
+      <c r="C158" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -18630,19 +18962,29 @@
       <c r="D158" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
+      <c r="E158" s="14" t="inlineStr">
+        <is>
+          <t>Kumtura / Qumtura / Kumutula</t>
+        </is>
+      </c>
+      <c r="F158" s="11" t="inlineStr">
+        <is>
+          <t>Bezeichnung Stätte?</t>
+        </is>
+      </c>
+    </row>
+    <row r="159" ht="30" customHeight="1">
+      <c r="A159" s="11" t="inlineStr">
         <is>
           <t>Kumtura</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr">
+      <c r="B159" s="11" t="inlineStr">
         <is>
           <t>Stätte</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
+      <c r="C159" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -18650,14 +18992,19 @@
       <c r="D159" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
+      <c r="E159" s="14" t="inlineStr">
+        <is>
+          <t>Kumtura / Qumtura / Kumutula</t>
+        </is>
+      </c>
+    </row>
+    <row r="160" ht="30" customHeight="1">
+      <c r="A160" s="11" t="inlineStr">
         <is>
           <t>Kumtura</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
+      <c r="C160" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -18665,14 +19012,19 @@
       <c r="D160" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
+      <c r="E160" s="14" t="inlineStr">
+        <is>
+          <t>Kumtura / Qumtura / Kumutula</t>
+        </is>
+      </c>
+    </row>
+    <row r="161" ht="30" customHeight="1">
+      <c r="A161" s="11" t="inlineStr">
         <is>
           <t>Kumtura, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
+      <c r="C161" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -18680,14 +19032,19 @@
       <c r="D161" t="n">
         <v>1</v>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>m+: in eigene Zeilen</t>
+        </is>
+      </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
+      <c r="A162" s="11" t="inlineStr">
         <is>
           <t>Kyôto</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
+      <c r="C162" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -18695,14 +19052,19 @@
       <c r="D162" t="n">
         <v>20</v>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>wohl immer Stadt</t>
+        </is>
+      </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
+      <c r="A163" s="11" t="inlineStr">
         <is>
           <t>Kyûshû</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
+      <c r="C163" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -18712,17 +19074,17 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
+      <c r="A164" s="11" t="inlineStr">
         <is>
           <t>Kyûshû</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr">
+      <c r="B164" s="11" t="inlineStr">
         <is>
           <t>Insel</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
+      <c r="C164" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -18731,13 +19093,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
+    <row r="165" ht="30" customHeight="1">
+      <c r="A165" s="11" t="inlineStr">
         <is>
           <t>Köl</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
+      <c r="C165" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -18746,13 +19108,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
+    <row r="166" ht="30" customHeight="1">
+      <c r="A166" s="11" t="inlineStr">
         <is>
           <t>Letzte Anlage</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
+      <c r="C166" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -18761,13 +19123,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
+    <row r="167" ht="30" customHeight="1">
+      <c r="A167" s="11" t="inlineStr">
         <is>
           <t>letzte Anlage, Kizil, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
+      <c r="C167" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -18775,14 +19137,19 @@
       <c r="D167" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>m+: in eigene Zeilen</t>
+        </is>
+      </c>
+    </row>
+    <row r="168" ht="30" customHeight="1">
+      <c r="A168" s="11" t="inlineStr">
         <is>
           <t>Letzte Höhle der Anlage II</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
+      <c r="C168" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -18790,14 +19157,19 @@
       <c r="D168" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
+      <c r="E168" s="11" t="inlineStr">
         <is>
           <t>letzte Höhle der Anlage II</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
+    </row>
+    <row r="169" ht="30" customHeight="1">
+      <c r="A169" s="11" t="inlineStr">
+        <is>
+          <t>letzte Höhle der Anlage II</t>
+        </is>
+      </c>
+      <c r="C169" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -18806,13 +19178,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
+    <row r="170" ht="30" customHeight="1">
+      <c r="A170" s="11" t="inlineStr">
         <is>
           <t>letzte Höhle, Anlage II</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
+      <c r="C170" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -18820,14 +19192,20 @@
       <c r="D170" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
+      <c r="E170" s="11" t="inlineStr">
+        <is>
+          <t>letzte Höhle der Anlage II</t>
+        </is>
+      </c>
+      <c r="F170" s="11" t="n"/>
+    </row>
+    <row r="171" ht="30" customHeight="1">
+      <c r="A171" s="11" t="inlineStr">
         <is>
           <t>letzte Höhle, Kizil, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
+      <c r="C171" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -18835,14 +19213,19 @@
       <c r="D171" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
+      <c r="F171" s="11" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="172" ht="30" customHeight="1">
+      <c r="A172" s="11" t="inlineStr">
         <is>
           <t>Letzte Höhle, letzte Anlage</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
+      <c r="C172" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -18851,18 +19234,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
+    <row r="173" ht="30" customHeight="1">
+      <c r="A173" s="11" t="inlineStr">
         <is>
           <t>letzte Höhle, letzte Anlage in  Kizil</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr">
+      <c r="B173" s="11" t="inlineStr">
         <is>
           <t>Stätte</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
+      <c r="C173" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -18870,19 +19253,24 @@
       <c r="D173" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
+      <c r="F173" s="11" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="174" ht="30" customHeight="1">
+      <c r="A174" s="11" t="inlineStr">
         <is>
           <t>letzter Tempel</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B174" s="11" t="inlineStr">
         <is>
           <t>Tempel</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="C174" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -18891,13 +19279,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
+    <row r="175" ht="30" customHeight="1">
+      <c r="A175" s="11" t="inlineStr">
         <is>
           <t>letzter Tempel, letzte Anlage, Kizil, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C175" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -18905,19 +19293,24 @@
       <c r="D175" t="n">
         <v>1</v>
       </c>
+      <c r="F175" s="11" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
+      <c r="A176" s="11" t="inlineStr">
         <is>
           <t>Liaoning oder Innere Mongolei</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B176" s="11" t="inlineStr">
         <is>
           <t>Gebiet</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C176" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -18927,12 +19320,12 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
+      <c r="A177" s="11" t="inlineStr">
         <is>
           <t>Lingwu-Öfen</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="C177" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -18942,12 +19335,12 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
+      <c r="A178" s="11" t="inlineStr">
         <is>
           <t>Linru (Schätzung)</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="C178" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -18957,12 +19350,12 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
+      <c r="A179" s="11" t="inlineStr">
         <is>
           <t>Longquan-Öfen</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="C179" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -18971,13 +19364,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
+    <row r="180" ht="30" customHeight="1">
+      <c r="A180" s="11" t="inlineStr">
         <is>
           <t>Längar</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C180" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -18986,18 +19379,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
+    <row r="181" ht="30" customHeight="1">
+      <c r="A181" s="11" t="inlineStr">
         <is>
           <t>Längär (Turfan)</t>
         </is>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B181" s="11" t="inlineStr">
         <is>
           <t>Region</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="C181" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19005,19 +19398,29 @@
       <c r="D181" t="n">
         <v>4</v>
       </c>
+      <c r="E181" s="11" t="inlineStr">
+        <is>
+          <t>Längar</t>
+        </is>
+      </c>
+      <c r="F181" s="11" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
+      <c r="A182" s="11" t="inlineStr">
         <is>
           <t>Mashiko</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B182" s="11" t="inlineStr">
         <is>
           <t>Stadt</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="C182" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -19027,12 +19430,12 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
+      <c r="A183" s="11" t="inlineStr">
         <is>
           <t>Mie</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="C183" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -19041,13 +19444,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
+    <row r="184" ht="30" customHeight="1">
+      <c r="A184" s="11" t="inlineStr">
         <is>
           <t>Ming Oi</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="C184" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19056,18 +19459,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
+    <row r="185" ht="30" customHeight="1">
+      <c r="A185" s="11" t="inlineStr">
         <is>
           <t>Murtuk</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B185" s="11" t="inlineStr">
         <is>
           <t>Region</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C185" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19075,14 +19478,19 @@
       <c r="D185" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
+      <c r="E185" s="15" t="inlineStr">
+        <is>
+          <t>Murtuk / Murtuq</t>
+        </is>
+      </c>
+    </row>
+    <row r="186" ht="30" customHeight="1">
+      <c r="A186" s="11" t="inlineStr">
         <is>
           <t>Murtuk</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="C186" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19090,19 +19498,24 @@
       <c r="D186" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
+      <c r="E186" s="15" t="inlineStr">
+        <is>
+          <t>Murtuk / Murtuq</t>
+        </is>
+      </c>
+    </row>
+    <row r="187" ht="30" customHeight="1">
+      <c r="A187" s="11" t="inlineStr">
         <is>
           <t>Murtuk</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr">
+      <c r="B187" s="11" t="inlineStr">
         <is>
           <t>Provinz</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
+      <c r="C187" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19110,14 +19523,19 @@
       <c r="D187" t="n">
         <v>1</v>
       </c>
+      <c r="E187" s="15" t="inlineStr">
+        <is>
+          <t>Murtuk / Murtuq</t>
+        </is>
+      </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
+      <c r="A188" s="11" t="inlineStr">
         <is>
           <t>Nagasaki</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
+      <c r="C188" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -19126,13 +19544,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
+    <row r="189" ht="30" customHeight="1">
+      <c r="A189" s="11" t="inlineStr">
         <is>
           <t>Naksatrahöhle</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
+      <c r="C189" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19142,12 +19560,12 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
+      <c r="A190" s="11" t="inlineStr">
         <is>
           <t>Nara</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
+      <c r="C190" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -19157,12 +19575,12 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
+      <c r="A191" s="11" t="inlineStr">
         <is>
           <t>Niigata</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr">
+      <c r="C191" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -19172,17 +19590,17 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
+      <c r="A192" s="11" t="inlineStr">
         <is>
           <t>Ningxia</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr">
+      <c r="B192" s="11" t="inlineStr">
         <is>
           <t>Region</t>
         </is>
       </c>
-      <c r="C192" t="inlineStr">
+      <c r="C192" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -19192,17 +19610,17 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr">
+      <c r="A193" s="11" t="inlineStr">
         <is>
           <t>Ningxia</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr">
+      <c r="B193" s="11" t="inlineStr">
         <is>
           <t>Provinz</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr">
+      <c r="C193" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -19212,17 +19630,17 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr">
+      <c r="A194" s="11" t="inlineStr">
         <is>
           <t>Nord-Zhejiang</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr">
+      <c r="B194" s="11" t="inlineStr">
         <is>
           <t>Gebiet</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr">
+      <c r="C194" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -19232,17 +19650,17 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr">
+      <c r="A195" s="11" t="inlineStr">
         <is>
           <t>Nordchina</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr">
+      <c r="B195" s="11" t="inlineStr">
         <is>
           <t>Gebiet</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr">
+      <c r="C195" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -19251,18 +19669,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
+    <row r="196" ht="30" customHeight="1">
+      <c r="A196" s="11" t="inlineStr">
         <is>
           <t>Nr. 7</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr">
+      <c r="B196" s="11" t="inlineStr">
         <is>
           <t>Höhle/n</t>
         </is>
       </c>
-      <c r="C196" t="inlineStr">
+      <c r="C196" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19271,13 +19689,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
+    <row r="197" ht="30" customHeight="1">
+      <c r="A197" s="11" t="inlineStr">
         <is>
           <t>NW-Ruine</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
+      <c r="C197" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19285,19 +19703,24 @@
       <c r="D197" t="n">
         <v>1</v>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>lieber keine Abkürzungen</t>
+        </is>
+      </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr">
+      <c r="A198" s="11" t="inlineStr">
         <is>
           <t>Nördliches China</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="11" t="inlineStr">
         <is>
           <t>Gebiet</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C198" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -19307,12 +19730,12 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr">
+      <c r="A199" s="11" t="inlineStr">
         <is>
           <t>Nördliches China</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
+      <c r="C199" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -19322,12 +19745,12 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
+      <c r="A200" s="11" t="inlineStr">
         <is>
           <t>Oita</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
+      <c r="C200" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -19337,12 +19760,12 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr">
+      <c r="A201" s="11" t="inlineStr">
         <is>
           <t>Okayama</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr">
+      <c r="C201" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -19351,18 +19774,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
+    <row r="202" ht="30" customHeight="1">
+      <c r="A202" s="11" t="inlineStr">
         <is>
           <t>Ostruine</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr">
+      <c r="B202" s="11" t="inlineStr">
         <is>
           <t>Stätte</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr">
+      <c r="C202" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19371,13 +19794,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
+    <row r="203" ht="30" customHeight="1">
+      <c r="A203" s="11" t="inlineStr">
         <is>
           <t>Ostsiedlung</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr">
+      <c r="C203" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19386,13 +19809,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
+    <row r="204" ht="30" customHeight="1">
+      <c r="A204" s="11" t="inlineStr">
         <is>
           <t>Pfauenhöhle</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C204" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19401,18 +19824,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
+    <row r="205" ht="30" customHeight="1">
+      <c r="A205" s="11" t="inlineStr">
         <is>
           <t>Pfauenhöhle</t>
         </is>
       </c>
-      <c r="B205" t="inlineStr">
+      <c r="B205" s="11" t="inlineStr">
         <is>
           <t>Höhle/n</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
+      <c r="C205" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19421,13 +19844,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
+    <row r="206" ht="30" customHeight="1">
+      <c r="A206" s="11" t="inlineStr">
         <is>
           <t>Pfauenhöhle (Höhle 76)</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr">
+      <c r="C206" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19436,13 +19859,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
+    <row r="207" ht="30" customHeight="1">
+      <c r="A207" s="11" t="inlineStr">
         <is>
           <t>Pfauenhöhle, Kizil, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C207" t="inlineStr">
+      <c r="C207" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19451,18 +19874,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
+    <row r="208" ht="30" customHeight="1">
+      <c r="A208" s="11" t="inlineStr">
         <is>
           <t>Pfauenhöhle, Nr. 76</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr">
+      <c r="B208" s="11" t="inlineStr">
         <is>
           <t>Höhle/n</t>
         </is>
       </c>
-      <c r="C208" t="inlineStr">
+      <c r="C208" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19471,13 +19894,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
+    <row r="209" ht="30" customHeight="1">
+      <c r="A209" s="11" t="inlineStr">
         <is>
           <t>Priesterweihehöhle</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr">
+      <c r="C209" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19486,13 +19909,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
+    <row r="210" ht="30" customHeight="1">
+      <c r="A210" s="11" t="inlineStr">
         <is>
           <t>Priesterweihetempel</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
+      <c r="C210" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19502,12 +19925,12 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr">
+      <c r="A211" s="11" t="inlineStr">
         <is>
           <t>Pusan</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
+      <c r="C211" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -19516,13 +19939,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
+    <row r="212" ht="30" customHeight="1">
+      <c r="A212" s="11" t="inlineStr">
         <is>
           <t>Ritterhöhle</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C212" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19531,13 +19954,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
+    <row r="213" ht="30" customHeight="1">
+      <c r="A213" s="11" t="inlineStr">
         <is>
           <t>Rotkuppelraum</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
+      <c r="C213" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19546,13 +19969,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
+    <row r="214" ht="30" customHeight="1">
+      <c r="A214" s="11" t="inlineStr">
         <is>
           <t>Rotkuppelraum, Kizil, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="C214" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19560,14 +19983,19 @@
       <c r="D214" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="215" ht="30" customHeight="1">
+      <c r="A215" s="11" t="inlineStr">
         <is>
           <t>Ruine</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+      <c r="C215" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19576,13 +20004,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
+    <row r="216" ht="30" customHeight="1">
+      <c r="A216" s="11" t="inlineStr">
         <is>
           <t>Ruine  Alpha, Raum oberhalb der SW-Treppe</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
+      <c r="C216" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19591,13 +20019,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
+    <row r="217" ht="30" customHeight="1">
+      <c r="A217" s="11" t="inlineStr">
         <is>
           <t>Ruine Alpha</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
+      <c r="C217" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19606,13 +20034,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
+    <row r="218" ht="30" customHeight="1">
+      <c r="A218" s="11" t="inlineStr">
         <is>
           <t>Ruine alpha</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
+      <c r="C218" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19620,14 +20048,19 @@
       <c r="D218" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
+      <c r="E218" s="11" t="inlineStr">
+        <is>
+          <t>Ruine Alpha</t>
+        </is>
+      </c>
+    </row>
+    <row r="219" ht="30" customHeight="1">
+      <c r="A219" s="11" t="inlineStr">
         <is>
           <t>Ruine Alpha, Khocho</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr">
+      <c r="C219" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19636,13 +20069,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
+    <row r="220" ht="30" customHeight="1">
+      <c r="A220" s="11" t="inlineStr">
         <is>
           <t>Ruine Alpha, Khocho, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
+      <c r="C220" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19651,13 +20084,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
+    <row r="221" ht="30" customHeight="1">
+      <c r="A221" s="11" t="inlineStr">
         <is>
           <t>Ruine Alpha, Kocho</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
+      <c r="C221" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19666,13 +20099,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
+    <row r="222" ht="30" customHeight="1">
+      <c r="A222" s="11" t="inlineStr">
         <is>
           <t>Ruine Alpha, oberhalb der SW-Treppe</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
+      <c r="C222" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19681,13 +20114,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
+    <row r="223" ht="30" customHeight="1">
+      <c r="A223" s="11" t="inlineStr">
         <is>
           <t>Ruine Alpha, Vorhalle E</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr">
+      <c r="C223" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19696,13 +20129,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
+    <row r="224" ht="30" customHeight="1">
+      <c r="A224" s="11" t="inlineStr">
         <is>
           <t>Ruine Beta</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr">
+      <c r="C224" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19711,13 +20144,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
+    <row r="225" ht="30" customHeight="1">
+      <c r="A225" s="11" t="inlineStr">
         <is>
           <t>Ruine D</t>
         </is>
       </c>
-      <c r="C225" t="inlineStr">
+      <c r="C225" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19726,13 +20159,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
+    <row r="226" ht="30" customHeight="1">
+      <c r="A226" s="11" t="inlineStr">
         <is>
           <t>Ruine der Nordseite d. Weges</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr">
+      <c r="C226" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19741,18 +20174,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
+    <row r="227" ht="30" customHeight="1">
+      <c r="A227" s="11" t="inlineStr">
         <is>
           <t>Ruine H'</t>
         </is>
       </c>
-      <c r="B227" t="inlineStr">
+      <c r="B227" s="11" t="inlineStr">
         <is>
           <t>Stätte</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
+      <c r="C227" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19761,13 +20194,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
+    <row r="228" ht="30" customHeight="1">
+      <c r="A228" s="11" t="inlineStr">
         <is>
           <t>Ruine K</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr">
+      <c r="C228" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19776,18 +20209,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
+    <row r="229" ht="30" customHeight="1">
+      <c r="A229" s="11" t="inlineStr">
         <is>
           <t>Ruine K</t>
         </is>
       </c>
-      <c r="B229" t="inlineStr">
+      <c r="B229" s="11" t="inlineStr">
         <is>
           <t>Kloster</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr">
+      <c r="C229" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19796,18 +20229,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
+    <row r="230" ht="30" customHeight="1">
+      <c r="A230" s="11" t="inlineStr">
         <is>
           <t>Ruine K</t>
         </is>
       </c>
-      <c r="B230" t="inlineStr">
+      <c r="B230" s="11" t="inlineStr">
         <is>
           <t>Stätte</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr">
+      <c r="C230" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19816,13 +20249,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
+    <row r="231" ht="30" customHeight="1">
+      <c r="A231" s="11" t="inlineStr">
         <is>
           <t>Ruine K, Chotscho, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr">
+      <c r="C231" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19831,13 +20264,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
+    <row r="232" ht="30" customHeight="1">
+      <c r="A232" s="11" t="inlineStr">
         <is>
           <t>Ruine Q</t>
         </is>
       </c>
-      <c r="C232" t="inlineStr">
+      <c r="C232" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19846,13 +20279,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
+    <row r="233" ht="30" customHeight="1">
+      <c r="A233" s="11" t="inlineStr">
         <is>
           <t>Ruine Q, Kocho</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
+      <c r="C233" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19861,13 +20294,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
+    <row r="234" ht="30" customHeight="1">
+      <c r="A234" s="11" t="inlineStr">
         <is>
           <t>Ruine Q, Kocho, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
+      <c r="C234" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19876,13 +20309,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
+    <row r="235" ht="30" customHeight="1">
+      <c r="A235" s="11" t="inlineStr">
         <is>
           <t>Ruine v I</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
+      <c r="C235" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19891,13 +20324,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
+    <row r="236" ht="30" customHeight="1">
+      <c r="A236" s="11" t="inlineStr">
         <is>
           <t>Ruine vI</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
+      <c r="C236" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19906,13 +20339,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
+    <row r="237" ht="30" customHeight="1">
+      <c r="A237" s="11" t="inlineStr">
         <is>
           <t>Ruine X</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
+      <c r="C237" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19921,13 +20354,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
+    <row r="238" ht="30" customHeight="1">
+      <c r="A238" s="11" t="inlineStr">
         <is>
           <t>Ruine β</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr">
+      <c r="C238" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19936,13 +20369,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
+    <row r="239" ht="30" customHeight="1">
+      <c r="A239" s="11" t="inlineStr">
         <is>
           <t>Ruine β, Kocho, Raum auf dem Turm gegenüber alpha</t>
         </is>
       </c>
-      <c r="C239" t="inlineStr">
+      <c r="C239" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19951,13 +20384,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
+    <row r="240" ht="30" customHeight="1">
+      <c r="A240" s="11" t="inlineStr">
         <is>
           <t>Ruine β, Kocho, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C240" t="inlineStr">
+      <c r="C240" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19966,13 +20399,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
+    <row r="241" ht="30" customHeight="1">
+      <c r="A241" s="11" t="inlineStr">
         <is>
           <t>Ruinen eines großen Klosters</t>
         </is>
       </c>
-      <c r="C241" t="inlineStr">
+      <c r="C241" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -19981,18 +20414,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
+    <row r="242" ht="30" customHeight="1">
+      <c r="A242" s="11" t="inlineStr">
         <is>
           <t>S.W. Stupa</t>
         </is>
       </c>
-      <c r="B242" t="inlineStr">
+      <c r="B242" s="11" t="inlineStr">
         <is>
           <t>Stätte</t>
         </is>
       </c>
-      <c r="C242" t="inlineStr">
+      <c r="C242" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20001,13 +20434,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
+    <row r="243" ht="30" customHeight="1">
+      <c r="A243" s="11" t="inlineStr">
         <is>
           <t>Schacht des großen Stupas bei Kum Ariq</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr">
+      <c r="C243" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20016,13 +20449,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
+    <row r="244" ht="30" customHeight="1">
+      <c r="A244" s="11" t="inlineStr">
         <is>
           <t>Schacht des Stupa</t>
         </is>
       </c>
-      <c r="C244" t="inlineStr">
+      <c r="C244" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20031,13 +20464,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
+    <row r="245" ht="30" customHeight="1">
+      <c r="A245" s="11" t="inlineStr">
         <is>
           <t>Schlucht Tempel 10, Sängim, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C245" t="inlineStr">
+      <c r="C245" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20046,18 +20479,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
+    <row r="246" ht="30" customHeight="1">
+      <c r="A246" s="11" t="inlineStr">
         <is>
           <t>Sengim</t>
         </is>
       </c>
-      <c r="B246" t="inlineStr">
+      <c r="B246" s="11" t="inlineStr">
         <is>
           <t>Höhle/n</t>
         </is>
       </c>
-      <c r="C246" t="inlineStr">
+      <c r="C246" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20066,18 +20499,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
+    <row r="247" ht="30" customHeight="1">
+      <c r="A247" s="11" t="inlineStr">
         <is>
           <t>Sengim Agiz</t>
         </is>
       </c>
-      <c r="B247" t="inlineStr">
+      <c r="B247" s="11" t="inlineStr">
         <is>
           <t>Stätte</t>
         </is>
       </c>
-      <c r="C247" t="inlineStr">
+      <c r="C247" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20087,17 +20520,17 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="inlineStr">
+      <c r="A248" s="11" t="inlineStr">
         <is>
           <t>Shaanxi</t>
         </is>
       </c>
-      <c r="B248" t="inlineStr">
+      <c r="B248" s="11" t="inlineStr">
         <is>
           <t>Provinz</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
+      <c r="C248" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -20107,17 +20540,17 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="inlineStr">
+      <c r="A249" s="11" t="inlineStr">
         <is>
           <t>Shaanxi</t>
         </is>
       </c>
-      <c r="B249" t="inlineStr">
+      <c r="B249" s="11" t="inlineStr">
         <is>
           <t>Region</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr">
+      <c r="C249" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -20125,19 +20558,24 @@
       <c r="D249" t="n">
         <v>1</v>
       </c>
+      <c r="F249" s="11" t="inlineStr">
+        <is>
+          <t>wohl Provinz?</t>
+        </is>
+      </c>
     </row>
     <row r="250">
-      <c r="A250" t="inlineStr">
+      <c r="A250" s="11" t="inlineStr">
         <is>
           <t>Shaanxi oder Henan</t>
         </is>
       </c>
-      <c r="B250" t="inlineStr">
+      <c r="B250" s="11" t="inlineStr">
         <is>
           <t>Provinz</t>
         </is>
       </c>
-      <c r="C250" t="inlineStr">
+      <c r="C250" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -20147,17 +20585,17 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="inlineStr">
+      <c r="A251" s="11" t="inlineStr">
         <is>
           <t>Shandong</t>
         </is>
       </c>
-      <c r="B251" t="inlineStr">
+      <c r="B251" s="11" t="inlineStr">
         <is>
           <t>Provinz</t>
         </is>
       </c>
-      <c r="C251" t="inlineStr">
+      <c r="C251" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -20167,17 +20605,17 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="inlineStr">
+      <c r="A252" s="11" t="inlineStr">
         <is>
           <t>Shandong oder Henan</t>
         </is>
       </c>
-      <c r="B252" t="inlineStr">
+      <c r="B252" s="11" t="inlineStr">
         <is>
           <t>Provinz</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr">
+      <c r="C252" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -20187,17 +20625,17 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="inlineStr">
+      <c r="A253" s="11" t="inlineStr">
         <is>
           <t>Shikoku</t>
         </is>
       </c>
-      <c r="B253" t="inlineStr">
+      <c r="B253" s="11" t="inlineStr">
         <is>
           <t>Insel</t>
         </is>
       </c>
-      <c r="C253" t="inlineStr">
+      <c r="C253" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -20207,12 +20645,12 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="inlineStr">
+      <c r="A254" s="11" t="inlineStr">
         <is>
           <t>Shimane</t>
         </is>
       </c>
-      <c r="C254" t="inlineStr">
+      <c r="C254" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -20222,12 +20660,12 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="inlineStr">
+      <c r="A255" s="11" t="inlineStr">
         <is>
           <t>Shizuoka</t>
         </is>
       </c>
-      <c r="C255" t="inlineStr">
+      <c r="C255" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -20236,13 +20674,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
+    <row r="256" ht="30" customHeight="1">
+      <c r="A256" s="11" t="inlineStr">
         <is>
           <t>Shorchuk</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr">
+      <c r="C256" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20250,19 +20688,24 @@
       <c r="D256" t="n">
         <v>15</v>
       </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
+      <c r="E256" s="14" t="inlineStr">
+        <is>
+          <t>Shorchuk / Schortschuk / Shikshin / Xigexin</t>
+        </is>
+      </c>
+    </row>
+    <row r="257" ht="30" customHeight="1">
+      <c r="A257" s="11" t="inlineStr">
         <is>
           <t>Shorchuk</t>
         </is>
       </c>
-      <c r="B257" t="inlineStr">
+      <c r="B257" s="11" t="inlineStr">
         <is>
           <t>Tempel</t>
         </is>
       </c>
-      <c r="C257" t="inlineStr">
+      <c r="C257" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20270,19 +20713,24 @@
       <c r="D257" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
+      <c r="E257" s="14" t="inlineStr">
+        <is>
+          <t>Shorchuk / Schortschuk / Shikshin / Xigexin</t>
+        </is>
+      </c>
+    </row>
+    <row r="258" ht="30" customHeight="1">
+      <c r="A258" s="11" t="inlineStr">
         <is>
           <t>Shorchuk</t>
         </is>
       </c>
-      <c r="B258" t="inlineStr">
+      <c r="B258" s="11" t="inlineStr">
         <is>
           <t>Stadt</t>
         </is>
       </c>
-      <c r="C258" t="inlineStr">
+      <c r="C258" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20290,19 +20738,24 @@
       <c r="D258" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
+      <c r="E258" s="14" t="inlineStr">
+        <is>
+          <t>Shorchuk / Schortschuk / Shikshin / Xigexin</t>
+        </is>
+      </c>
+    </row>
+    <row r="259" ht="30" customHeight="1">
+      <c r="A259" s="11" t="inlineStr">
         <is>
           <t>Shorchuk</t>
         </is>
       </c>
-      <c r="B259" t="inlineStr">
+      <c r="B259" s="11" t="inlineStr">
         <is>
           <t>Stätte</t>
         </is>
       </c>
-      <c r="C259" t="inlineStr">
+      <c r="C259" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20310,14 +20763,19 @@
       <c r="D259" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
+      <c r="E259" s="14" t="inlineStr">
+        <is>
+          <t>Shorchuk / Schortschuk / Shikshin / Xigexin</t>
+        </is>
+      </c>
+    </row>
+    <row r="260" ht="30" customHeight="1">
+      <c r="A260" s="11" t="inlineStr">
         <is>
           <t>Shorchuk Stadt, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C260" t="inlineStr">
+      <c r="C260" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20325,14 +20783,19 @@
       <c r="D260" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="261" ht="30" customHeight="1">
+      <c r="A261" s="11" t="inlineStr">
         <is>
           <t>Shorchuk, Nakshatra Höhle, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C261" t="inlineStr">
+      <c r="C261" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20340,14 +20803,19 @@
       <c r="D261" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="262" ht="30" customHeight="1">
+      <c r="A262" s="11" t="inlineStr">
         <is>
           <t>Shorchuk, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C262" t="inlineStr">
+      <c r="C262" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20355,14 +20823,24 @@
       <c r="D262" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
+      <c r="E262" s="14" t="inlineStr">
+        <is>
+          <t>Shorchuk / Schortschuk / Shikshin / Xigexin</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="263" ht="30" customHeight="1">
+      <c r="A263" s="11" t="inlineStr">
         <is>
           <t>Shorshuk</t>
         </is>
       </c>
-      <c r="C263" t="inlineStr">
+      <c r="C263" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20370,14 +20848,19 @@
       <c r="D263" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
+      <c r="E263" s="14" t="inlineStr">
+        <is>
+          <t>Shorchuk / Schortschuk / Shikshin / Xigexin</t>
+        </is>
+      </c>
+    </row>
+    <row r="264" ht="30" customHeight="1">
+      <c r="A264" s="11" t="inlineStr">
         <is>
           <t>Shortshuk, Stadt zwischen Tempel 12 und 25, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C264" t="inlineStr">
+      <c r="C264" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20385,14 +20868,19 @@
       <c r="D264" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="265" ht="30" customHeight="1">
+      <c r="A265" s="11" t="inlineStr">
         <is>
           <t>Shortshuk, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C265" t="inlineStr">
+      <c r="C265" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20400,19 +20888,24 @@
       <c r="D265" t="n">
         <v>5</v>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
     </row>
     <row r="266">
-      <c r="A266" t="inlineStr">
+      <c r="A266" s="11" t="inlineStr">
         <is>
           <t>Sichuan</t>
         </is>
       </c>
-      <c r="B266" t="inlineStr">
+      <c r="B266" s="11" t="inlineStr">
         <is>
           <t>Provinz</t>
         </is>
       </c>
-      <c r="C266" t="inlineStr">
+      <c r="C266" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -20421,13 +20914,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
+    <row r="267" ht="30" customHeight="1">
+      <c r="A267" s="11" t="inlineStr">
         <is>
           <t>Stadt auf dem Yar, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C267" t="inlineStr">
+      <c r="C267" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20436,13 +20929,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
+    <row r="268" ht="30" customHeight="1">
+      <c r="A268" s="11" t="inlineStr">
         <is>
           <t>Statuenhöhle</t>
         </is>
       </c>
-      <c r="C268" t="inlineStr">
+      <c r="C268" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20451,13 +20944,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
+    <row r="269" ht="30" customHeight="1">
+      <c r="A269" s="11" t="inlineStr">
         <is>
           <t>Statuenhöhle (Höhle 77)</t>
         </is>
       </c>
-      <c r="C269" t="inlineStr">
+      <c r="C269" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20466,13 +20959,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
+    <row r="270" ht="30" customHeight="1">
+      <c r="A270" s="11" t="inlineStr">
         <is>
           <t>Stupa nördlich von Ruine v</t>
         </is>
       </c>
-      <c r="C270" t="inlineStr">
+      <c r="C270" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20481,18 +20974,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
+    <row r="271" ht="30" customHeight="1">
+      <c r="A271" s="11" t="inlineStr">
         <is>
           <t>Stupa, Tumschuk</t>
         </is>
       </c>
-      <c r="B271" t="inlineStr">
+      <c r="B271" s="11" t="inlineStr">
         <is>
           <t>Stätte</t>
         </is>
       </c>
-      <c r="C271" t="inlineStr">
+      <c r="C271" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20501,13 +20994,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
+    <row r="272" ht="30" customHeight="1">
+      <c r="A272" s="11" t="inlineStr">
         <is>
           <t>Stupentempel</t>
         </is>
       </c>
-      <c r="C272" t="inlineStr">
+      <c r="C272" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20516,18 +21009,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
+    <row r="273" ht="30" customHeight="1">
+      <c r="A273" s="11" t="inlineStr">
         <is>
           <t>Stupentempel</t>
         </is>
       </c>
-      <c r="B273" t="inlineStr">
+      <c r="B273" s="11" t="inlineStr">
         <is>
           <t>Tempel</t>
         </is>
       </c>
-      <c r="C273" t="inlineStr">
+      <c r="C273" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20536,13 +21029,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
+    <row r="274" ht="30" customHeight="1">
+      <c r="A274" s="11" t="inlineStr">
         <is>
           <t>Stupentempel D</t>
         </is>
       </c>
-      <c r="C274" t="inlineStr">
+      <c r="C274" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20551,13 +21044,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
+    <row r="275" ht="30" customHeight="1">
+      <c r="A275" s="11" t="inlineStr">
         <is>
           <t>Stupentempel T</t>
         </is>
       </c>
-      <c r="C275" t="inlineStr">
+      <c r="C275" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20566,13 +21059,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
+    <row r="276" ht="30" customHeight="1">
+      <c r="A276" s="11" t="inlineStr">
         <is>
           <t>Subashi</t>
         </is>
       </c>
-      <c r="C276" t="inlineStr">
+      <c r="C276" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20581,18 +21074,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
+    <row r="277" ht="30" customHeight="1">
+      <c r="A277" s="11" t="inlineStr">
         <is>
           <t>Sängim</t>
         </is>
       </c>
-      <c r="B277" t="inlineStr">
+      <c r="B277" s="11" t="inlineStr">
         <is>
           <t>Stätte</t>
         </is>
       </c>
-      <c r="C277" t="inlineStr">
+      <c r="C277" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20600,14 +21093,19 @@
       <c r="D277" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
+      <c r="E277" s="16" t="inlineStr">
+        <is>
+          <t>Sengim / Sängim / Shengjinxiang</t>
+        </is>
+      </c>
+    </row>
+    <row r="278" ht="30" customHeight="1">
+      <c r="A278" s="11" t="inlineStr">
         <is>
           <t>Sängim</t>
         </is>
       </c>
-      <c r="C278" t="inlineStr">
+      <c r="C278" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20615,19 +21113,24 @@
       <c r="D278" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
+      <c r="E278" s="16" t="inlineStr">
+        <is>
+          <t>Sengim / Sängim / Shengjinxiang</t>
+        </is>
+      </c>
+    </row>
+    <row r="279" ht="30" customHeight="1">
+      <c r="A279" s="11" t="inlineStr">
         <is>
           <t>Sängim A</t>
         </is>
       </c>
-      <c r="B279" t="inlineStr">
+      <c r="B279" s="11" t="inlineStr">
         <is>
           <t>Stätte</t>
         </is>
       </c>
-      <c r="C279" t="inlineStr">
+      <c r="C279" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20635,19 +21138,25 @@
       <c r="D279" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
+      <c r="E279" s="16" t="n"/>
+      <c r="F279" s="11" t="inlineStr">
+        <is>
+          <t>oben gibt’s auch Sengim Agiz</t>
+        </is>
+      </c>
+    </row>
+    <row r="280" ht="30" customHeight="1">
+      <c r="A280" s="11" t="inlineStr">
         <is>
           <t>Sängim Agiz</t>
         </is>
       </c>
-      <c r="B280" t="inlineStr">
+      <c r="B280" s="11" t="inlineStr">
         <is>
           <t>Stätte</t>
         </is>
       </c>
-      <c r="C280" t="inlineStr">
+      <c r="C280" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20657,17 +21166,17 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="inlineStr">
+      <c r="A281" s="11" t="inlineStr">
         <is>
           <t>Südliches China</t>
         </is>
       </c>
-      <c r="B281" t="inlineStr">
+      <c r="B281" s="11" t="inlineStr">
         <is>
           <t>Gebiet</t>
         </is>
       </c>
-      <c r="C281" t="inlineStr">
+      <c r="C281" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -20676,13 +21185,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
+    <row r="282" ht="30" customHeight="1">
+      <c r="A282" s="11" t="inlineStr">
         <is>
           <t>Südseite des goßen Tempels, Ostanlage, Tumschuk, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C282" t="inlineStr">
+      <c r="C282" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20690,14 +21199,19 @@
       <c r="D282" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="283" ht="30" customHeight="1">
+      <c r="A283" s="11" t="inlineStr">
         <is>
           <t>Südwest-Stupa, Chotscho, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C283" t="inlineStr">
+      <c r="C283" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20705,19 +21219,24 @@
       <c r="D283" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="284" ht="30" customHeight="1">
+      <c r="A284" s="11" t="inlineStr">
         <is>
           <t>Tempel 1</t>
         </is>
       </c>
-      <c r="B284" t="inlineStr">
+      <c r="B284" s="11" t="inlineStr">
         <is>
           <t>Tempel</t>
         </is>
       </c>
-      <c r="C284" t="inlineStr">
+      <c r="C284" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20725,14 +21244,19 @@
       <c r="D284" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
+      <c r="F284" s="11" t="inlineStr">
+        <is>
+          <t>Bezeichnung hier notwendig?</t>
+        </is>
+      </c>
+    </row>
+    <row r="285" ht="30" customHeight="1">
+      <c r="A285" s="11" t="inlineStr">
         <is>
           <t>Tempel 10</t>
         </is>
       </c>
-      <c r="C285" t="inlineStr">
+      <c r="C285" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20741,13 +21265,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
+    <row r="286" ht="30" customHeight="1">
+      <c r="A286" s="11" t="inlineStr">
         <is>
           <t>Tempel 12 und 25, Shorchuk, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C286" t="inlineStr">
+      <c r="C286" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20755,14 +21279,19 @@
       <c r="D286" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="287" ht="30" customHeight="1">
+      <c r="A287" s="11" t="inlineStr">
         <is>
           <t>Tempel 12, 15</t>
         </is>
       </c>
-      <c r="C287" t="inlineStr">
+      <c r="C287" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20771,13 +21300,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
+    <row r="288" ht="30" customHeight="1">
+      <c r="A288" s="11" t="inlineStr">
         <is>
           <t>Tempel 12, 15, Shorchuk, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C288" t="inlineStr">
+      <c r="C288" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20785,14 +21314,19 @@
       <c r="D288" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="289" ht="30" customHeight="1">
+      <c r="A289" s="11" t="inlineStr">
         <is>
           <t>Tempel 12, 15, Shortshuk, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C289" t="inlineStr">
+      <c r="C289" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20800,14 +21334,19 @@
       <c r="D289" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="290" ht="30" customHeight="1">
+      <c r="A290" s="11" t="inlineStr">
         <is>
           <t>Tempel 12, Kumtura, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C290" t="inlineStr">
+      <c r="C290" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20815,14 +21354,19 @@
       <c r="D290" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="291" ht="30" customHeight="1">
+      <c r="A291" s="11" t="inlineStr">
         <is>
           <t>Tempel 15 und 25, Shorchuk, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C291" t="inlineStr">
+      <c r="C291" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20830,14 +21374,19 @@
       <c r="D291" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="292" ht="30" customHeight="1">
+      <c r="A292" s="11" t="inlineStr">
         <is>
           <t>Tempel 7</t>
         </is>
       </c>
-      <c r="C292" t="inlineStr">
+      <c r="C292" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20846,13 +21395,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
+    <row r="293" ht="30" customHeight="1">
+      <c r="A293" s="11" t="inlineStr">
         <is>
           <t>Tempel 7, Sängim, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C293" t="inlineStr">
+      <c r="C293" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20860,14 +21409,19 @@
       <c r="D293" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="294" ht="30" customHeight="1">
+      <c r="A294" s="11" t="inlineStr">
         <is>
           <t>Tempel 9</t>
         </is>
       </c>
-      <c r="C294" t="inlineStr">
+      <c r="C294" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20876,13 +21430,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
+    <row r="295" ht="30" customHeight="1">
+      <c r="A295" s="11" t="inlineStr">
         <is>
           <t>Tempel auf der Insel</t>
         </is>
       </c>
-      <c r="C295" t="inlineStr">
+      <c r="C295" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20890,14 +21444,19 @@
       <c r="D295" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
+      <c r="E295" s="11" t="inlineStr">
         <is>
           <t>Tempel auf Insel</t>
         </is>
       </c>
-      <c r="C296" t="inlineStr">
+    </row>
+    <row r="296" ht="30" customHeight="1">
+      <c r="A296" s="11" t="inlineStr">
+        <is>
+          <t>Tempel auf Insel</t>
+        </is>
+      </c>
+      <c r="C296" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20906,13 +21465,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
+    <row r="297" ht="30" customHeight="1">
+      <c r="A297" s="11" t="inlineStr">
         <is>
           <t>Tempel auf Westseite, Tumshuk, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C297" t="inlineStr">
+      <c r="C297" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20920,14 +21479,19 @@
       <c r="D297" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="298" ht="30" customHeight="1">
+      <c r="A298" s="11" t="inlineStr">
         <is>
           <t>Tempel B, Khocho</t>
         </is>
       </c>
-      <c r="C298" t="inlineStr">
+      <c r="C298" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20936,13 +21500,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
+    <row r="299" ht="30" customHeight="1">
+      <c r="A299" s="11" t="inlineStr">
         <is>
           <t>Tempel der Behelmten, Kizil, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C299" t="inlineStr">
+      <c r="C299" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20950,19 +21514,24 @@
       <c r="D299" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="300" ht="30" customHeight="1">
+      <c r="A300" s="11" t="inlineStr">
         <is>
           <t>Tempel des Lokapalas</t>
         </is>
       </c>
-      <c r="B300" t="inlineStr">
+      <c r="B300" s="11" t="inlineStr">
         <is>
           <t>Tempel</t>
         </is>
       </c>
-      <c r="C300" t="inlineStr">
+      <c r="C300" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20971,13 +21540,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
+    <row r="301" ht="30" customHeight="1">
+      <c r="A301" s="11" t="inlineStr">
         <is>
           <t>Tempel H</t>
         </is>
       </c>
-      <c r="C301" t="inlineStr">
+      <c r="C301" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -20986,13 +21555,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
+    <row r="302" ht="30" customHeight="1">
+      <c r="A302" s="11" t="inlineStr">
         <is>
           <t>Tempel im Süden der Stadt</t>
         </is>
       </c>
-      <c r="C302" t="inlineStr">
+      <c r="C302" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21001,18 +21570,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
+    <row r="303" ht="30" customHeight="1">
+      <c r="A303" s="11" t="inlineStr">
         <is>
           <t>Tempel im Süden der Stadt</t>
         </is>
       </c>
-      <c r="B303" t="inlineStr">
+      <c r="B303" s="11" t="inlineStr">
         <is>
           <t>Tempel</t>
         </is>
       </c>
-      <c r="C303" t="inlineStr">
+      <c r="C303" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21021,13 +21590,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
+    <row r="304" ht="30" customHeight="1">
+      <c r="A304" s="11" t="inlineStr">
         <is>
           <t>Tempel in der Ebene, Kumtura, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C304" t="inlineStr">
+      <c r="C304" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21035,14 +21604,19 @@
       <c r="D304" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="305" ht="30" customHeight="1">
+      <c r="A305" s="11" t="inlineStr">
         <is>
           <t>Tempel Lokapalas</t>
         </is>
       </c>
-      <c r="C305" t="inlineStr">
+      <c r="C305" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21051,13 +21625,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
+    <row r="306" ht="30" customHeight="1">
+      <c r="A306" s="11" t="inlineStr">
         <is>
           <t>Tempel Mü, Khocho, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C306" t="inlineStr">
+      <c r="C306" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21065,14 +21639,19 @@
       <c r="D306" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="307" ht="30" customHeight="1">
+      <c r="A307" s="11" t="inlineStr">
         <is>
           <t>Tempel neben Tura</t>
         </is>
       </c>
-      <c r="C307" t="inlineStr">
+      <c r="C307" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21081,13 +21660,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
+    <row r="308" ht="30" customHeight="1">
+      <c r="A308" s="11" t="inlineStr">
         <is>
           <t>Tempel oberhalb der Kassettenhöhle</t>
         </is>
       </c>
-      <c r="C308" t="inlineStr">
+      <c r="C308" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21096,13 +21675,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
+    <row r="309" ht="30" customHeight="1">
+      <c r="A309" s="11" t="inlineStr">
         <is>
           <t>Tempel oberhalb, Kasettenhöhle</t>
         </is>
       </c>
-      <c r="C309" t="inlineStr">
+      <c r="C309" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21110,19 +21689,24 @@
       <c r="D309" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
+      <c r="E309" s="11" t="inlineStr">
+        <is>
+          <t>Tempel oberhalb der Kassettenhöhle</t>
+        </is>
+      </c>
+    </row>
+    <row r="310" ht="30" customHeight="1">
+      <c r="A310" s="11" t="inlineStr">
         <is>
           <t>Tempel Q</t>
         </is>
       </c>
-      <c r="B310" t="inlineStr">
+      <c r="B310" s="11" t="inlineStr">
         <is>
           <t>Tempel</t>
         </is>
       </c>
-      <c r="C310" t="inlineStr">
+      <c r="C310" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21131,13 +21715,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
+    <row r="311" ht="30" customHeight="1">
+      <c r="A311" s="11" t="inlineStr">
         <is>
           <t>Tempelchen bei Tura</t>
         </is>
       </c>
-      <c r="C311" t="inlineStr">
+      <c r="C311" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21146,13 +21730,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
+    <row r="312" ht="30" customHeight="1">
+      <c r="A312" s="11" t="inlineStr">
         <is>
           <t>Tempelchen bei Tura, Tschikkan Köl, Xinxiang, China</t>
         </is>
       </c>
-      <c r="C312" t="inlineStr">
+      <c r="C312" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21160,14 +21744,19 @@
       <c r="D312" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="313" ht="30" customHeight="1">
+      <c r="A313" s="11" t="inlineStr">
         <is>
           <t>Terasse, Bäzäklik, Murtuk, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C313" t="inlineStr">
+      <c r="C313" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21175,14 +21764,19 @@
       <c r="D313" t="n">
         <v>1</v>
       </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
     </row>
     <row r="314">
-      <c r="A314" t="inlineStr">
+      <c r="A314" s="11" t="inlineStr">
         <is>
           <t>Tochigi (Präfektur)</t>
         </is>
       </c>
-      <c r="C314" t="inlineStr">
+      <c r="C314" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -21190,14 +21784,19 @@
       <c r="D314" t="n">
         <v>25</v>
       </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>Präfektur in Bezeichnung</t>
+        </is>
+      </c>
     </row>
     <row r="315">
-      <c r="A315" t="inlineStr">
+      <c r="A315" s="11" t="inlineStr">
         <is>
           <t>Tongchuan (Kreis)</t>
         </is>
       </c>
-      <c r="C315" t="inlineStr">
+      <c r="C315" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -21205,14 +21804,19 @@
       <c r="D315" t="n">
         <v>1</v>
       </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>Kreis in Bezeichnung</t>
+        </is>
+      </c>
     </row>
     <row r="316">
-      <c r="A316" t="inlineStr">
+      <c r="A316" s="11" t="inlineStr">
         <is>
           <t>Tongchuan-Öfen</t>
         </is>
       </c>
-      <c r="C316" t="inlineStr">
+      <c r="C316" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -21222,12 +21826,12 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="inlineStr">
+      <c r="A317" s="11" t="inlineStr">
         <is>
           <t>Tongguan-Öfen</t>
         </is>
       </c>
-      <c r="C317" t="inlineStr">
+      <c r="C317" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -21235,14 +21839,19 @@
       <c r="D317" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
+      <c r="F317" s="11" t="inlineStr">
+        <is>
+          <t>Tongchuan-Öfen gemeint?</t>
+        </is>
+      </c>
+    </row>
+    <row r="318" ht="30" customHeight="1">
+      <c r="A318" s="11" t="inlineStr">
         <is>
           <t>Tschikan Köl</t>
         </is>
       </c>
-      <c r="C318" t="inlineStr">
+      <c r="C318" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21250,14 +21859,19 @@
       <c r="D318" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
+      <c r="E318" s="15" t="inlineStr">
+        <is>
+          <t>Chikkan Köl / Tschikkan Köl / Qikanghu</t>
+        </is>
+      </c>
+    </row>
+    <row r="319" ht="30" customHeight="1">
+      <c r="A319" s="11" t="inlineStr">
         <is>
           <t>Tschikkan Köl</t>
         </is>
       </c>
-      <c r="C319" t="inlineStr">
+      <c r="C319" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21265,19 +21879,24 @@
       <c r="D319" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
+      <c r="E319" s="15" t="inlineStr">
+        <is>
+          <t>Chikkan Köl / Tschikkan Köl / Qikanghu</t>
+        </is>
+      </c>
+    </row>
+    <row r="320" ht="30" customHeight="1">
+      <c r="A320" s="11" t="inlineStr">
         <is>
           <t>Tumschuk</t>
         </is>
       </c>
-      <c r="B320" t="inlineStr">
+      <c r="B320" s="11" t="inlineStr">
         <is>
           <t>Stadt</t>
         </is>
       </c>
-      <c r="C320" t="inlineStr">
+      <c r="C320" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21285,14 +21904,24 @@
       <c r="D320" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
+      <c r="E320" s="15" t="inlineStr">
+        <is>
+          <t>Tumshuk / Tumschuk / Tumushuke</t>
+        </is>
+      </c>
+      <c r="F320" s="11" t="inlineStr">
+        <is>
+          <t>laut LRS Stätte, nicht Stadt?</t>
+        </is>
+      </c>
+    </row>
+    <row r="321" ht="30" customHeight="1">
+      <c r="A321" s="11" t="inlineStr">
         <is>
           <t>Tumschuk</t>
         </is>
       </c>
-      <c r="C321" t="inlineStr">
+      <c r="C321" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21300,14 +21929,24 @@
       <c r="D321" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
+      <c r="E321" s="15" t="inlineStr">
+        <is>
+          <t>Tumshuk / Tumschuk / Tumushuke</t>
+        </is>
+      </c>
+      <c r="F321" s="11" t="inlineStr">
+        <is>
+          <t>laut LRS Stätte, nicht Stadt?</t>
+        </is>
+      </c>
+    </row>
+    <row r="322" ht="30" customHeight="1">
+      <c r="A322" s="11" t="inlineStr">
         <is>
           <t>Tumschuk, 2. Zimmer nördlich vom verbrannten Tempel; China</t>
         </is>
       </c>
-      <c r="C322" t="inlineStr">
+      <c r="C322" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21315,14 +21954,24 @@
       <c r="D322" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
+      <c r="E322" s="15" t="inlineStr">
+        <is>
+          <t>Tumshuk / Tumschuk / Tumushuke</t>
+        </is>
+      </c>
+      <c r="F322" s="11" t="inlineStr">
+        <is>
+          <t>isoliert eingeben, laut LRS Stätte?</t>
+        </is>
+      </c>
+    </row>
+    <row r="323" ht="30" customHeight="1">
+      <c r="A323" s="11" t="inlineStr">
         <is>
           <t>Tumshuk</t>
         </is>
       </c>
-      <c r="C323" t="inlineStr">
+      <c r="C323" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21330,19 +21979,29 @@
       <c r="D323" t="n">
         <v>14</v>
       </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
+      <c r="E323" s="15" t="inlineStr">
+        <is>
+          <t>Tumshuk / Tumschuk / Tumushuke</t>
+        </is>
+      </c>
+      <c r="F323" s="11" t="inlineStr">
+        <is>
+          <t>laut LRS Stätte, nicht Stadt?</t>
+        </is>
+      </c>
+    </row>
+    <row r="324" ht="30" customHeight="1">
+      <c r="A324" s="11" t="inlineStr">
         <is>
           <t>Tumshuk</t>
         </is>
       </c>
-      <c r="B324" t="inlineStr">
+      <c r="B324" s="11" t="inlineStr">
         <is>
           <t>Stadt</t>
         </is>
       </c>
-      <c r="C324" t="inlineStr">
+      <c r="C324" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21350,19 +22009,29 @@
       <c r="D324" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
+      <c r="E324" s="15" t="inlineStr">
+        <is>
+          <t>Tumshuk / Tumschuk / Tumushuke</t>
+        </is>
+      </c>
+      <c r="F324" s="11" t="inlineStr">
+        <is>
+          <t>laut LRS Stätte, nicht Stadt?</t>
+        </is>
+      </c>
+    </row>
+    <row r="325" ht="30" customHeight="1">
+      <c r="A325" s="11" t="inlineStr">
         <is>
           <t>Tumshuk</t>
         </is>
       </c>
-      <c r="B325" t="inlineStr">
+      <c r="B325" s="11" t="inlineStr">
         <is>
           <t>Stätte</t>
         </is>
       </c>
-      <c r="C325" t="inlineStr">
+      <c r="C325" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21370,19 +22039,29 @@
       <c r="D325" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
+      <c r="E325" s="15" t="inlineStr">
+        <is>
+          <t>Tumshuk / Tumschuk / Tumushuke</t>
+        </is>
+      </c>
+      <c r="F325" s="11" t="inlineStr">
+        <is>
+          <t>laut LRS Stätte, nicht Stadt?</t>
+        </is>
+      </c>
+    </row>
+    <row r="326" ht="30" customHeight="1">
+      <c r="A326" s="11" t="inlineStr">
         <is>
           <t>Tumshuk</t>
         </is>
       </c>
-      <c r="B326" t="inlineStr">
+      <c r="B326" s="11" t="inlineStr">
         <is>
           <t>Region</t>
         </is>
       </c>
-      <c r="C326" t="inlineStr">
+      <c r="C326" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21390,14 +22069,24 @@
       <c r="D326" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
+      <c r="E326" s="15" t="inlineStr">
+        <is>
+          <t>Tumshuk / Tumschuk / Tumushuke</t>
+        </is>
+      </c>
+      <c r="F326" s="11" t="inlineStr">
+        <is>
+          <t>laut LRS Stätte, nicht Region?</t>
+        </is>
+      </c>
+    </row>
+    <row r="327" ht="30" customHeight="1">
+      <c r="A327" s="11" t="inlineStr">
         <is>
           <t>Tumshuk, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C327" t="inlineStr">
+      <c r="C327" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21405,14 +22094,24 @@
       <c r="D327" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
+      <c r="E327" s="15" t="inlineStr">
+        <is>
+          <t>Tumshuk / Tumschuk / Tumushuke</t>
+        </is>
+      </c>
+      <c r="F327" s="11" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="328" ht="30" customHeight="1">
+      <c r="A328" s="11" t="inlineStr">
         <is>
           <t>Turm IV, Chotscho, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C328" t="inlineStr">
+      <c r="C328" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21420,14 +22119,19 @@
       <c r="D328" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="329" ht="30" customHeight="1">
+      <c r="A329" s="11" t="inlineStr">
         <is>
           <t>Turm vI, Chotscho, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C329" t="inlineStr">
+      <c r="C329" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21435,14 +22139,19 @@
       <c r="D329" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="330" ht="30" customHeight="1">
+      <c r="A330" s="11" t="inlineStr">
         <is>
           <t>Unfallhöhle, Nr. 10</t>
         </is>
       </c>
-      <c r="C330" t="inlineStr">
+      <c r="C330" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21451,13 +22160,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
+    <row r="331" ht="30" customHeight="1">
+      <c r="A331" s="11" t="inlineStr">
         <is>
           <t>Untergeschoss, N. O. - Turm Beta</t>
         </is>
       </c>
-      <c r="C331" t="inlineStr">
+      <c r="C331" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21466,13 +22175,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
+    <row r="332" ht="30" customHeight="1">
+      <c r="A332" s="11" t="inlineStr">
         <is>
           <t>v1</t>
         </is>
       </c>
-      <c r="C332" t="inlineStr">
+      <c r="C332" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21481,13 +22190,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
+    <row r="333" ht="30" customHeight="1">
+      <c r="A333" s="11" t="inlineStr">
         <is>
           <t>Verbrannten Tempel</t>
         </is>
       </c>
-      <c r="C333" t="inlineStr">
+      <c r="C333" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21495,14 +22204,19 @@
       <c r="D333" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
+      <c r="E333" s="11" t="inlineStr">
         <is>
           <t>Verbrannter Tempel</t>
         </is>
       </c>
-      <c r="C334" t="inlineStr">
+    </row>
+    <row r="334" ht="30" customHeight="1">
+      <c r="A334" s="11" t="inlineStr">
+        <is>
+          <t>Verbrannter Tempel</t>
+        </is>
+      </c>
+      <c r="C334" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21511,18 +22225,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
+    <row r="335" ht="30" customHeight="1">
+      <c r="A335" s="11" t="inlineStr">
         <is>
           <t>W-ruine</t>
         </is>
       </c>
-      <c r="B335" t="inlineStr">
+      <c r="B335" s="11" t="inlineStr">
         <is>
           <t>Stätte</t>
         </is>
       </c>
-      <c r="C335" t="inlineStr">
+      <c r="C335" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21530,19 +22244,24 @@
       <c r="D335" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
+      <c r="F335" s="11" t="inlineStr">
+        <is>
+          <t>ausschreiben? West?</t>
+        </is>
+      </c>
+    </row>
+    <row r="336" ht="30" customHeight="1">
+      <c r="A336" s="11" t="inlineStr">
         <is>
           <t>W. Ruine</t>
         </is>
       </c>
-      <c r="B336" t="inlineStr">
+      <c r="B336" s="11" t="inlineStr">
         <is>
           <t>Tempel</t>
         </is>
       </c>
-      <c r="C336" t="inlineStr">
+      <c r="C336" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21550,14 +22269,19 @@
       <c r="D336" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
+      <c r="F336" s="11" t="inlineStr">
+        <is>
+          <t>ausschreiben? West?</t>
+        </is>
+      </c>
+    </row>
+    <row r="337" ht="30" customHeight="1">
+      <c r="A337" s="11" t="inlineStr">
         <is>
           <t>Westanlage, Tumshuk, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C337" t="inlineStr">
+      <c r="C337" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21565,14 +22289,19 @@
       <c r="D337" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="338" ht="30" customHeight="1">
+      <c r="A338" s="11" t="inlineStr">
         <is>
           <t>Westklippe</t>
         </is>
       </c>
-      <c r="C338" t="inlineStr">
+      <c r="C338" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21581,13 +22310,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
+    <row r="339" ht="30" customHeight="1">
+      <c r="A339" s="11" t="inlineStr">
         <is>
           <t>Westklippe, Westruine, Tumshuk, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C339" t="inlineStr">
+      <c r="C339" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21596,13 +22325,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
+    <row r="340" ht="30" customHeight="1">
+      <c r="A340" s="11" t="inlineStr">
         <is>
           <t>Westseite der Westklippe</t>
         </is>
       </c>
-      <c r="C340" t="inlineStr">
+      <c r="C340" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21611,18 +22340,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
+    <row r="341" ht="30" customHeight="1">
+      <c r="A341" s="11" t="inlineStr">
         <is>
           <t>Xianjing</t>
         </is>
       </c>
-      <c r="B341" t="inlineStr">
+      <c r="B341" s="11" t="inlineStr">
         <is>
           <t>Gebiet</t>
         </is>
       </c>
-      <c r="C341" t="inlineStr">
+      <c r="C341" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21632,12 +22361,12 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="inlineStr">
+      <c r="A342" s="11" t="inlineStr">
         <is>
           <t>Xicun-Öfen</t>
         </is>
       </c>
-      <c r="C342" t="inlineStr">
+      <c r="C342" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -21646,18 +22375,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
+    <row r="343" ht="30" customHeight="1">
+      <c r="A343" s="11" t="inlineStr">
         <is>
           <t>Xinjang</t>
         </is>
       </c>
-      <c r="B343" t="inlineStr">
+      <c r="B343" s="11" t="inlineStr">
         <is>
           <t>Gebiet</t>
         </is>
       </c>
-      <c r="C343" t="inlineStr">
+      <c r="C343" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21666,18 +22395,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
+    <row r="344" ht="30" customHeight="1">
+      <c r="A344" s="11" t="inlineStr">
         <is>
           <t>Xinjian</t>
         </is>
       </c>
-      <c r="B344" t="inlineStr">
+      <c r="B344" s="11" t="inlineStr">
         <is>
           <t>Gebiet</t>
         </is>
       </c>
-      <c r="C344" t="inlineStr">
+      <c r="C344" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21685,19 +22414,24 @@
       <c r="D344" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
+      <c r="F344" s="11" t="inlineStr">
+        <is>
+          <t>Tippfehler für Xinjiang?</t>
+        </is>
+      </c>
+    </row>
+    <row r="345" ht="30" customHeight="1">
+      <c r="A345" s="11" t="inlineStr">
         <is>
           <t>Xinjiang</t>
         </is>
       </c>
-      <c r="B345" t="inlineStr">
+      <c r="B345" s="11" t="inlineStr">
         <is>
           <t>Gebiet</t>
         </is>
       </c>
-      <c r="C345" t="inlineStr">
+      <c r="C345" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21705,19 +22439,24 @@
       <c r="D345" t="n">
         <v>262</v>
       </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
+      <c r="E345" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xinjiang / Sinkiang </t>
+        </is>
+      </c>
+    </row>
+    <row r="346" ht="30" customHeight="1">
+      <c r="A346" s="11" t="inlineStr">
         <is>
           <t>Xinjiang</t>
         </is>
       </c>
-      <c r="B346" t="inlineStr">
+      <c r="B346" s="11" t="inlineStr">
         <is>
           <t>Bundesstaat</t>
         </is>
       </c>
-      <c r="C346" t="inlineStr">
+      <c r="C346" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21725,14 +22464,19 @@
       <c r="D346" t="n">
         <v>18</v>
       </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
+      <c r="E346" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xinjiang / Sinkiang </t>
+        </is>
+      </c>
+    </row>
+    <row r="347" ht="30" customHeight="1">
+      <c r="A347" s="11" t="inlineStr">
         <is>
           <t>Xinjiang, China</t>
         </is>
       </c>
-      <c r="C347" t="inlineStr">
+      <c r="C347" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21740,19 +22484,24 @@
       <c r="D347" t="n">
         <v>18</v>
       </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="348" ht="30" customHeight="1">
+      <c r="A348" s="11" t="inlineStr">
         <is>
           <t>Xinjinang</t>
         </is>
       </c>
-      <c r="B348" t="inlineStr">
+      <c r="B348" s="11" t="inlineStr">
         <is>
           <t>Bundesstaat</t>
         </is>
       </c>
-      <c r="C348" t="inlineStr">
+      <c r="C348" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21761,13 +22510,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
+    <row r="349" ht="30" customHeight="1">
+      <c r="A349" s="11" t="inlineStr">
         <is>
           <t>Xinjinang, China</t>
         </is>
       </c>
-      <c r="C349" t="inlineStr">
+      <c r="C349" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21775,14 +22524,19 @@
       <c r="D349" t="n">
         <v>1</v>
       </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
     </row>
     <row r="350">
-      <c r="A350" t="inlineStr">
+      <c r="A350" s="11" t="inlineStr">
         <is>
           <t>Yamaguchi</t>
         </is>
       </c>
-      <c r="C350" t="inlineStr">
+      <c r="C350" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -21792,12 +22546,12 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="inlineStr">
+      <c r="A351" s="11" t="inlineStr">
         <is>
           <t>Yaozhou-Öfen</t>
         </is>
       </c>
-      <c r="C351" t="inlineStr">
+      <c r="C351" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -21806,13 +22560,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
+    <row r="352" ht="30" customHeight="1">
+      <c r="A352" s="11" t="inlineStr">
         <is>
           <t>Yarkhoto</t>
         </is>
       </c>
-      <c r="C352" t="inlineStr">
+      <c r="C352" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21821,13 +22575,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
+    <row r="353" ht="30" customHeight="1">
+      <c r="A353" s="11" t="inlineStr">
         <is>
           <t>Yarkhoto, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C353" t="inlineStr">
+      <c r="C353" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21835,14 +22589,19 @@
       <c r="D353" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="354" ht="30" customHeight="1">
+      <c r="A354" s="11" t="inlineStr">
         <is>
           <t>Yarkoto</t>
         </is>
       </c>
-      <c r="C354" t="inlineStr">
+      <c r="C354" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21852,12 +22611,12 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="inlineStr">
+      <c r="A355" s="11" t="inlineStr">
         <is>
           <t>Yixing</t>
         </is>
       </c>
-      <c r="C355" t="inlineStr">
+      <c r="C355" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -21867,12 +22626,12 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" t="inlineStr">
+      <c r="A356" s="11" t="inlineStr">
         <is>
           <t>Yu-xian</t>
         </is>
       </c>
-      <c r="C356" t="inlineStr">
+      <c r="C356" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -21882,12 +22641,12 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" t="inlineStr">
+      <c r="A357" s="11" t="inlineStr">
         <is>
           <t>Yue-Öfen</t>
         </is>
       </c>
-      <c r="C357" t="inlineStr">
+      <c r="C357" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -21897,17 +22656,17 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" t="inlineStr">
+      <c r="A358" s="11" t="inlineStr">
         <is>
           <t>Zejiang</t>
         </is>
       </c>
-      <c r="B358" t="inlineStr">
+      <c r="B358" s="11" t="inlineStr">
         <is>
           <t>Provinz</t>
         </is>
       </c>
-      <c r="C358" t="inlineStr">
+      <c r="C358" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -21915,19 +22674,24 @@
       <c r="D358" t="n">
         <v>1</v>
       </c>
+      <c r="F358" s="11" t="inlineStr">
+        <is>
+          <t>Zhejiang?</t>
+        </is>
+      </c>
     </row>
     <row r="359">
-      <c r="A359" t="inlineStr">
+      <c r="A359" s="11" t="inlineStr">
         <is>
           <t>Zhejiang</t>
         </is>
       </c>
-      <c r="B359" t="inlineStr">
+      <c r="B359" s="11" t="inlineStr">
         <is>
           <t>Provinz</t>
         </is>
       </c>
-      <c r="C359" t="inlineStr">
+      <c r="C359" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -21937,17 +22701,17 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="inlineStr">
+      <c r="A360" s="11" t="inlineStr">
         <is>
           <t>Zhejiang oder Jiangxi</t>
         </is>
       </c>
-      <c r="B360" t="inlineStr">
+      <c r="B360" s="11" t="inlineStr">
         <is>
           <t>Provinz</t>
         </is>
       </c>
-      <c r="C360" t="inlineStr">
+      <c r="C360" s="11" t="inlineStr">
         <is>
           <t>AKu-Ostasiatische Kunst</t>
         </is>
@@ -21956,13 +22720,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
+    <row r="361" ht="30" customHeight="1">
+      <c r="A361" s="11" t="inlineStr">
         <is>
           <t>Zwischen Tempel 12 und 25</t>
         </is>
       </c>
-      <c r="C361" t="inlineStr">
+      <c r="C361" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21971,13 +22735,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
+    <row r="362" ht="30" customHeight="1">
+      <c r="A362" s="11" t="inlineStr">
         <is>
           <t>zwischen Tempel 12 und 25, Shortshuk, Xinjiang, China</t>
         </is>
       </c>
-      <c r="C362" t="inlineStr">
+      <c r="C362" s="11" t="inlineStr">
         <is>
           <t>AKu-Süd-, Südost- und Zentralasien</t>
         </is>
@@ -21987,7 +22751,20 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G131" display="https://en.wikipedia.org/wiki/Gaochang" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G131" display="https://en.wikipedia.org/wiki/Gaochang" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G131" display="https://en.wikipedia.org/wiki/Gaochang" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G131" display="https://en.wikipedia.org/wiki/Gaochang" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G131" display="https://en.wikipedia.org/wiki/Gaochang" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G131" display="https://en.wikipedia.org/wiki/Gaochang" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G131" display="https://en.wikipedia.org/wiki/Gaochang" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G131" display="https://en.wikipedia.org/wiki/Gaochang" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G131" display="https://en.wikipedia.org/wiki/Gaochang" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G131" display="https://en.wikipedia.org/wiki/Gaochang" r:id="rId10"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -21999,8 +22776,8 @@
   </sheetPr>
   <dimension ref="A1:G341"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -27736,7 +28513,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -27744,6 +28521,7 @@
     <col width="17.28515625" customWidth="1" min="1" max="1"/>
     <col width="5.28515625" customWidth="1" min="2" max="2"/>
     <col width="2.42578125" customWidth="1" min="3" max="3"/>
+    <col width="21.5703125" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -27817,6 +28595,11 @@
           <t>Höhle</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>für rst vereinfacht</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -27870,6 +28653,11 @@
       <c r="E9" t="inlineStr">
         <is>
           <t>Land</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>für rst vereinfacht</t>
         </is>
       </c>
     </row>

--- a/data2/AKu-StuSam/vindex.xlsx
+++ b/data2/AKu-StuSam/vindex.xlsx
@@ -114,7 +114,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -146,8 +146,15 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -456,10 +463,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="28.7109375" customWidth="1" min="1" max="1"/>
-    <col width="21.42578125" customWidth="1" min="2" max="2"/>
-    <col width="32.85546875" customWidth="1" min="3" max="3"/>
-    <col width="11.42578125" customWidth="1" min="4" max="4"/>
+    <col width="28.7109375" customWidth="1" style="16" min="1" max="1"/>
+    <col width="21.42578125" customWidth="1" style="16" min="2" max="2"/>
+    <col width="32.85546875" customWidth="1" style="16" min="3" max="3"/>
+    <col width="11.42578125" customWidth="1" style="16" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6738,11 +6745,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="46.28515625" customWidth="1" min="1" max="1"/>
-    <col width="5.5703125" customWidth="1" min="2" max="2"/>
-    <col width="5" customWidth="1" min="3" max="3"/>
-    <col width="7.85546875" customWidth="1" min="4" max="4"/>
-    <col width="57" customWidth="1" min="5" max="5"/>
+    <col width="46.28515625" customWidth="1" style="16" min="1" max="1"/>
+    <col width="5.5703125" customWidth="1" style="16" min="2" max="2"/>
+    <col width="5" customWidth="1" style="16" min="3" max="3"/>
+    <col width="7.85546875" customWidth="1" style="16" min="4" max="4"/>
+    <col width="57" customWidth="1" style="16" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6805,13 +6812,13 @@
     <col width="44.5703125" customWidth="1" style="7" min="1" max="1"/>
     <col width="3.5703125" customWidth="1" style="7" min="2" max="2"/>
     <col width="27.7109375" customWidth="1" style="7" min="3" max="3"/>
-    <col width="6.42578125" customWidth="1" min="4" max="4"/>
-    <col width="35.7109375" customWidth="1" min="5" max="5"/>
-    <col width="38.140625" customWidth="1" min="6" max="6"/>
-    <col width="21.5703125" customWidth="1" min="7" max="7"/>
+    <col width="6.42578125" customWidth="1" style="16" min="4" max="4"/>
+    <col width="35.7109375" customWidth="1" style="16" min="5" max="5"/>
+    <col width="38.140625" customWidth="1" style="16" min="6" max="6"/>
+    <col width="21.5703125" customWidth="1" style="16" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="60" customHeight="1">
+    <row r="1" ht="60" customHeight="1" s="16">
       <c r="A1" s="6" t="inlineStr">
         <is>
           <t>GEWIMMEL*</t>
@@ -6848,7 +6855,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="30" customHeight="1">
+    <row r="2" ht="30" customHeight="1" s="16">
       <c r="A2" s="7" t="inlineStr">
         <is>
           <t>1000 Buddhas Fragment</t>
@@ -6863,7 +6870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="30" customHeight="1">
+    <row r="3" ht="30" customHeight="1" s="16">
       <c r="A3" s="7" t="inlineStr">
         <is>
           <t>Abguss einer Ritterfigur</t>
@@ -6878,7 +6885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="30" customHeight="1">
+    <row r="4" ht="30" customHeight="1" s="16">
       <c r="A4" s="7" t="inlineStr">
         <is>
           <t>Abguss eines Ritters (Torso)</t>
@@ -6908,7 +6915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="30" customHeight="1">
+    <row r="6" ht="30" customHeight="1" s="16">
       <c r="A6" s="7" t="inlineStr">
         <is>
           <t>Affe als Musikant</t>
@@ -6938,7 +6945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="30" customHeight="1">
+    <row r="8" ht="30" customHeight="1" s="16">
       <c r="A8" s="7" t="inlineStr">
         <is>
           <t>Amithaba-Figur</t>
@@ -6998,7 +7005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="30" customHeight="1">
+    <row r="12" ht="30" customHeight="1" s="16">
       <c r="A12" s="7" t="inlineStr">
         <is>
           <t>Anhänger einer Schmuckkette</t>
@@ -7013,7 +7020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="30" customHeight="1">
+    <row r="13" ht="30" customHeight="1" s="16">
       <c r="A13" s="7" t="inlineStr">
         <is>
           <t>Apsaras, anbetend</t>
@@ -7043,7 +7050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="30" customHeight="1">
+    <row r="15" ht="30" customHeight="1" s="16">
       <c r="A15" s="7" t="inlineStr">
         <is>
           <t>Aschenurne</t>
@@ -7058,7 +7065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="30" customHeight="1">
+    <row r="16" ht="30" customHeight="1" s="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
           <t>auf einem Dämon reitende indische Gottheit Fragment</t>
@@ -7073,7 +7080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="30" customHeight="1">
+    <row r="17" ht="30" customHeight="1" s="16">
       <c r="A17" s="7" t="inlineStr">
         <is>
           <t>Aus einer Knospe entspriessende menschliche Figur</t>
@@ -7088,7 +7095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="30" customHeight="1">
+    <row r="18" ht="30" customHeight="1" s="16">
       <c r="A18" s="7" t="inlineStr">
         <is>
           <t>Avalokiteshvara</t>
@@ -7103,7 +7110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" ht="30" customHeight="1">
+    <row r="19" ht="30" customHeight="1" s="16">
       <c r="A19" s="7" t="inlineStr">
         <is>
           <t>Avalokiteshvara (Ein Viertel einer zusammensetzbaren Lotusknospe)</t>
@@ -7118,7 +7125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" ht="30" customHeight="1">
+    <row r="20" ht="30" customHeight="1" s="16">
       <c r="A20" s="7" t="inlineStr">
         <is>
           <t>Avalokitesvara</t>
@@ -7208,7 +7215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" ht="30" customHeight="1">
+    <row r="26" ht="30" customHeight="1" s="16">
       <c r="A26" s="7" t="inlineStr">
         <is>
           <t>Balken</t>
@@ -7238,7 +7245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" ht="30" customHeight="1">
+    <row r="28" ht="30" customHeight="1" s="16">
       <c r="A28" s="7" t="inlineStr">
         <is>
           <t>Bauchpartie einer kleinen Aufsteckfigur mit Faltengewand</t>
@@ -7328,7 +7335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" ht="30" customHeight="1">
+    <row r="34" ht="30" customHeight="1" s="16">
       <c r="A34" s="7" t="inlineStr">
         <is>
           <t>Behelmter Kopf</t>
@@ -7343,7 +7350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" ht="30" customHeight="1">
+    <row r="35" ht="30" customHeight="1" s="16">
       <c r="A35" s="7" t="inlineStr">
         <is>
           <t>Bein eines gewappneten</t>
@@ -7358,7 +7365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" ht="30" customHeight="1">
+    <row r="36" ht="30" customHeight="1" s="16">
       <c r="A36" s="7" t="inlineStr">
         <is>
           <t>Bein eines sitzenden Ritters</t>
@@ -7373,7 +7380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" ht="30" customHeight="1">
+    <row r="37" ht="30" customHeight="1" s="16">
       <c r="A37" s="7" t="inlineStr">
         <is>
           <t>Bemaltes Brett mit rahmendem Schnitzwerk, u.a. sasanidische Perlenmedaillons</t>
@@ -7388,7 +7395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" ht="30" customHeight="1">
+    <row r="38" ht="30" customHeight="1" s="16">
       <c r="A38" s="7" t="inlineStr">
         <is>
           <t>Bett- oder Stuhlbein</t>
@@ -7418,7 +7425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" ht="30" customHeight="1">
+    <row r="40" ht="30" customHeight="1" s="16">
       <c r="A40" s="7" t="inlineStr">
         <is>
           <t>Blauhaariger Brahmanenkopf</t>
@@ -7493,7 +7500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" ht="30" customHeight="1">
+    <row r="45" ht="30" customHeight="1" s="16">
       <c r="A45" s="7" t="inlineStr">
         <is>
           <t>Boddhisattva</t>
@@ -7508,7 +7515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" ht="30" customHeight="1">
+    <row r="46" ht="30" customHeight="1" s="16">
       <c r="A46" s="7" t="inlineStr">
         <is>
           <t>Boddhisattva-Kopf</t>
@@ -7523,7 +7530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" ht="30" customHeight="1">
+    <row r="47" ht="30" customHeight="1" s="16">
       <c r="A47" s="7" t="inlineStr">
         <is>
           <t>Boddhisattva-Kopf mit blauem Haar</t>
@@ -7538,7 +7545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" ht="30" customHeight="1">
+    <row r="48" ht="30" customHeight="1" s="16">
       <c r="A48" s="7" t="inlineStr">
         <is>
           <t>Bodhisattva</t>
@@ -7553,7 +7560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" ht="30" customHeight="1">
+    <row r="49" ht="30" customHeight="1" s="16">
       <c r="A49" s="7" t="inlineStr">
         <is>
           <t>Bodhisattva Avalokiteshvara</t>
@@ -7568,7 +7575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" ht="30" customHeight="1">
+    <row r="50" ht="30" customHeight="1" s="16">
       <c r="A50" s="7" t="inlineStr">
         <is>
           <t>Bodhisattva Kopf</t>
@@ -7583,7 +7590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" ht="30" customHeight="1">
+    <row r="51" ht="30" customHeight="1" s="16">
       <c r="A51" s="7" t="inlineStr">
         <is>
           <t>Bodhisattva, halbe Figur</t>
@@ -7598,7 +7605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" ht="30" customHeight="1">
+    <row r="52" ht="30" customHeight="1" s="16">
       <c r="A52" s="7" t="inlineStr">
         <is>
           <t>Bodhisattva-Kopf</t>
@@ -7613,7 +7620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" ht="30" customHeight="1">
+    <row r="53" ht="30" customHeight="1" s="16">
       <c r="A53" s="7" t="inlineStr">
         <is>
           <t>Bodhisattva-Köpfchen</t>
@@ -7628,7 +7635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" ht="30" customHeight="1">
+    <row r="54" ht="30" customHeight="1" s="16">
       <c r="A54" s="7" t="inlineStr">
         <is>
           <t>Bodhisattvakopf</t>
@@ -7643,7 +7650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" ht="30" customHeight="1">
+    <row r="55" ht="30" customHeight="1" s="16">
       <c r="A55" s="7" t="inlineStr">
         <is>
           <t>Borte von einem Wandpaneel</t>
@@ -7658,7 +7665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" ht="30" customHeight="1">
+    <row r="56" ht="30" customHeight="1" s="16">
       <c r="A56" s="7" t="inlineStr">
         <is>
           <t>Brahmanenkopf</t>
@@ -7673,7 +7680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" ht="30" customHeight="1">
+    <row r="57" ht="30" customHeight="1" s="16">
       <c r="A57" s="7" t="inlineStr">
         <is>
           <t>Brahmanenkopf mit dreigeteilter Frisur</t>
@@ -7688,7 +7695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" ht="30" customHeight="1">
+    <row r="58" ht="30" customHeight="1" s="16">
       <c r="A58" s="7" t="inlineStr">
         <is>
           <t>Brett mit uigurischer Schrift</t>
@@ -7703,7 +7710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" ht="30" customHeight="1">
+    <row r="59" ht="30" customHeight="1" s="16">
       <c r="A59" s="7" t="inlineStr">
         <is>
           <t>Bruchstück einer vergoldeten und bemalten Fliese</t>
@@ -7718,7 +7725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" ht="30" customHeight="1">
+    <row r="60" ht="30" customHeight="1" s="16">
       <c r="A60" s="7" t="inlineStr">
         <is>
           <t>Buddha</t>
@@ -7733,7 +7740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" ht="30" customHeight="1">
+    <row r="61" ht="30" customHeight="1" s="16">
       <c r="A61" s="7" t="inlineStr">
         <is>
           <t>Buddha in Aureole</t>
@@ -7748,7 +7755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" ht="30" customHeight="1">
+    <row r="62" ht="30" customHeight="1" s="16">
       <c r="A62" s="7" t="inlineStr">
         <is>
           <t>Buddha in Meditation</t>
@@ -7763,7 +7770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" ht="30" customHeight="1">
+    <row r="63" ht="30" customHeight="1" s="16">
       <c r="A63" s="7" t="inlineStr">
         <is>
           <t>Buddha ohne Auerole</t>
@@ -7778,7 +7785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" ht="45" customHeight="1">
+    <row r="64" ht="45" customHeight="1" s="16">
       <c r="A64" s="7" t="inlineStr">
         <is>
           <t>Buddha sitzt unter einem Schirm in Meditationshaltung auf einem Lotos mit je einer Begleitfigur an den Seiten</t>
@@ -7793,7 +7800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" ht="30" customHeight="1">
+    <row r="65" ht="30" customHeight="1" s="16">
       <c r="A65" s="7" t="inlineStr">
         <is>
           <t>Buddha-Kopf</t>
@@ -7808,7 +7815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" ht="30" customHeight="1">
+    <row r="66" ht="30" customHeight="1" s="16">
       <c r="A66" s="7" t="inlineStr">
         <is>
           <t>Buddhakopf</t>
@@ -7823,7 +7830,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" ht="30" customHeight="1">
+    <row r="67" ht="30" customHeight="1" s="16">
       <c r="A67" s="7" t="inlineStr">
         <is>
           <t>Buddhaköpfchen</t>
@@ -7838,7 +7845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" ht="30" customHeight="1">
+    <row r="68" ht="30" customHeight="1" s="16">
       <c r="A68" s="7" t="inlineStr">
         <is>
           <t>Buddhaköpfe</t>
@@ -7853,7 +7860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" ht="30" customHeight="1">
+    <row r="69" ht="30" customHeight="1" s="16">
       <c r="A69" s="7" t="inlineStr">
         <is>
           <t>Buddhistische Gottheit</t>
@@ -7883,7 +7890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" ht="30" customHeight="1">
+    <row r="71" ht="30" customHeight="1" s="16">
       <c r="A71" s="7" t="inlineStr">
         <is>
           <t>Chinesisches Ornament</t>
@@ -7973,7 +7980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" ht="30" customHeight="1">
+    <row r="77" ht="30" customHeight="1" s="16">
       <c r="A77" s="7" t="inlineStr">
         <is>
           <t>Der Medizin-Buddha Bhaishajyaguru</t>
@@ -7988,7 +7995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" ht="30" customHeight="1">
+    <row r="78" ht="30" customHeight="1" s="16">
       <c r="A78" s="7" t="inlineStr">
         <is>
           <t>Der neugeborenen Prinz Siddhartha</t>
@@ -8003,7 +8010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" ht="30" customHeight="1">
+    <row r="79" ht="30" customHeight="1" s="16">
       <c r="A79" s="7" t="inlineStr">
         <is>
           <t>Devata</t>
@@ -8018,7 +8025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" ht="30" customHeight="1">
+    <row r="80" ht="30" customHeight="1" s="16">
       <c r="A80" s="7" t="inlineStr">
         <is>
           <t>Devata in betender Haltung</t>
@@ -8033,7 +8040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" ht="30" customHeight="1">
+    <row r="81" ht="30" customHeight="1" s="16">
       <c r="A81" s="7" t="inlineStr">
         <is>
           <t>Devata-Kopf</t>
@@ -8048,7 +8055,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" ht="30" customHeight="1">
+    <row r="82" ht="30" customHeight="1" s="16">
       <c r="A82" s="7" t="inlineStr">
         <is>
           <t>Devata-Köpfchen</t>
@@ -8063,7 +8070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" ht="30" customHeight="1">
+    <row r="83" ht="30" customHeight="1" s="16">
       <c r="A83" s="7" t="inlineStr">
         <is>
           <t>Devatakopf</t>
@@ -8078,7 +8085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" ht="30" customHeight="1">
+    <row r="84" ht="30" customHeight="1" s="16">
       <c r="A84" s="7" t="inlineStr">
         <is>
           <t>Devatakopf, Nirvanagruppe</t>
@@ -8093,7 +8100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" ht="30" customHeight="1">
+    <row r="85" ht="30" customHeight="1" s="16">
       <c r="A85" s="7" t="inlineStr">
         <is>
           <t>Doppelgestalt des Buddha</t>
@@ -8198,7 +8205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" ht="30" customHeight="1">
+    <row r="92" ht="30" customHeight="1" s="16">
       <c r="A92" s="7" t="inlineStr">
         <is>
           <t>Dreihenkliger Krug</t>
@@ -8213,7 +8220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" ht="30" customHeight="1">
+    <row r="93" ht="30" customHeight="1" s="16">
       <c r="A93" s="7" t="inlineStr">
         <is>
           <t>Dämon</t>
@@ -8228,7 +8235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" ht="30" customHeight="1">
+    <row r="94" ht="30" customHeight="1" s="16">
       <c r="A94" s="7" t="inlineStr">
         <is>
           <t>Dämonenfigur</t>
@@ -8243,7 +8250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" ht="30" customHeight="1">
+    <row r="95" ht="30" customHeight="1" s="16">
       <c r="A95" s="7" t="inlineStr">
         <is>
           <t>Dämonenkopf</t>
@@ -8258,7 +8265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" ht="30" customHeight="1">
+    <row r="96" ht="30" customHeight="1" s="16">
       <c r="A96" s="7" t="inlineStr">
         <is>
           <t>Dämonenkopf mit brauner Krone</t>
@@ -8273,7 +8280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" ht="30" customHeight="1">
+    <row r="97" ht="30" customHeight="1" s="16">
       <c r="A97" s="7" t="inlineStr">
         <is>
           <t>Dämonenkopf mit Doppelspitzbart</t>
@@ -8288,7 +8295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" ht="30" customHeight="1">
+    <row r="98" ht="30" customHeight="1" s="16">
       <c r="A98" s="7" t="inlineStr">
         <is>
           <t>Dämonenkopf mit Hauern</t>
@@ -8318,7 +8325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" ht="30" customHeight="1">
+    <row r="100" ht="30" customHeight="1" s="16">
       <c r="A100" s="7" t="inlineStr">
         <is>
           <t>Einer von 4 Stützpfosten</t>
@@ -8333,7 +8340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" ht="30" customHeight="1">
+    <row r="101" ht="30" customHeight="1" s="16">
       <c r="A101" s="7" t="inlineStr">
         <is>
           <t>Eines von zwei runden langen Holzobjekten</t>
@@ -8348,7 +8355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" ht="30" customHeight="1">
+    <row r="102" ht="30" customHeight="1" s="16">
       <c r="A102" s="7" t="inlineStr">
         <is>
           <t>Eines von zwei Teilen eines Holzrahmen</t>
@@ -8363,7 +8370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" ht="30" customHeight="1">
+    <row r="103" ht="30" customHeight="1" s="16">
       <c r="A103" s="7" t="inlineStr">
         <is>
           <t>Elefant</t>
@@ -8378,7 +8385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" ht="30" customHeight="1">
+    <row r="104" ht="30" customHeight="1" s="16">
       <c r="A104" s="7" t="inlineStr">
         <is>
           <t>Elefantenbein</t>
@@ -8393,7 +8400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" ht="30" customHeight="1">
+    <row r="105" ht="30" customHeight="1" s="16">
       <c r="A105" s="7" t="inlineStr">
         <is>
           <t>Europäisch sitzende Gottheit</t>
@@ -8408,7 +8415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" ht="45" customHeight="1">
+    <row r="106" ht="45" customHeight="1" s="16">
       <c r="A106" s="7" t="inlineStr">
         <is>
           <t>Facettierte kugelförmige Teekanne mit gemodeltem Päonienrankendekor und Löwenknauf</t>
@@ -8453,7 +8460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" ht="30" customHeight="1">
+    <row r="109" ht="30" customHeight="1" s="16">
       <c r="A109" s="7" t="inlineStr">
         <is>
           <t>Facettiertes Tee-Set mit Teekanne und drei Teebechern</t>
@@ -8483,7 +8490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" ht="30" customHeight="1">
+    <row r="111" ht="30" customHeight="1" s="16">
       <c r="A111" s="7" t="inlineStr">
         <is>
           <t>Figur eines Anbeters</t>
@@ -8543,7 +8550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" ht="30" customHeight="1">
+    <row r="115" ht="30" customHeight="1" s="16">
       <c r="A115" s="7" t="inlineStr">
         <is>
           <t>Flachovale Teekanne mit reliefierter Landschaft und Inschrift</t>
@@ -8588,7 +8595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" ht="30" customHeight="1">
+    <row r="118" ht="30" customHeight="1" s="16">
       <c r="A118" s="7" t="inlineStr">
         <is>
           <t>Fliese</t>
@@ -8603,7 +8610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" ht="30" customHeight="1">
+    <row r="119" ht="30" customHeight="1" s="16">
       <c r="A119" s="7" t="inlineStr">
         <is>
           <t>Fliese mit tanzendem Kind</t>
@@ -8618,7 +8625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" ht="30" customHeight="1">
+    <row r="120" ht="30" customHeight="1" s="16">
       <c r="A120" s="7" t="inlineStr">
         <is>
           <t>Form für Beine eines sitzenden Ritters</t>
@@ -8633,7 +8640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" ht="30" customHeight="1">
+    <row r="121" ht="30" customHeight="1" s="16">
       <c r="A121" s="7" t="inlineStr">
         <is>
           <t>Form für Bodhisattva-Kopf</t>
@@ -8648,7 +8655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" ht="30" customHeight="1">
+    <row r="122" ht="30" customHeight="1" s="16">
       <c r="A122" s="7" t="inlineStr">
         <is>
           <t>Form für Bodhisattvakopf</t>
@@ -8663,7 +8670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" ht="30" customHeight="1">
+    <row r="123" ht="30" customHeight="1" s="16">
       <c r="A123" s="7" t="inlineStr">
         <is>
           <t>Form für Mönchskopf</t>
@@ -8678,7 +8685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" ht="30" customHeight="1">
+    <row r="124" ht="30" customHeight="1" s="16">
       <c r="A124" s="7" t="inlineStr">
         <is>
           <t>Form für Pferdekopf und Wedel</t>
@@ -8693,7 +8700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" ht="30" customHeight="1">
+    <row r="125" ht="30" customHeight="1" s="16">
       <c r="A125" s="7" t="inlineStr">
         <is>
           <t>Form für Ritter</t>
@@ -8708,7 +8715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" ht="30" customHeight="1">
+    <row r="126" ht="30" customHeight="1" s="16">
       <c r="A126" s="7" t="inlineStr">
         <is>
           <t>Form für Ritter mit Panzerschutz</t>
@@ -8723,7 +8730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" ht="30" customHeight="1">
+    <row r="127" ht="30" customHeight="1" s="16">
       <c r="A127" s="7" t="inlineStr">
         <is>
           <t>Form für Rosetten</t>
@@ -8738,7 +8745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" ht="30" customHeight="1">
+    <row r="128" ht="30" customHeight="1" s="16">
       <c r="A128" s="7" t="inlineStr">
         <is>
           <t>Form für Rückseite eines behelmtes Kopfes</t>
@@ -8753,7 +8760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" ht="30" customHeight="1">
+    <row r="129" ht="30" customHeight="1" s="16">
       <c r="A129" s="7" t="inlineStr">
         <is>
           <t>Form für Stehender Buddha ohne Kopf</t>
@@ -8768,7 +8775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" ht="30" customHeight="1">
+    <row r="130" ht="30" customHeight="1" s="16">
       <c r="A130" s="7" t="inlineStr">
         <is>
           <t>Form für weiblichen Oberkörper, Hände, Lotos</t>
@@ -8783,7 +8790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" ht="30" customHeight="1">
+    <row r="131" ht="30" customHeight="1" s="16">
       <c r="A131" s="7" t="inlineStr">
         <is>
           <t>Fragment einer Figur in Mönchsrobe</t>
@@ -8798,7 +8805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" ht="30" customHeight="1">
+    <row r="132" ht="30" customHeight="1" s="16">
       <c r="A132" s="7" t="inlineStr">
         <is>
           <t>Fragment eines Dämonenkopfes</t>
@@ -8813,7 +8820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" ht="30" customHeight="1">
+    <row r="133" ht="30" customHeight="1" s="16">
       <c r="A133" s="7" t="inlineStr">
         <is>
           <t>Fragment Krieger</t>
@@ -8828,7 +8835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" ht="30" customHeight="1">
+    <row r="134" ht="30" customHeight="1" s="16">
       <c r="A134" s="7" t="inlineStr">
         <is>
           <t>Fragment Statuette Vase mit Rankenwerk</t>
@@ -8843,7 +8850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" ht="30" customHeight="1">
+    <row r="135" ht="30" customHeight="1" s="16">
       <c r="A135" s="7" t="inlineStr">
         <is>
           <t>Fragment von linker Schulterpartie einer Devata oder Bodhisattva</t>
@@ -8858,7 +8865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" ht="30" customHeight="1">
+    <row r="136" ht="30" customHeight="1" s="16">
       <c r="A136" s="7" t="inlineStr">
         <is>
           <t>Frauenkopf</t>
@@ -8873,7 +8880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" ht="30" customHeight="1">
+    <row r="137" ht="30" customHeight="1" s="16">
       <c r="A137" s="7" t="inlineStr">
         <is>
           <t>Fries</t>
@@ -8888,7 +8895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" ht="30" customHeight="1">
+    <row r="138" ht="30" customHeight="1" s="16">
       <c r="A138" s="7" t="inlineStr">
         <is>
           <t>Frozen 2</t>
@@ -8918,7 +8925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" ht="30" customHeight="1">
+    <row r="140" ht="30" customHeight="1" s="16">
       <c r="A140" s="7" t="inlineStr">
         <is>
           <t>Fußbodenfliese</t>
@@ -8993,7 +9000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" ht="30" customHeight="1">
+    <row r="145" ht="30" customHeight="1" s="16">
       <c r="A145" s="7" t="inlineStr">
         <is>
           <t>Gandhara Bodhisattva</t>
@@ -9008,7 +9015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" ht="30" customHeight="1">
+    <row r="146" ht="30" customHeight="1" s="16">
       <c r="A146" s="7" t="inlineStr">
         <is>
           <t>Gandharve einer Lotusrosette entsprungen</t>
@@ -9023,7 +9030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" ht="30" customHeight="1">
+    <row r="147" ht="30" customHeight="1" s="16">
       <c r="A147" s="7" t="inlineStr">
         <is>
           <t>Geschnitzte Borte mit floralem Motiv</t>
@@ -9038,7 +9045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" ht="30" customHeight="1">
+    <row r="148" ht="30" customHeight="1" s="16">
       <c r="A148" s="7" t="inlineStr">
         <is>
           <t>Geschnitztes Holzstück mit Voluten und floralem Muster</t>
@@ -9083,7 +9090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" ht="30" customHeight="1">
+    <row r="151" ht="30" customHeight="1" s="16">
       <c r="A151" s="7" t="inlineStr">
         <is>
           <t>giebelförmiges Architektdekor zwei Vögel</t>
@@ -9173,7 +9180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" ht="30" customHeight="1">
+    <row r="157" ht="30" customHeight="1" s="16">
       <c r="A157" s="7" t="inlineStr">
         <is>
           <t>Gottheit</t>
@@ -9248,7 +9255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" ht="30" customHeight="1">
+    <row r="162" ht="30" customHeight="1" s="16">
       <c r="A162" s="7" t="inlineStr">
         <is>
           <t>Grotesker Kopf</t>
@@ -9263,7 +9270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" ht="30" customHeight="1">
+    <row r="163" ht="30" customHeight="1" s="16">
       <c r="A163" s="7" t="inlineStr">
         <is>
           <t>Große Lotusrosette</t>
@@ -9308,7 +9315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" ht="30" customHeight="1">
+    <row r="166" ht="30" customHeight="1" s="16">
       <c r="A166" s="7" t="inlineStr">
         <is>
           <t>Großer Buddhakopf</t>
@@ -9323,7 +9330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" ht="30" customHeight="1">
+    <row r="167" ht="30" customHeight="1" s="16">
       <c r="A167" s="7" t="inlineStr">
         <is>
           <t>Großer Devata-kopf</t>
@@ -9338,7 +9345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" ht="30" customHeight="1">
+    <row r="168" ht="30" customHeight="1" s="16">
       <c r="A168" s="7" t="inlineStr">
         <is>
           <t>Großer Devatakopf</t>
@@ -9353,7 +9360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" ht="30" customHeight="1">
+    <row r="169" ht="30" customHeight="1" s="16">
       <c r="A169" s="7" t="inlineStr">
         <is>
           <t>Großer Kopf</t>
@@ -9368,7 +9375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" ht="30" customHeight="1">
+    <row r="170" ht="30" customHeight="1" s="16">
       <c r="A170" s="7" t="inlineStr">
         <is>
           <t>Großer Kopf einer Devata</t>
@@ -9383,7 +9390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" ht="30" customHeight="1">
+    <row r="171" ht="30" customHeight="1" s="16">
       <c r="A171" s="7" t="inlineStr">
         <is>
           <t>Großer Kopf einer Devata mit aufgebundenen Schopf</t>
@@ -9413,7 +9420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" ht="30" customHeight="1">
+    <row r="173" ht="30" customHeight="1" s="16">
       <c r="A173" s="7" t="inlineStr">
         <is>
           <t>Grundpfahl (Gründungsurkunde) für ein buddhistisches Kloster</t>
@@ -9428,7 +9435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" ht="45" customHeight="1">
+    <row r="174" ht="45" customHeight="1" s="16">
       <c r="A174" s="7" t="inlineStr">
         <is>
           <t>Grundpfahl (Gründungsurkunde) für ein buddhistisches Kloster mit Chinesischer Inschrift.</t>
@@ -9443,7 +9450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" ht="45" customHeight="1">
+    <row r="175" ht="45" customHeight="1" s="16">
       <c r="A175" s="7" t="inlineStr">
         <is>
           <t>Grundpfahl (Gründungsurkunde) für ein buddhistisches Kloster mit uigurischer Beschriftung</t>
@@ -9458,7 +9465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" ht="30" customHeight="1">
+    <row r="176" ht="30" customHeight="1" s="16">
       <c r="A176" s="7" t="inlineStr">
         <is>
           <t>Größerer Kopf</t>
@@ -9488,7 +9495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" ht="30" customHeight="1">
+    <row r="178" ht="30" customHeight="1" s="16">
       <c r="A178" s="7" t="inlineStr">
         <is>
           <t>Gürtelornament Hirsch</t>
@@ -9503,7 +9510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" ht="30" customHeight="1">
+    <row r="179" ht="30" customHeight="1" s="16">
       <c r="A179" s="7" t="inlineStr">
         <is>
           <t>Gürtelschnalle</t>
@@ -9518,7 +9525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" ht="30" customHeight="1">
+    <row r="180" ht="30" customHeight="1" s="16">
       <c r="A180" s="7" t="inlineStr">
         <is>
           <t>Haar- und Stirnpartie Devata</t>
@@ -9578,7 +9585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" ht="30" customHeight="1">
+    <row r="184" ht="30" customHeight="1" s="16">
       <c r="A184" s="7" t="inlineStr">
         <is>
           <t>Halspartie einer Statuette</t>
@@ -9653,7 +9660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" ht="30" customHeight="1">
+    <row r="189" ht="30" customHeight="1" s="16">
       <c r="A189" s="7" t="inlineStr">
         <is>
           <t>hand</t>
@@ -9668,7 +9675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" ht="30" customHeight="1">
+    <row r="190" ht="30" customHeight="1" s="16">
       <c r="A190" s="7" t="inlineStr">
         <is>
           <t>Hand</t>
@@ -9803,7 +9810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" ht="30" customHeight="1">
+    <row r="199" ht="30" customHeight="1" s="16">
       <c r="A199" s="7" t="inlineStr">
         <is>
           <t>Holzbeine</t>
@@ -9818,7 +9825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" ht="30" customHeight="1">
+    <row r="200" ht="30" customHeight="1" s="16">
       <c r="A200" s="7" t="inlineStr">
         <is>
           <t>Holzfragment eines caityas</t>
@@ -9833,7 +9840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" ht="30" customHeight="1">
+    <row r="201" ht="30" customHeight="1" s="16">
       <c r="A201" s="7" t="inlineStr">
         <is>
           <t>Holzkasten mit Schiebedeckel</t>
@@ -9848,7 +9855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" ht="30" customHeight="1">
+    <row r="202" ht="30" customHeight="1" s="16">
       <c r="A202" s="7" t="inlineStr">
         <is>
           <t>Holzpaneel mit floralem Schnitzwerk</t>
@@ -9863,7 +9870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" ht="30" customHeight="1">
+    <row r="203" ht="30" customHeight="1" s="16">
       <c r="A203" s="7" t="inlineStr">
         <is>
           <t>Holzpaneel, Schnitzwerk mit Trauben</t>
@@ -9878,7 +9885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" ht="30" customHeight="1">
+    <row r="204" ht="30" customHeight="1" s="16">
       <c r="A204" s="7" t="inlineStr">
         <is>
           <t>Holzplanke</t>
@@ -9893,7 +9900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" ht="30" customHeight="1">
+    <row r="205" ht="30" customHeight="1" s="16">
       <c r="A205" s="7" t="inlineStr">
         <is>
           <t>Holzschlüssel</t>
@@ -9908,7 +9915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" ht="30" customHeight="1">
+    <row r="206" ht="30" customHeight="1" s="16">
       <c r="A206" s="7" t="inlineStr">
         <is>
           <t>Holzschädel</t>
@@ -9923,7 +9930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" ht="30" customHeight="1">
+    <row r="207" ht="30" customHeight="1" s="16">
       <c r="A207" s="7" t="inlineStr">
         <is>
           <t>Holzsiegel</t>
@@ -9938,7 +9945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" ht="30" customHeight="1">
+    <row r="208" ht="30" customHeight="1" s="16">
       <c r="A208" s="7" t="inlineStr">
         <is>
           <t>Holzstück von einer Säulenbasis</t>
@@ -9968,7 +9975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" ht="30" customHeight="1">
+    <row r="210" ht="30" customHeight="1" s="16">
       <c r="A210" s="7" t="inlineStr">
         <is>
           <t>Indische Gottheit</t>
@@ -9983,7 +9990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" ht="30" customHeight="1">
+    <row r="211" ht="30" customHeight="1" s="16">
       <c r="A211" s="7" t="inlineStr">
         <is>
           <t>Indoskythenkopf. Frisur</t>
@@ -9998,7 +10005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" ht="30" customHeight="1">
+    <row r="212" ht="30" customHeight="1" s="16">
       <c r="A212" s="7" t="inlineStr">
         <is>
           <t>Indoskytischer Krieger</t>
@@ -10013,7 +10020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" ht="30" customHeight="1">
+    <row r="213" ht="30" customHeight="1" s="16">
       <c r="A213" s="7" t="inlineStr">
         <is>
           <t>Kamel</t>
@@ -10028,7 +10035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" ht="30" customHeight="1">
+    <row r="214" ht="30" customHeight="1" s="16">
       <c r="A214" s="7" t="inlineStr">
         <is>
           <t>Kamelkopf</t>
@@ -10133,7 +10140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" ht="30" customHeight="1">
+    <row r="221" ht="30" customHeight="1" s="16">
       <c r="A221" s="7" t="inlineStr">
         <is>
           <t>Kapitell</t>
@@ -10148,7 +10155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" ht="30" customHeight="1">
+    <row r="222" ht="30" customHeight="1" s="16">
       <c r="A222" s="7" t="inlineStr">
         <is>
           <t>Kapitell (halb bearbeitet)</t>
@@ -10163,7 +10170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" ht="30" customHeight="1">
+    <row r="223" ht="30" customHeight="1" s="16">
       <c r="A223" s="7" t="inlineStr">
         <is>
           <t>Karyatide</t>
@@ -10178,7 +10185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" ht="30" customHeight="1">
+    <row r="224" ht="30" customHeight="1" s="16">
       <c r="A224" s="7" t="inlineStr">
         <is>
           <t>Keil mit Schnitzwerk</t>
@@ -10223,7 +10230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" ht="30" customHeight="1">
+    <row r="227" ht="30" customHeight="1" s="16">
       <c r="A227" s="7" t="inlineStr">
         <is>
           <t>Kirtimuhka. Löwenkopfmotiv</t>
@@ -10238,7 +10245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" ht="30" customHeight="1">
+    <row r="228" ht="30" customHeight="1" s="16">
       <c r="A228" s="7" t="inlineStr">
         <is>
           <t>Kleine Holzfigur, sitzend in anjali-mudra</t>
@@ -10268,7 +10275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" ht="30" customHeight="1">
+    <row r="230" ht="30" customHeight="1" s="16">
       <c r="A230" s="7" t="inlineStr">
         <is>
           <t>Kleine lederne Tasche</t>
@@ -10283,7 +10290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" ht="30" customHeight="1">
+    <row r="231" ht="30" customHeight="1" s="16">
       <c r="A231" s="7" t="inlineStr">
         <is>
           <t>Kleine Mönchsfigur</t>
@@ -10328,7 +10335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" ht="30" customHeight="1">
+    <row r="234" ht="30" customHeight="1" s="16">
       <c r="A234" s="7" t="inlineStr">
         <is>
           <t>Kleine sitzende Figur</t>
@@ -10343,7 +10350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" ht="30" customHeight="1">
+    <row r="235" ht="30" customHeight="1" s="16">
       <c r="A235" s="7" t="inlineStr">
         <is>
           <t>Kleine Statuetten</t>
@@ -10403,7 +10410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" ht="30" customHeight="1">
+    <row r="239" ht="30" customHeight="1" s="16">
       <c r="A239" s="7" t="inlineStr">
         <is>
           <t>Kleiner Buddhakopf</t>
@@ -10418,7 +10425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" ht="30" customHeight="1">
+    <row r="240" ht="30" customHeight="1" s="16">
       <c r="A240" s="7" t="inlineStr">
         <is>
           <t>Kleiner Elefantenkopf</t>
@@ -10433,7 +10440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" ht="30" customHeight="1">
+    <row r="241" ht="30" customHeight="1" s="16">
       <c r="A241" s="7" t="inlineStr">
         <is>
           <t>Kleiner geschnitzter Löwe</t>
@@ -10463,7 +10470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" ht="30" customHeight="1">
+    <row r="243" ht="30" customHeight="1" s="16">
       <c r="A243" s="7" t="inlineStr">
         <is>
           <t>Kleiner Kopf</t>
@@ -10478,7 +10485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" ht="30" customHeight="1">
+    <row r="244" ht="30" customHeight="1" s="16">
       <c r="A244" s="7" t="inlineStr">
         <is>
           <t>Kleiner Kopf eines Dämons</t>
@@ -10508,7 +10515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" ht="30" customHeight="1">
+    <row r="246" ht="30" customHeight="1" s="16">
       <c r="A246" s="7" t="inlineStr">
         <is>
           <t>Kleiner Löwe</t>
@@ -10523,7 +10530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" ht="30" customHeight="1">
+    <row r="247" ht="30" customHeight="1" s="16">
       <c r="A247" s="7" t="inlineStr">
         <is>
           <t>Kleiner sitzender Buddha</t>
@@ -10538,7 +10545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" ht="30" customHeight="1">
+    <row r="248" ht="30" customHeight="1" s="16">
       <c r="A248" s="7" t="inlineStr">
         <is>
           <t>Kleiner Stupa</t>
@@ -10613,7 +10620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" ht="30" customHeight="1">
+    <row r="253" ht="30" customHeight="1" s="16">
       <c r="A253" s="7" t="inlineStr">
         <is>
           <t>Knabe mit Flöte</t>
@@ -10628,7 +10635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" ht="30" customHeight="1">
+    <row r="254" ht="30" customHeight="1" s="16">
       <c r="A254" s="7" t="inlineStr">
         <is>
           <t>Knieende Figur</t>
@@ -10643,7 +10650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" ht="30" customHeight="1">
+    <row r="255" ht="30" customHeight="1" s="16">
       <c r="A255" s="7" t="inlineStr">
         <is>
           <t>knieende kopflose Holzstatuette</t>
@@ -10658,7 +10665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" ht="30" customHeight="1">
+    <row r="256" ht="30" customHeight="1" s="16">
       <c r="A256" s="7" t="inlineStr">
         <is>
           <t>Knieender Brahmane</t>
@@ -10688,7 +10695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" ht="30" customHeight="1">
+    <row r="258" ht="30" customHeight="1" s="16">
       <c r="A258" s="7" t="inlineStr">
         <is>
           <t>Konsole, Kragholz</t>
@@ -10703,7 +10710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" ht="30" customHeight="1">
+    <row r="259" ht="30" customHeight="1" s="16">
       <c r="A259" s="7" t="inlineStr">
         <is>
           <t>Konsolenplatte</t>
@@ -10718,7 +10725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" ht="30" customHeight="1">
+    <row r="260" ht="30" customHeight="1" s="16">
       <c r="A260" s="7" t="inlineStr">
         <is>
           <t>Konsolenplatte mit floralem Schnitzwerk</t>
@@ -10733,7 +10740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" ht="30" customHeight="1">
+    <row r="261" ht="30" customHeight="1" s="16">
       <c r="A261" s="7" t="inlineStr">
         <is>
           <t>Konsolenplatte, Chin. 斗 dou</t>
@@ -10748,7 +10755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" ht="30" customHeight="1">
+    <row r="262" ht="30" customHeight="1" s="16">
       <c r="A262" s="7" t="inlineStr">
         <is>
           <t>Kopf</t>
@@ -10763,7 +10770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" ht="30" customHeight="1">
+    <row r="263" ht="30" customHeight="1" s="16">
       <c r="A263" s="7" t="inlineStr">
         <is>
           <t>Kopf einer Devata</t>
@@ -10778,7 +10785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="264" ht="30" customHeight="1">
+    <row r="264" ht="30" customHeight="1" s="16">
       <c r="A264" s="7" t="inlineStr">
         <is>
           <t>Kopf einer Holzstatuette</t>
@@ -10793,7 +10800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" ht="30" customHeight="1">
+    <row r="265" ht="30" customHeight="1" s="16">
       <c r="A265" s="7" t="inlineStr">
         <is>
           <t>Kopf eines Beamten</t>
@@ -10808,7 +10815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" ht="30" customHeight="1">
+    <row r="266" ht="30" customHeight="1" s="16">
       <c r="A266" s="7" t="inlineStr">
         <is>
           <t>Kopf eines Bodhisattva</t>
@@ -10823,7 +10830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" ht="30" customHeight="1">
+    <row r="267" ht="30" customHeight="1" s="16">
       <c r="A267" s="7" t="inlineStr">
         <is>
           <t>Kopf eines Dämon</t>
@@ -10838,7 +10845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" ht="30" customHeight="1">
+    <row r="268" ht="30" customHeight="1" s="16">
       <c r="A268" s="7" t="inlineStr">
         <is>
           <t>Kopf eines Elefanten</t>
@@ -10853,7 +10860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" ht="30" customHeight="1">
+    <row r="269" ht="30" customHeight="1" s="16">
       <c r="A269" s="7" t="inlineStr">
         <is>
           <t>Kopf eines Mönchs</t>
@@ -10868,7 +10875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" ht="30" customHeight="1">
+    <row r="270" ht="30" customHeight="1" s="16">
       <c r="A270" s="7" t="inlineStr">
         <is>
           <t>Kopf eines Ritters</t>
@@ -10883,7 +10890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" ht="30" customHeight="1">
+    <row r="271" ht="30" customHeight="1" s="16">
       <c r="A271" s="7" t="inlineStr">
         <is>
           <t>Kopf eines Ritters (Vorderseite)</t>
@@ -10898,7 +10905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" ht="30" customHeight="1">
+    <row r="272" ht="30" customHeight="1" s="16">
       <c r="A272" s="7" t="inlineStr">
         <is>
           <t>Kopf eines trauerden Mönches</t>
@@ -10913,7 +10920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" ht="30" customHeight="1">
+    <row r="273" ht="30" customHeight="1" s="16">
       <c r="A273" s="7" t="inlineStr">
         <is>
           <t>Kopf grotesk</t>
@@ -10928,7 +10935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" ht="30" customHeight="1">
+    <row r="274" ht="30" customHeight="1" s="16">
       <c r="A274" s="7" t="inlineStr">
         <is>
           <t>Kopf mit Krone</t>
@@ -10943,7 +10950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" ht="30" customHeight="1">
+    <row r="275" ht="30" customHeight="1" s="16">
       <c r="A275" s="7" t="inlineStr">
         <is>
           <t>Kopf mit lachendem Gesicht und Löwenhelm</t>
@@ -10958,7 +10965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" ht="30" customHeight="1">
+    <row r="276" ht="30" customHeight="1" s="16">
       <c r="A276" s="7" t="inlineStr">
         <is>
           <t>Kopf mit weißer Kappe</t>
@@ -10973,7 +10980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" ht="30" customHeight="1">
+    <row r="277" ht="30" customHeight="1" s="16">
       <c r="A277" s="7" t="inlineStr">
         <is>
           <t>Kopffragment</t>
@@ -10988,7 +10995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" ht="30" customHeight="1">
+    <row r="278" ht="30" customHeight="1" s="16">
       <c r="A278" s="7" t="inlineStr">
         <is>
           <t>Kopffragment eines Brahmanen</t>
@@ -11003,7 +11010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" ht="30" customHeight="1">
+    <row r="279" ht="30" customHeight="1" s="16">
       <c r="A279" s="7" t="inlineStr">
         <is>
           <t>Kopffragment mit Schmuckband</t>
@@ -11033,7 +11040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="281" ht="30" customHeight="1">
+    <row r="281" ht="30" customHeight="1" s="16">
       <c r="A281" s="7" t="inlineStr">
         <is>
           <t>Kopie der Form für Bodhisattva-Kopf</t>
@@ -11048,7 +11055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" ht="30" customHeight="1">
+    <row r="282" ht="30" customHeight="1" s="16">
       <c r="A282" s="7" t="inlineStr">
         <is>
           <t>Kopie der Form für Bodhisattvakopf</t>
@@ -11063,7 +11070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" ht="30" customHeight="1">
+    <row r="283" ht="30" customHeight="1" s="16">
       <c r="A283" s="7" t="inlineStr">
         <is>
           <t>Kopie der Form für Mönchskopf</t>
@@ -11093,7 +11100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" ht="30" customHeight="1">
+    <row r="285" ht="30" customHeight="1" s="16">
       <c r="A285" s="7" t="inlineStr">
         <is>
           <t>Koppchen und Untersatz mit mythologischer Szene</t>
@@ -11108,7 +11115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" ht="30" customHeight="1">
+    <row r="286" ht="30" customHeight="1" s="16">
       <c r="A286" s="7" t="inlineStr">
         <is>
           <t>Kragbalken</t>
@@ -11123,7 +11130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" ht="30" customHeight="1">
+    <row r="287" ht="30" customHeight="1" s="16">
       <c r="A287" s="7" t="inlineStr">
         <is>
           <t>Kragträger mit floralem Schnitzwerk</t>
@@ -11183,7 +11190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" ht="30" customHeight="1">
+    <row r="291" ht="30" customHeight="1" s="16">
       <c r="A291" s="7" t="inlineStr">
         <is>
           <t>Kshitigarbha</t>
@@ -11198,7 +11205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" ht="30" customHeight="1">
+    <row r="292" ht="30" customHeight="1" s="16">
       <c r="A292" s="7" t="inlineStr">
         <is>
           <t>Kugelförmige Teekanne mit gemodeltem Dekor von Weinranken und Eichhörnchen</t>
@@ -11228,7 +11235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" ht="30" customHeight="1">
+    <row r="294" ht="30" customHeight="1" s="16">
       <c r="A294" s="7" t="inlineStr">
         <is>
           <t>Kultbildrahmen</t>
@@ -11243,7 +11250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" ht="30" customHeight="1">
+    <row r="295" ht="30" customHeight="1" s="16">
       <c r="A295" s="7" t="inlineStr">
         <is>
           <t>Kultnische</t>
@@ -11303,7 +11310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" ht="30" customHeight="1">
+    <row r="299" ht="30" customHeight="1" s="16">
       <c r="A299" s="7" t="inlineStr">
         <is>
           <t>Kurzhalsflasche mit geritztem und gekämmtem Dekor</t>
@@ -11318,7 +11325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" ht="30" customHeight="1">
+    <row r="300" ht="30" customHeight="1" s="16">
       <c r="A300" s="7" t="inlineStr">
         <is>
           <t>Kwanyian-Halbfigur</t>
@@ -11393,7 +11400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" ht="30" customHeight="1">
+    <row r="305" ht="30" customHeight="1" s="16">
       <c r="A305" s="7" t="inlineStr">
         <is>
           <t>Lehmköpfchen, blaues rotgewandetes Kopftuch</t>
@@ -11408,7 +11415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" ht="30" customHeight="1">
+    <row r="306" ht="30" customHeight="1" s="16">
       <c r="A306" s="7" t="inlineStr">
         <is>
           <t>Lokapala</t>
@@ -11423,7 +11430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" ht="30" customHeight="1">
+    <row r="307" ht="30" customHeight="1" s="16">
       <c r="A307" s="7" t="inlineStr">
         <is>
           <t>Lotosthron mit Totenschädeln</t>
@@ -11438,7 +11445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" ht="30" customHeight="1">
+    <row r="308" ht="30" customHeight="1" s="16">
       <c r="A308" s="7" t="inlineStr">
         <is>
           <t>Lotusrosette</t>
@@ -11453,7 +11460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" ht="30" customHeight="1">
+    <row r="309" ht="30" customHeight="1" s="16">
       <c r="A309" s="7" t="inlineStr">
         <is>
           <t>Lotussockel mit Beinen</t>
@@ -11468,7 +11475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" ht="30" customHeight="1">
+    <row r="310" ht="30" customHeight="1" s="16">
       <c r="A310" s="7" t="inlineStr">
         <is>
           <t>Löwe</t>
@@ -11483,7 +11490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" ht="30" customHeight="1">
+    <row r="311" ht="30" customHeight="1" s="16">
       <c r="A311" s="7" t="inlineStr">
         <is>
           <t>Löwenkopf</t>
@@ -11513,7 +11520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" ht="30" customHeight="1">
+    <row r="313" ht="30" customHeight="1" s="16">
       <c r="A313" s="7" t="inlineStr">
         <is>
           <t>Meditierender Buddha</t>
@@ -11588,7 +11595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" ht="30" customHeight="1">
+    <row r="318" ht="30" customHeight="1" s="16">
       <c r="A318" s="7" t="inlineStr">
         <is>
           <t>Muschel</t>
@@ -11603,7 +11610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" ht="30" customHeight="1">
+    <row r="319" ht="30" customHeight="1" s="16">
       <c r="A319" s="7" t="inlineStr">
         <is>
           <t>männlicher Torso mit reichgefädeltem Hufttuch</t>
@@ -11618,7 +11625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" ht="30" customHeight="1">
+    <row r="320" ht="30" customHeight="1" s="16">
       <c r="A320" s="7" t="inlineStr">
         <is>
           <t>männliches Torsofragment</t>
@@ -11633,7 +11640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" ht="30" customHeight="1">
+    <row r="321" ht="30" customHeight="1" s="16">
       <c r="A321" s="7" t="inlineStr">
         <is>
           <t>Mönchkopf -Nirvanagruppe</t>
@@ -11648,7 +11655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" ht="30" customHeight="1">
+    <row r="322" ht="30" customHeight="1" s="16">
       <c r="A322" s="7" t="inlineStr">
         <is>
           <t>Mönchs-oder Buddhakopf</t>
@@ -11663,7 +11670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" ht="30" customHeight="1">
+    <row r="323" ht="30" customHeight="1" s="16">
       <c r="A323" s="7" t="inlineStr">
         <is>
           <t>Mönchskopf vom Parinirvana</t>
@@ -11678,7 +11685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" ht="30" customHeight="1">
+    <row r="324" ht="30" customHeight="1" s="16">
       <c r="A324" s="7" t="inlineStr">
         <is>
           <t>Naturalistischer Kopf</t>
@@ -11693,7 +11700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" ht="30" customHeight="1">
+    <row r="325" ht="30" customHeight="1" s="16">
       <c r="A325" s="7" t="inlineStr">
         <is>
           <t>Oberarm</t>
@@ -11708,7 +11715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" ht="30" customHeight="1">
+    <row r="326" ht="30" customHeight="1" s="16">
       <c r="A326" s="7" t="inlineStr">
         <is>
           <t>Oberkörper</t>
@@ -11723,7 +11730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" ht="30" customHeight="1">
+    <row r="327" ht="30" customHeight="1" s="16">
       <c r="A327" s="7" t="inlineStr">
         <is>
           <t>Ornament (Gefäß mit Lotus)</t>
@@ -11828,7 +11835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" ht="30" customHeight="1">
+    <row r="334" ht="30" customHeight="1" s="16">
       <c r="A334" s="7" t="inlineStr">
         <is>
           <t>Padmapani</t>
@@ -11843,7 +11850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" ht="30" customHeight="1">
+    <row r="335" ht="30" customHeight="1" s="16">
       <c r="A335" s="7" t="inlineStr">
         <is>
           <t>Panzerschurz</t>
@@ -11858,7 +11865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" ht="30" customHeight="1">
+    <row r="336" ht="30" customHeight="1" s="16">
       <c r="A336" s="7" t="inlineStr">
         <is>
           <t>Pfeiler eines Tores</t>
@@ -11873,7 +11880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" ht="30" customHeight="1">
+    <row r="337" ht="30" customHeight="1" s="16">
       <c r="A337" s="7" t="inlineStr">
         <is>
           <t>Pferdekopf</t>
@@ -11888,7 +11895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" ht="30" customHeight="1">
+    <row r="338" ht="30" customHeight="1" s="16">
       <c r="A338" s="7" t="inlineStr">
         <is>
           <t>Pferdekopf mit gesträubten Haar</t>
@@ -11903,7 +11910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" ht="30" customHeight="1">
+    <row r="339" ht="30" customHeight="1" s="16">
       <c r="A339" s="7" t="inlineStr">
         <is>
           <t>Phönix im Perlenkreis, Rosette</t>
@@ -11963,7 +11970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" ht="30" customHeight="1">
+    <row r="343" ht="30" customHeight="1" s="16">
       <c r="A343" s="7" t="inlineStr">
         <is>
           <t>Pinselbecher mit Darstellung der "Sieben Weisen vom Bambushain"</t>
@@ -12023,7 +12030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="347" ht="30" customHeight="1">
+    <row r="347" ht="30" customHeight="1" s="16">
       <c r="A347" s="7" t="inlineStr">
         <is>
           <t>Querflöte spielende Gottheit</t>
@@ -12038,7 +12045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" ht="30" customHeight="1">
+    <row r="348" ht="30" customHeight="1" s="16">
       <c r="A348" s="7" t="inlineStr">
         <is>
           <t>Rechte Hand</t>
@@ -12068,7 +12075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" ht="30" customHeight="1">
+    <row r="350" ht="30" customHeight="1" s="16">
       <c r="A350" s="7" t="inlineStr">
         <is>
           <t>rechteckiges Architekturfragment (Tür?)</t>
@@ -12113,7 +12120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" ht="30" customHeight="1">
+    <row r="353" ht="30" customHeight="1" s="16">
       <c r="A353" s="7" t="inlineStr">
         <is>
           <t>Reliefstatuette kopflos, stehende männliche Figur</t>
@@ -12128,7 +12135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" ht="30" customHeight="1">
+    <row r="354" ht="30" customHeight="1" s="16">
       <c r="A354" s="7" t="inlineStr">
         <is>
           <t>Rest einer Messingplatte</t>
@@ -12143,7 +12150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" ht="30" customHeight="1">
+    <row r="355" ht="30" customHeight="1" s="16">
       <c r="A355" s="7" t="inlineStr">
         <is>
           <t>Rest einer Rahmenleiste</t>
@@ -12158,7 +12165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" ht="30" customHeight="1">
+    <row r="356" ht="30" customHeight="1" s="16">
       <c r="A356" s="7" t="inlineStr">
         <is>
           <t>Rest eines riesigen Pferdekopfes</t>
@@ -12173,7 +12180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" ht="30" customHeight="1">
+    <row r="357" ht="30" customHeight="1" s="16">
       <c r="A357" s="7" t="inlineStr">
         <is>
           <t>Ritter mit Helm</t>
@@ -12188,7 +12195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" ht="30" customHeight="1">
+    <row r="358" ht="30" customHeight="1" s="16">
       <c r="A358" s="7" t="inlineStr">
         <is>
           <t>Ritter mit Spangenhelm</t>
@@ -12203,7 +12210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" ht="30" customHeight="1">
+    <row r="359" ht="30" customHeight="1" s="16">
       <c r="A359" s="7" t="inlineStr">
         <is>
           <t>Ritterkopf</t>
@@ -12218,7 +12225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="360" ht="30" customHeight="1">
+    <row r="360" ht="30" customHeight="1" s="16">
       <c r="A360" s="7" t="inlineStr">
         <is>
           <t>Rosette</t>
@@ -12233,7 +12240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" ht="30" customHeight="1">
+    <row r="361" ht="30" customHeight="1" s="16">
       <c r="A361" s="7" t="inlineStr">
         <is>
           <t>Rossette, Blume</t>
@@ -12263,7 +12270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" ht="30" customHeight="1">
+    <row r="363" ht="30" customHeight="1" s="16">
       <c r="A363" s="7" t="inlineStr">
         <is>
           <t>rundes Objekt</t>
@@ -12308,7 +12315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" ht="30" customHeight="1">
+    <row r="366" ht="30" customHeight="1" s="16">
       <c r="A366" s="7" t="inlineStr">
         <is>
           <t>Rückseite eines behelmten Kopfes</t>
@@ -12323,7 +12330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" ht="30" customHeight="1">
+    <row r="367" ht="30" customHeight="1" s="16">
       <c r="A367" s="7" t="inlineStr">
         <is>
           <t>Sake-Set mit Gießgefäß und zwei Sakeschalen mit hohem Stiel</t>
@@ -12743,7 +12750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" ht="30" customHeight="1">
+    <row r="395" ht="30" customHeight="1" s="16">
       <c r="A395" s="7" t="inlineStr">
         <is>
           <t>Scheibe mit Händen</t>
@@ -12758,7 +12765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" ht="30" customHeight="1">
+    <row r="396" ht="30" customHeight="1" s="16">
       <c r="A396" s="7" t="inlineStr">
         <is>
           <t>Schlüssel</t>
@@ -12773,7 +12780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="397" ht="30" customHeight="1">
+    <row r="397" ht="30" customHeight="1" s="16">
       <c r="A397" s="7" t="inlineStr">
         <is>
           <t>Schmalgesichtiger Kopf mit schwarzen Haar</t>
@@ -12788,7 +12795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" ht="30" customHeight="1">
+    <row r="398" ht="30" customHeight="1" s="16">
       <c r="A398" s="7" t="inlineStr">
         <is>
           <t>Schrein einer hölzernen Votiv-Stupa</t>
@@ -12893,7 +12900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" ht="30" customHeight="1">
+    <row r="405" ht="30" customHeight="1" s="16">
       <c r="A405" s="7" t="inlineStr">
         <is>
           <t>Sechs Totenschädel und Schale</t>
@@ -12968,7 +12975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" ht="30" customHeight="1">
+    <row r="410" ht="30" customHeight="1" s="16">
       <c r="A410" s="7" t="inlineStr">
         <is>
           <t>Segment eines großen Holzobjektes</t>
@@ -13028,7 +13035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" ht="30" customHeight="1">
+    <row r="414" ht="30" customHeight="1" s="16">
       <c r="A414" s="7" t="inlineStr">
         <is>
           <t>Sitzende Buddhafigur ohne Kopf</t>
@@ -13043,7 +13050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" ht="30" customHeight="1">
+    <row r="415" ht="30" customHeight="1" s="16">
       <c r="A415" s="7" t="inlineStr">
         <is>
           <t>Sitzender Buddha</t>
@@ -13058,7 +13065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="416" ht="30" customHeight="1">
+    <row r="416" ht="30" customHeight="1" s="16">
       <c r="A416" s="7" t="inlineStr">
         <is>
           <t>Sitzender Buddha auf hohem Thron</t>
@@ -13073,7 +13080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" ht="30" customHeight="1">
+    <row r="417" ht="30" customHeight="1" s="16">
       <c r="A417" s="7" t="inlineStr">
         <is>
           <t>Sitzender Buddha auf niederen Thron</t>
@@ -13088,7 +13095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" ht="30" customHeight="1">
+    <row r="418" ht="30" customHeight="1" s="16">
       <c r="A418" s="7" t="inlineStr">
         <is>
           <t>Sitzender Buddha auf schmalem, hohem Thron und ovaler Flammen-Körperaureole</t>
@@ -13103,7 +13110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" ht="30" customHeight="1">
+    <row r="419" ht="30" customHeight="1" s="16">
       <c r="A419" s="7" t="inlineStr">
         <is>
           <t>Sitzender Buddha ohne Kopf</t>
@@ -13118,7 +13125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" ht="30" customHeight="1">
+    <row r="420" ht="30" customHeight="1" s="16">
       <c r="A420" s="7" t="inlineStr">
         <is>
           <t>Sockel</t>
@@ -13133,7 +13140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" ht="30" customHeight="1">
+    <row r="421" ht="30" customHeight="1" s="16">
       <c r="A421" s="7" t="inlineStr">
         <is>
           <t>Sockel zur Verlustinschrift</t>
@@ -13178,7 +13185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" ht="30" customHeight="1">
+    <row r="424" ht="30" customHeight="1" s="16">
       <c r="A424" s="7" t="inlineStr">
         <is>
           <t>Stehende Figur Bodhisattva</t>
@@ -13193,7 +13200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" ht="30" customHeight="1">
+    <row r="425" ht="30" customHeight="1" s="16">
       <c r="A425" s="7" t="inlineStr">
         <is>
           <t>Stehende Gottheit</t>
@@ -13208,7 +13215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" ht="30" customHeight="1">
+    <row r="426" ht="30" customHeight="1" s="16">
       <c r="A426" s="7" t="inlineStr">
         <is>
           <t>Stehender Bodhisattva</t>
@@ -13223,7 +13230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" ht="30" customHeight="1">
+    <row r="427" ht="30" customHeight="1" s="16">
       <c r="A427" s="7" t="inlineStr">
         <is>
           <t>Stehender Buddha</t>
@@ -13253,7 +13260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="429" ht="30" customHeight="1">
+    <row r="429" ht="30" customHeight="1" s="16">
       <c r="A429" s="7" t="inlineStr">
         <is>
           <t>Stehender Buddha auf Lotus mit Mandorla</t>
@@ -13268,7 +13275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" ht="30" customHeight="1">
+    <row r="430" ht="30" customHeight="1" s="16">
       <c r="A430" s="7" t="inlineStr">
         <is>
           <t>Stehender Buddha in indischem Torbogen</t>
@@ -13283,7 +13290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" ht="30" customHeight="1">
+    <row r="431" ht="30" customHeight="1" s="16">
       <c r="A431" s="7" t="inlineStr">
         <is>
           <t>Stehender Buddha ohne Kopf</t>
@@ -13298,7 +13305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="432" ht="30" customHeight="1">
+    <row r="432" ht="30" customHeight="1" s="16">
       <c r="A432" s="7" t="inlineStr">
         <is>
           <t>Stehender Guanyin</t>
@@ -13313,7 +13320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" ht="30" customHeight="1">
+    <row r="433" ht="30" customHeight="1" s="16">
       <c r="A433" s="7" t="inlineStr">
         <is>
           <t>Stempel an Wein- oder Getreidekrug</t>
@@ -13328,7 +13335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" ht="30" customHeight="1">
+    <row r="434" ht="30" customHeight="1" s="16">
       <c r="A434" s="7" t="inlineStr">
         <is>
           <t>Stuhllehne</t>
@@ -13343,7 +13350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" ht="30" customHeight="1">
+    <row r="435" ht="30" customHeight="1" s="16">
       <c r="A435" s="7" t="inlineStr">
         <is>
           <t>Stupa</t>
@@ -13358,7 +13365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="436" ht="30" customHeight="1">
+    <row r="436" ht="30" customHeight="1" s="16">
       <c r="A436" s="7" t="inlineStr">
         <is>
           <t>Stützbalken</t>
@@ -13373,7 +13380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" ht="30" customHeight="1">
+    <row r="437" ht="30" customHeight="1" s="16">
       <c r="A437" s="7" t="inlineStr">
         <is>
           <t>Säulenbasis</t>
@@ -13388,7 +13395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="438" ht="30" customHeight="1">
+    <row r="438" ht="30" customHeight="1" s="16">
       <c r="A438" s="7" t="inlineStr">
         <is>
           <t>Taube</t>
@@ -13463,7 +13470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" ht="30" customHeight="1">
+    <row r="443" ht="30" customHeight="1" s="16">
       <c r="A443" s="7" t="inlineStr">
         <is>
           <t>Teebüchse als Teekanne montiert mit Drachen- und Vogeldekor</t>
@@ -13508,7 +13515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" ht="30" customHeight="1">
+    <row r="446" ht="30" customHeight="1" s="16">
       <c r="A446" s="7" t="inlineStr">
         <is>
           <t>Teekanne mit gemodeltem Dekor von Pflaumenblütenzweigen</t>
@@ -13568,7 +13575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" ht="30" customHeight="1">
+    <row r="450" ht="30" customHeight="1" s="16">
       <c r="A450" s="7" t="inlineStr">
         <is>
           <t>Teil der Holzarchitektur aus den buddhistischen Höhlen</t>
@@ -13583,7 +13590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" ht="30" customHeight="1">
+    <row r="451" ht="30" customHeight="1" s="16">
       <c r="A451" s="7" t="inlineStr">
         <is>
           <t>Teil eines Buddhakopfes</t>
@@ -13598,7 +13605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" ht="30" customHeight="1">
+    <row r="452" ht="30" customHeight="1" s="16">
       <c r="A452" s="7" t="inlineStr">
         <is>
           <t>Teil eines Kapitell</t>
@@ -13613,7 +13620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="453" ht="30" customHeight="1">
+    <row r="453" ht="30" customHeight="1" s="16">
       <c r="A453" s="7" t="inlineStr">
         <is>
           <t>Teil eines menschlichen Gesichtes</t>
@@ -13628,7 +13635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" ht="30" customHeight="1">
+    <row r="454" ht="30" customHeight="1" s="16">
       <c r="A454" s="7" t="inlineStr">
         <is>
           <t>Teil eines Simses</t>
@@ -13643,7 +13650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" ht="30" customHeight="1">
+    <row r="455" ht="30" customHeight="1" s="16">
       <c r="A455" s="7" t="inlineStr">
         <is>
           <t>Teilkopie einer Gipsform</t>
@@ -13673,7 +13680,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="457" ht="30" customHeight="1">
+    <row r="457" ht="30" customHeight="1" s="16">
       <c r="A457" s="7" t="inlineStr">
         <is>
           <t>Teller mit Darstellungen aus der griechischen Mythologie</t>
@@ -13718,7 +13725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="460" ht="30" customHeight="1">
+    <row r="460" ht="30" customHeight="1" s="16">
       <c r="A460" s="7" t="inlineStr">
         <is>
           <t>Teller mit Dekor von zwei Frauen unter einem blühenden Pfirsichbaum</t>
@@ -13778,7 +13785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" ht="30" customHeight="1">
+    <row r="464" ht="30" customHeight="1" s="16">
       <c r="A464" s="7" t="inlineStr">
         <is>
           <t>Thron mit behelmten Lanzenträger und Kind</t>
@@ -13793,7 +13800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" ht="30" customHeight="1">
+    <row r="465" ht="30" customHeight="1" s="16">
       <c r="A465" s="7" t="inlineStr">
         <is>
           <t>Thronlehne</t>
@@ -13823,7 +13830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" ht="30" customHeight="1">
+    <row r="467" ht="30" customHeight="1" s="16">
       <c r="A467" s="7" t="inlineStr">
         <is>
           <t>Tierkopf, Hund oder Schakal</t>
@@ -13838,7 +13845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" ht="30" customHeight="1">
+    <row r="468" ht="30" customHeight="1" s="16">
       <c r="A468" s="7" t="inlineStr">
         <is>
           <t>Tonfliesen (zusammengehörig)</t>
@@ -14018,7 +14025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" ht="30" customHeight="1">
+    <row r="480" ht="30" customHeight="1" s="16">
       <c r="A480" s="7" t="inlineStr">
         <is>
           <t>Torso</t>
@@ -14033,7 +14040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="481" ht="30" customHeight="1">
+    <row r="481" ht="30" customHeight="1" s="16">
       <c r="A481" s="7" t="inlineStr">
         <is>
           <t>Torso - Fragment</t>
@@ -14048,7 +14055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" ht="30" customHeight="1">
+    <row r="482" ht="30" customHeight="1" s="16">
       <c r="A482" s="7" t="inlineStr">
         <is>
           <t>Torso Bodhisattva</t>
@@ -14063,7 +14070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" ht="30" customHeight="1">
+    <row r="483" ht="30" customHeight="1" s="16">
       <c r="A483" s="7" t="inlineStr">
         <is>
           <t>Torso einer Figur</t>
@@ -14078,7 +14085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" ht="30" customHeight="1">
+    <row r="484" ht="30" customHeight="1" s="16">
       <c r="A484" s="7" t="inlineStr">
         <is>
           <t>Torso einer Wächterfigur</t>
@@ -14093,7 +14100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" ht="30" customHeight="1">
+    <row r="485" ht="30" customHeight="1" s="16">
       <c r="A485" s="7" t="inlineStr">
         <is>
           <t>Torso eines Bodhisattva</t>
@@ -14108,7 +14115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" ht="30" customHeight="1">
+    <row r="486" ht="30" customHeight="1" s="16">
       <c r="A486" s="7" t="inlineStr">
         <is>
           <t>Torso mit rotem dhoti</t>
@@ -14123,7 +14130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" ht="30" customHeight="1">
+    <row r="487" ht="30" customHeight="1" s="16">
       <c r="A487" s="7" t="inlineStr">
         <is>
           <t>Tuschereibstein mit Dekor von Päonien und Chrysanthemen</t>
@@ -14138,7 +14145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" ht="30" customHeight="1">
+    <row r="488" ht="30" customHeight="1" s="16">
       <c r="A488" s="7" t="inlineStr">
         <is>
           <t>Tuschreibstein mit Deckel in Gestalt einer Schildkröte</t>
@@ -14153,7 +14160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" ht="30" customHeight="1">
+    <row r="489" ht="30" customHeight="1" s="16">
       <c r="A489" s="7" t="inlineStr">
         <is>
           <t>Türbogen</t>
@@ -14168,7 +14175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" ht="30" customHeight="1">
+    <row r="490" ht="30" customHeight="1" s="16">
       <c r="A490" s="7" t="inlineStr">
         <is>
           <t>Türschloss</t>
@@ -14183,7 +14190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" ht="30" customHeight="1">
+    <row r="491" ht="30" customHeight="1" s="16">
       <c r="A491" s="7" t="inlineStr">
         <is>
           <t>Unterer Teil einer menschlichen Figur</t>
@@ -14198,7 +14205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" ht="30" customHeight="1">
+    <row r="492" ht="30" customHeight="1" s="16">
       <c r="A492" s="7" t="inlineStr">
         <is>
           <t>Unterkörper einer bekleideten Figur</t>
@@ -14213,7 +14220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" ht="30" customHeight="1">
+    <row r="493" ht="30" customHeight="1" s="16">
       <c r="A493" s="7" t="inlineStr">
         <is>
           <t>Unterkörper eines Gandhara-Bodhisattva</t>
@@ -14243,7 +14250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" ht="30" customHeight="1">
+    <row r="495" ht="30" customHeight="1" s="16">
       <c r="A495" s="7" t="inlineStr">
         <is>
           <t>Vajrapani-Kopf</t>
@@ -14393,7 +14400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" ht="45" customHeight="1">
+    <row r="505" ht="45" customHeight="1" s="16">
       <c r="A505" s="7" t="inlineStr">
         <is>
           <t>Viereckige Teekanne mit durchbrochenem gemodeltem "Drei Freunde-Dekor" (Kiefer, Pflaume, Bambus)</t>
@@ -14438,7 +14445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" ht="30" customHeight="1">
+    <row r="508" ht="30" customHeight="1" s="16">
       <c r="A508" s="7" t="inlineStr">
         <is>
           <t>Votivstupa</t>
@@ -14453,7 +14460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" ht="30" customHeight="1">
+    <row r="509" ht="30" customHeight="1" s="16">
       <c r="A509" s="7" t="inlineStr">
         <is>
           <t>Votivtafel</t>
@@ -14468,7 +14475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="510" ht="30" customHeight="1">
+    <row r="510" ht="30" customHeight="1" s="16">
       <c r="A510" s="7" t="inlineStr">
         <is>
           <t>Votivtafel - Buddha</t>
@@ -14483,7 +14490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" ht="30" customHeight="1">
+    <row r="511" ht="30" customHeight="1" s="16">
       <c r="A511" s="7" t="inlineStr">
         <is>
           <t>Votivtafel - Buddhas, Stupas und Stiftergruppe</t>
@@ -14498,7 +14505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" ht="30" customHeight="1">
+    <row r="512" ht="30" customHeight="1" s="16">
       <c r="A512" s="7" t="inlineStr">
         <is>
           <t>Votivtafel - Stehender Buddha</t>
@@ -14513,7 +14520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" ht="30" customHeight="1">
+    <row r="513" ht="30" customHeight="1" s="16">
       <c r="A513" s="7" t="inlineStr">
         <is>
           <t>Votivtafel mit stehendem Buddha</t>
@@ -14528,7 +14535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" ht="30" customHeight="1">
+    <row r="514" ht="30" customHeight="1" s="16">
       <c r="A514" s="7" t="inlineStr">
         <is>
           <t>Votivtafel mit stehendem Buddha und Stifterfigur</t>
@@ -14633,7 +14640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" ht="30" customHeight="1">
+    <row r="521" ht="30" customHeight="1" s="16">
       <c r="A521" s="7" t="inlineStr">
         <is>
           <t>Wedel</t>
@@ -14753,7 +14760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" ht="30" customHeight="1">
+    <row r="529" ht="30" customHeight="1" s="16">
       <c r="A529" s="7" t="inlineStr">
         <is>
           <t>Winkel einer Tür</t>
@@ -14768,7 +14775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" ht="30" customHeight="1">
+    <row r="530" ht="30" customHeight="1" s="16">
       <c r="A530" s="7" t="inlineStr">
         <is>
           <t>Zwei Füße einer menschlichen Figur</t>
@@ -14783,7 +14790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" ht="30" customHeight="1">
+    <row r="531" ht="30" customHeight="1" s="16">
       <c r="A531" s="7" t="inlineStr">
         <is>
           <t>Zwei Hände</t>
@@ -14828,7 +14835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="534" ht="30" customHeight="1">
+    <row r="534" ht="30" customHeight="1" s="16">
       <c r="A534" s="7" t="inlineStr">
         <is>
           <t>Zwei Paar Hände</t>
@@ -14873,7 +14880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" ht="30" customHeight="1">
+    <row r="537" ht="30" customHeight="1" s="16">
       <c r="A537" s="7" t="inlineStr">
         <is>
           <t>zwei Schädel</t>
@@ -14888,7 +14895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" ht="30" customHeight="1">
+    <row r="538" ht="30" customHeight="1" s="16">
       <c r="A538" s="7" t="inlineStr">
         <is>
           <t>Zwei Teile eines Unterkörpers einer stehenden Figur</t>
@@ -14918,7 +14925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" ht="30" customHeight="1">
+    <row r="540" ht="30" customHeight="1" s="16">
       <c r="A540" s="7" t="inlineStr">
         <is>
           <t>zwei Zinnen</t>
@@ -15042,7 +15049,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="29.5703125" customWidth="1" min="1" max="1"/>
+    <col width="29.5703125" customWidth="1" style="16" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -16006,8 +16013,8 @@
   <dimension ref="A1:G362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F112" sqref="F112"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E150" sqref="E150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -16016,7 +16023,7 @@
     <col width="26" customWidth="1" style="11" min="2" max="2"/>
     <col width="26.140625" customWidth="1" style="11" min="3" max="3"/>
     <col width="30.85546875" customWidth="1" style="14" min="5" max="5"/>
-    <col width="38.28515625" customWidth="1" min="6" max="6"/>
+    <col width="38.28515625" customWidth="1" style="16" min="6" max="6"/>
     <col width="34" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -16057,7 +16064,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="30" customHeight="1">
+    <row r="2" ht="30" customHeight="1" s="16">
       <c r="A2" s="11" t="inlineStr">
         <is>
           <t>"E" in Ruine Alpha</t>
@@ -16077,7 +16084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="30" customHeight="1">
+    <row r="3" ht="30" customHeight="1" s="16">
       <c r="A3" s="11" t="inlineStr">
         <is>
           <t>3. Anlage, Murtuk, Xinjiang, China</t>
@@ -16091,8 +16098,13 @@
       <c r="D3" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" ht="30" customHeight="1">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="30" customHeight="1" s="16">
       <c r="A4" s="11" t="inlineStr">
         <is>
           <t>3. Höhle der zweiten Anlage, Kizil, Xinjiang, China</t>
@@ -16106,8 +16118,13 @@
       <c r="D4" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" ht="30" customHeight="1">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="1" s="16">
       <c r="A5" s="11" t="inlineStr">
         <is>
           <t>3. Höhle vom Ende der Anlage</t>
@@ -16122,7 +16139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="30" customHeight="1">
+    <row r="6" ht="30" customHeight="1" s="16">
       <c r="A6" s="11" t="inlineStr">
         <is>
           <t>3. Höhle vom Ende der Anlage II</t>
@@ -16142,7 +16159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="30" customHeight="1">
+    <row r="7" ht="30" customHeight="1" s="16">
       <c r="A7" s="11" t="inlineStr">
         <is>
           <t>3. Höhle von Anlage II</t>
@@ -16157,7 +16174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="30" customHeight="1">
+    <row r="8" ht="30" customHeight="1" s="16">
       <c r="A8" s="11" t="inlineStr">
         <is>
           <t>3. Höhle, Kizil, Xinjiang, China</t>
@@ -16177,7 +16194,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="30" customHeight="1">
+    <row r="9" ht="30" customHeight="1" s="16">
       <c r="A9" s="11" t="inlineStr">
         <is>
           <t>3. Höhle, letzte Anlage</t>
@@ -16197,7 +16214,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="30" customHeight="1">
+    <row r="10" ht="30" customHeight="1" s="16">
       <c r="A10" s="11" t="inlineStr">
         <is>
           <t>3. Raum, 4. Terassen, Bylayik, Xinjiang, China</t>
@@ -16217,7 +16234,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="30" customHeight="1">
+    <row r="11" ht="30" customHeight="1" s="16">
       <c r="A11" s="11" t="inlineStr">
         <is>
           <t>4. Turfan-Expedition</t>
@@ -16233,11 +16250,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>wohl kein Ort?</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="30" customHeight="1">
+          <t>Expedition wohl kein Ort?</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="30" customHeight="1" s="16">
       <c r="A12" s="11" t="inlineStr">
         <is>
           <t>A Dämonentempel</t>
@@ -16292,7 +16309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" ht="30" customHeight="1">
+    <row r="15" ht="30" customHeight="1" s="16">
       <c r="A15" s="11" t="inlineStr">
         <is>
           <t>Alpha</t>
@@ -16307,7 +16324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="30" customHeight="1">
+    <row r="16" ht="30" customHeight="1" s="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
           <t>Alte Stadt</t>
@@ -16322,7 +16339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="30" customHeight="1">
+    <row r="17" ht="30" customHeight="1" s="16">
       <c r="A17" s="11" t="inlineStr">
         <is>
           <t>Alte Stadt Kauf</t>
@@ -16337,7 +16354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="30" customHeight="1">
+    <row r="18" ht="30" customHeight="1" s="16">
       <c r="A18" s="11" t="inlineStr">
         <is>
           <t>alte Stadt, Chotscho, Xinjiang, China</t>
@@ -16351,13 +16368,18 @@
       <c r="D18" t="n">
         <v>4</v>
       </c>
+      <c r="E18" s="14" t="inlineStr">
+        <is>
+          <t>Kocho / Khocho / Chotscho / Karakhoja / Karachodscha / Gaochang</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>in m+ korrigieren</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="30" customHeight="1">
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="30" customHeight="1" s="16">
       <c r="A19" s="11" t="inlineStr">
         <is>
           <t>Anlage II, Höhle 4</t>
@@ -16391,8 +16413,13 @@
       <c r="D20" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" ht="30" customHeight="1">
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Präfektur in Bezeichnung</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="30" customHeight="1" s="16">
       <c r="A21" s="11" t="inlineStr">
         <is>
           <t>aus dem Schutt Ruine K, Khocho, Xinjiang, China</t>
@@ -16406,8 +16433,13 @@
       <c r="D21" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" ht="30" customHeight="1">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="30" customHeight="1" s="16">
       <c r="A22" s="11" t="inlineStr">
         <is>
           <t>bei A und E, Kocho</t>
@@ -16422,7 +16454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" ht="30" customHeight="1">
+    <row r="23" ht="30" customHeight="1" s="16">
       <c r="A23" s="11" t="inlineStr">
         <is>
           <t>Berlin</t>
@@ -16442,7 +16474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" ht="30" customHeight="1">
+    <row r="24" ht="30" customHeight="1" s="16">
       <c r="A24" s="11" t="inlineStr">
         <is>
           <t>Berlin</t>
@@ -16457,7 +16489,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" ht="30" customHeight="1">
+    <row r="25" ht="30" customHeight="1" s="16">
       <c r="A25" s="11" t="inlineStr">
         <is>
           <t>Beta, Nord-Ostturm</t>
@@ -16477,7 +16509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" ht="30" customHeight="1">
+    <row r="26" ht="30" customHeight="1" s="16">
       <c r="A26" s="11" t="inlineStr">
         <is>
           <t>Bezeklik, Hauptterrasse</t>
@@ -16512,7 +16544,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="30" customHeight="1">
+    <row r="27" ht="30" customHeight="1" s="16">
       <c r="A27" s="11" t="inlineStr">
         <is>
           <t>Bibliothek K , Kocho, Xinjiang, China</t>
@@ -16532,7 +16564,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="30" customHeight="1">
+    <row r="28" ht="30" customHeight="1" s="16">
       <c r="A28" s="11" t="inlineStr">
         <is>
           <t>Borazan bei Khotan</t>
@@ -16577,7 +16609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" ht="30" customHeight="1">
+    <row r="30" ht="30" customHeight="1" s="16">
       <c r="A30" s="11" t="inlineStr">
         <is>
           <t>Bäzäklik</t>
@@ -16622,7 +16654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" ht="30" customHeight="1">
+    <row r="32" ht="30" customHeight="1" s="16">
       <c r="A32" s="11" t="inlineStr">
         <is>
           <t>Chans Palast</t>
@@ -16642,7 +16674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" ht="30" customHeight="1">
+    <row r="33" ht="30" customHeight="1" s="16">
       <c r="A33" s="11" t="inlineStr">
         <is>
           <t>Chikkan Köl</t>
@@ -16667,7 +16699,7 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="30" customHeight="1">
+    <row r="34" ht="30" customHeight="1" s="16">
       <c r="A34" s="11" t="inlineStr">
         <is>
           <t>China</t>
@@ -16687,7 +16719,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="35" ht="30" customHeight="1">
+    <row r="35" ht="30" customHeight="1" s="16">
       <c r="A35" s="11" t="inlineStr">
         <is>
           <t>China</t>
@@ -16767,7 +16799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" ht="30" customHeight="1">
+    <row r="39" ht="30" customHeight="1" s="16">
       <c r="A39" s="11" t="inlineStr">
         <is>
           <t>China (Land)</t>
@@ -16802,7 +16834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" ht="30" customHeight="1">
+    <row r="41" ht="30" customHeight="1" s="16">
       <c r="A41" s="11" t="inlineStr">
         <is>
           <t>Chotscho</t>
@@ -16821,8 +16853,13 @@
       <c r="D41" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" ht="30" customHeight="1">
+      <c r="E41" s="14" t="inlineStr">
+        <is>
+          <t>Kocho / Khocho / Chotscho / Karakhoja / Karachodscha / Gaochang</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="30" customHeight="1" s="16">
       <c r="A42" s="11" t="inlineStr">
         <is>
           <t>Chotscho, Xinjiang, China</t>
@@ -16836,6 +16873,16 @@
       <c r="D42" t="n">
         <v>5</v>
       </c>
+      <c r="E42" s="14" t="inlineStr">
+        <is>
+          <t>Kocho / Khocho / Chotscho / Karakhoja / Karachodscha / Gaochang</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
@@ -16892,7 +16939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" ht="30" customHeight="1">
+    <row r="46" ht="30" customHeight="1" s="16">
       <c r="A46" s="11" t="inlineStr">
         <is>
           <t>D</t>
@@ -16905,6 +16952,11 @@
       </c>
       <c r="D46" t="n">
         <v>1</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -16952,7 +17004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" ht="30" customHeight="1">
+    <row r="50" ht="30" customHeight="1" s="16">
       <c r="A50" s="11" t="inlineStr">
         <is>
           <t>Dämonentempel</t>
@@ -16967,7 +17019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" ht="30" customHeight="1">
+    <row r="51" ht="30" customHeight="1" s="16">
       <c r="A51" s="11" t="inlineStr">
         <is>
           <t>Dämonentempel 8</t>
@@ -16981,8 +17033,13 @@
       <c r="D51" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" ht="30" customHeight="1">
+      <c r="E51" s="11" t="inlineStr">
+        <is>
+          <t>Dämonentempel Nr. 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="30" customHeight="1" s="16">
       <c r="A52" s="11" t="inlineStr">
         <is>
           <t>Dämonentempel Nr. 8</t>
@@ -16997,7 +17054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" ht="30" customHeight="1">
+    <row r="53" ht="30" customHeight="1" s="16">
       <c r="A53" s="11" t="inlineStr">
         <is>
           <t>Ecktempel, mittlere Anlage</t>
@@ -17027,7 +17084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" ht="30" customHeight="1">
+    <row r="55" ht="30" customHeight="1" s="16">
       <c r="A55" s="11" t="inlineStr">
         <is>
           <t>Figurentempel</t>
@@ -17046,8 +17103,13 @@
       <c r="D55" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" ht="30" customHeight="1">
+      <c r="F55" s="11" t="inlineStr">
+        <is>
+          <t>Bezeichnungen einheitlich</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="30" customHeight="1" s="16">
       <c r="A56" s="11" t="inlineStr">
         <is>
           <t>Freskentempel</t>
@@ -17062,7 +17124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" ht="30" customHeight="1">
+    <row r="57" ht="30" customHeight="1" s="16">
       <c r="A57" s="11" t="inlineStr">
         <is>
           <t>Freskentempel, Tumschuk, Xinjiang, China</t>
@@ -17076,8 +17138,13 @@
       <c r="D57" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" ht="30" customHeight="1">
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="30" customHeight="1" s="16">
       <c r="A58" s="11" t="inlineStr">
         <is>
           <t>Fresko-Tempel</t>
@@ -17161,6 +17228,11 @@
       <c r="D62" t="n">
         <v>2</v>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Präfektur in Bezeichnung</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
@@ -17181,6 +17253,16 @@
       <c r="D63" t="n">
         <v>1</v>
       </c>
+      <c r="E63" s="11" t="inlineStr">
+        <is>
+          <t>Fukuoka</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Fukuoka-ken ist die Präfektur, nicht die Stadt</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
@@ -17196,8 +17278,13 @@
       <c r="D64" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" ht="30" customHeight="1">
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Präfektur in Bezeichnung</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="30" customHeight="1" s="16">
       <c r="A65" s="11" t="inlineStr">
         <is>
           <t>Gang neben Treppentempel</t>
@@ -17312,7 +17399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" ht="30" customHeight="1">
+    <row r="72" ht="30" customHeight="1" s="16">
       <c r="A72" s="11" t="inlineStr">
         <is>
           <t>graues Kloster, Yarkhoto, Xinjiang, China</t>
@@ -17326,8 +17413,13 @@
       <c r="D72" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" ht="30" customHeight="1">
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="30" customHeight="1" s="16">
       <c r="A73" s="11" t="inlineStr">
         <is>
           <t>große Höhle, Kizil, Xinjiang, China</t>
@@ -17341,8 +17433,13 @@
       <c r="D73" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" ht="30" customHeight="1">
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="30" customHeight="1" s="16">
       <c r="A74" s="11" t="inlineStr">
         <is>
           <t>Große Schutthalde des Klosters, unweit Tempel 9</t>
@@ -17357,7 +17454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" ht="30" customHeight="1">
+    <row r="75" ht="30" customHeight="1" s="16">
       <c r="A75" s="11" t="inlineStr">
         <is>
           <t>Größte Höhle</t>
@@ -17377,7 +17474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" ht="30" customHeight="1">
+    <row r="76" ht="30" customHeight="1" s="16">
       <c r="A76" s="11" t="inlineStr">
         <is>
           <t>Größte Höhle, Kirisch, Xinjiang, China</t>
@@ -17391,8 +17488,13 @@
       <c r="D76" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" ht="30" customHeight="1">
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="77" ht="30" customHeight="1" s="16">
       <c r="A77" s="11" t="inlineStr">
         <is>
           <t>Größte Höhle, Kizil, Xinjiang, China</t>
@@ -17406,8 +17508,13 @@
       <c r="D77" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="78" ht="30" customHeight="1">
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="78" ht="30" customHeight="1" s="16">
       <c r="A78" s="11" t="inlineStr">
         <is>
           <t>Größter Tempel, Kizil, Xinjiang, China</t>
@@ -17420,6 +17527,11 @@
       </c>
       <c r="D78" t="n">
         <v>1</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -17462,7 +17574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" ht="30" customHeight="1">
+    <row r="81" ht="30" customHeight="1" s="16">
       <c r="A81" s="11" t="inlineStr">
         <is>
           <t>Hauptterasse, Bäzäklik, Xinjiang, China</t>
@@ -17483,11 +17595,11 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Hauptterasse etc. in 4 eigene Zeilen</t>
-        </is>
-      </c>
-    </row>
-    <row r="82" ht="30" customHeight="1">
+          <t>Hauptterasse etc. in 4 eigene Zeilen (isoliert eingeben)</t>
+        </is>
+      </c>
+    </row>
+    <row r="82" ht="30" customHeight="1" s="16">
       <c r="A82" s="11" t="inlineStr">
         <is>
           <t>Haus im Zentrum der Stadt Länger, Xinjiang, China</t>
@@ -17501,6 +17613,11 @@
       <c r="D82" t="n">
         <v>4</v>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="11" t="inlineStr">
@@ -17542,7 +17659,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" ht="45" customHeight="1" s="16">
       <c r="A85" s="11" t="inlineStr">
         <is>
           <t>Henan</t>
@@ -17560,6 +17677,11 @@
       </c>
       <c r="D85" t="n">
         <v>1</v>
+      </c>
+      <c r="F85" s="11" t="inlineStr">
+        <is>
+          <t>Provinz ist genauer, es sei denn hier ist die Region vor Etablierung der Provinz gemeint.</t>
+        </is>
       </c>
     </row>
     <row r="86">
@@ -17596,8 +17718,13 @@
       <c r="D87" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="88">
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>kann Stadt oder Präfektur sein</t>
+        </is>
+      </c>
+    </row>
+    <row r="88" ht="30" customHeight="1" s="16">
       <c r="A88" s="11" t="inlineStr">
         <is>
           <t>Hokkaidô</t>
@@ -17616,6 +17743,16 @@
       <c r="D88" t="n">
         <v>3</v>
       </c>
+      <c r="E88" s="17" t="inlineStr">
+        <is>
+          <t>Hokkaidō</t>
+        </is>
+      </c>
+      <c r="G88" s="11" t="inlineStr">
+        <is>
+          <t>https://de.wikipedia.org/wiki/Hokkaid%C5%8D</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="11" t="inlineStr">
@@ -17637,7 +17774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" ht="60" customHeight="1">
+    <row r="90" ht="60" customHeight="1" s="16">
       <c r="A90" s="11" t="inlineStr">
         <is>
           <t>Honshu</t>
@@ -17656,13 +17793,18 @@
       <c r="D90" t="n">
         <v>5</v>
       </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Honshū</t>
+        </is>
+      </c>
       <c r="F90" s="11" t="inlineStr">
         <is>
           <t>bitte Diakritika vereinheitlichen, wohl: Honshû; man wird sich ja wohl für Japan. Noch auf eine Transliteration einigen können.</t>
         </is>
       </c>
     </row>
-    <row r="91" ht="60" customHeight="1">
+    <row r="91" ht="60" customHeight="1" s="16">
       <c r="A91" s="11" t="inlineStr">
         <is>
           <t>Honshû</t>
@@ -17681,13 +17823,18 @@
       <c r="D91" t="n">
         <v>79</v>
       </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Honshū</t>
+        </is>
+      </c>
       <c r="F91" s="11" t="inlineStr">
         <is>
           <t>bitte Diakritika vereinheitlichen, wohl: Honshû; man wird sich ja wohl für Japan. Noch auf eine Transliteration einigen können.</t>
         </is>
       </c>
     </row>
-    <row r="92" ht="60" customHeight="1">
+    <row r="92" ht="60" customHeight="1" s="16">
       <c r="A92" s="11" t="inlineStr">
         <is>
           <t>Honshū</t>
@@ -17706,6 +17853,11 @@
       <c r="D92" t="n">
         <v>15</v>
       </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Honshū</t>
+        </is>
+      </c>
       <c r="F92" s="11" t="inlineStr">
         <is>
           <t>bitte Diakritika vereinheitlichen, wohl: Honshû; man wird sich ja wohl für Japan. Noch auf eine Transliteration einigen können.</t>
@@ -17757,7 +17909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" ht="30" customHeight="1">
+    <row r="96" ht="30" customHeight="1" s="16">
       <c r="A96" s="11" t="inlineStr">
         <is>
           <t>Höchste Höhle</t>
@@ -17772,7 +17924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" ht="30" customHeight="1">
+    <row r="97" ht="30" customHeight="1" s="16">
       <c r="A97" s="11" t="inlineStr">
         <is>
           <t>höchster Tempel, Toyok, Xinjiang, China</t>
@@ -17788,11 +17940,11 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>in eigene</t>
-        </is>
-      </c>
-    </row>
-    <row r="98" ht="30" customHeight="1">
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="98" ht="30" customHeight="1" s="16">
       <c r="A98" s="11" t="inlineStr">
         <is>
           <t>Höhle 10, Kizil, Xinjiang, China</t>
@@ -17806,8 +17958,13 @@
       <c r="D98" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" ht="30" customHeight="1">
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="99" ht="30" customHeight="1" s="16">
       <c r="A99" s="11" t="inlineStr">
         <is>
           <t>Höhle 12</t>
@@ -17827,7 +17984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" ht="30" customHeight="1">
+    <row r="100" ht="30" customHeight="1" s="16">
       <c r="A100" s="11" t="inlineStr">
         <is>
           <t>Höhle 13</t>
@@ -17841,8 +17998,13 @@
       <c r="D100" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" ht="30" customHeight="1">
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Bezeichnung Höhle?</t>
+        </is>
+      </c>
+    </row>
+    <row r="101" ht="30" customHeight="1" s="16">
       <c r="A101" s="11" t="inlineStr">
         <is>
           <t>Höhle 13, Kumtura, Xinjiang, China</t>
@@ -17856,8 +18018,13 @@
       <c r="D101" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" ht="30" customHeight="1">
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="102" ht="30" customHeight="1" s="16">
       <c r="A102" s="11" t="inlineStr">
         <is>
           <t>Höhle 23, Kumtura, Xinjiang, China</t>
@@ -17871,8 +18038,13 @@
       <c r="D102" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" ht="30" customHeight="1">
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="103" ht="30" customHeight="1" s="16">
       <c r="A103" s="11" t="inlineStr">
         <is>
           <t>Höhle der Priesterweihe</t>
@@ -17887,7 +18059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" ht="30" customHeight="1">
+    <row r="104" ht="30" customHeight="1" s="16">
       <c r="A104" s="11" t="inlineStr">
         <is>
           <t>Höhle des Zebuwagens, Kizil, Xinjiang, China</t>
@@ -17901,8 +18073,13 @@
       <c r="D104" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" ht="30" customHeight="1">
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="105" ht="30" customHeight="1" s="16">
       <c r="A105" s="11" t="inlineStr">
         <is>
           <t>Höhle H</t>
@@ -17917,7 +18094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" ht="30" customHeight="1">
+    <row r="106" ht="30" customHeight="1" s="16">
       <c r="A106" s="11" t="inlineStr">
         <is>
           <t>Höhle oberhalb Kassettenhöhle</t>
@@ -17937,7 +18114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" ht="30" customHeight="1">
+    <row r="107" ht="30" customHeight="1" s="16">
       <c r="A107" s="11" t="inlineStr">
         <is>
           <t>Höhle oberhalb Kassettenhöhle</t>
@@ -17952,7 +18129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" ht="30" customHeight="1">
+    <row r="108" ht="30" customHeight="1" s="16">
       <c r="A108" s="11" t="inlineStr">
         <is>
           <t>Höhle unterhalb der Schwertträgerhöhle H.</t>
@@ -17967,7 +18144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" ht="30" customHeight="1">
+    <row r="109" ht="30" customHeight="1" s="16">
       <c r="A109" s="11" t="inlineStr">
         <is>
           <t>Höhle vom Ende der Anlage</t>
@@ -18017,7 +18194,7 @@
         </is>
       </c>
     </row>
-    <row r="112" ht="30" customHeight="1">
+    <row r="112" ht="30" customHeight="1" s="16">
       <c r="A112" s="11" t="inlineStr">
         <is>
           <t>Ili Köl</t>
@@ -18042,7 +18219,7 @@
         </is>
       </c>
     </row>
-    <row r="113" ht="30" customHeight="1">
+    <row r="113" ht="30" customHeight="1" s="16">
       <c r="A113" s="11" t="inlineStr">
         <is>
           <t>Iliköl</t>
@@ -18307,7 +18484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" ht="30" customHeight="1">
+    <row r="128" ht="30" customHeight="1" s="16">
       <c r="A128" s="11" t="inlineStr">
         <is>
           <t>Kanal südlich von Ruine Alpha</t>
@@ -18327,7 +18504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" ht="30" customHeight="1">
+    <row r="129" ht="30" customHeight="1" s="16">
       <c r="A129" s="11" t="inlineStr">
         <is>
           <t>Keramische Werkstatt Margaretenhöhe, Essen</t>
@@ -18357,7 +18534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" ht="45" customHeight="1">
+    <row r="131" ht="45" customHeight="1" s="16">
       <c r="A131" s="11" t="inlineStr">
         <is>
           <t>Khocho</t>
@@ -18378,7 +18555,7 @@
       </c>
       <c r="E131" s="14" t="inlineStr">
         <is>
-          <t>Kocho / Khocho / Chotscho, Karakhoja/ Karachodscha / Gaochang</t>
+          <t>Kocho / Khocho / Chotscho / Karakhoja / Karachodscha / Gaochang</t>
         </is>
       </c>
       <c r="F131" s="11" t="inlineStr">
@@ -18392,7 +18569,7 @@
         </is>
       </c>
     </row>
-    <row r="132" ht="30" customHeight="1">
+    <row r="132" ht="30" customHeight="1" s="16">
       <c r="A132" s="11" t="inlineStr">
         <is>
           <t>Khocho</t>
@@ -18411,9 +18588,19 @@
       <c r="D132" t="n">
         <v>4</v>
       </c>
+      <c r="E132" s="18" t="inlineStr">
+        <is>
+          <t>Kocho</t>
+        </is>
+      </c>
       <c r="F132" s="11" t="n"/>
-    </row>
-    <row r="133" ht="30" customHeight="1">
+      <c r="G132" s="11" t="inlineStr">
+        <is>
+          <t>Liste von LRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="133" ht="30" customHeight="1" s="16">
       <c r="A133" s="11" t="inlineStr">
         <is>
           <t>Khocho</t>
@@ -18432,13 +18619,18 @@
       <c r="D133" t="n">
         <v>3</v>
       </c>
+      <c r="E133" s="18" t="inlineStr">
+        <is>
+          <t>Kocho</t>
+        </is>
+      </c>
       <c r="F133" s="11" t="inlineStr">
         <is>
           <t>MM: wohl immer Stätte oder Stadt, nicht Region?</t>
         </is>
       </c>
     </row>
-    <row r="134" ht="45" customHeight="1">
+    <row r="134" ht="45" customHeight="1" s="16">
       <c r="A134" s="11" t="inlineStr">
         <is>
           <t>Khocho (Stätte)</t>
@@ -18454,7 +18646,7 @@
       </c>
       <c r="E134" s="14" t="inlineStr">
         <is>
-          <t>Kocho /Khocho/ Chotscho, Karakhoja/ Karachodscha, Gaochang</t>
+          <t>Kocho / Khocho / Chotscho / Karakhoja / Karachodscha / Gaochang</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -18463,7 +18655,7 @@
         </is>
       </c>
     </row>
-    <row r="135" ht="30" customHeight="1">
+    <row r="135" ht="30" customHeight="1" s="16">
       <c r="A135" s="11" t="inlineStr">
         <is>
           <t>Khocho K, Xinjiang, China</t>
@@ -18483,7 +18675,7 @@
         </is>
       </c>
     </row>
-    <row r="136" ht="30" customHeight="1">
+    <row r="136" ht="30" customHeight="1" s="16">
       <c r="A136" s="11" t="inlineStr">
         <is>
           <t>Khocho, Höhle Alpha und B</t>
@@ -18503,7 +18695,7 @@
         </is>
       </c>
     </row>
-    <row r="137" ht="30" customHeight="1">
+    <row r="137" ht="30" customHeight="1" s="16">
       <c r="A137" s="11" t="inlineStr">
         <is>
           <t>Khocho, Xinjiang, China</t>
@@ -18517,13 +18709,18 @@
       <c r="D137" t="n">
         <v>2</v>
       </c>
+      <c r="E137" s="14" t="inlineStr">
+        <is>
+          <t>Kocho / Khocho / Chotscho / Karakhoja / Karachodscha / Gaochang</t>
+        </is>
+      </c>
       <c r="F137" t="inlineStr">
         <is>
           <t>wohl "Kocho" (131)? In m+ korrigieren</t>
         </is>
       </c>
     </row>
-    <row r="138" ht="30" customHeight="1">
+    <row r="138" ht="30" customHeight="1" s="16">
       <c r="A138" s="11" t="inlineStr">
         <is>
           <t>Khotscho, Xinjiang, China</t>
@@ -18537,6 +18734,11 @@
       <c r="D138" t="n">
         <v>3</v>
       </c>
+      <c r="E138" s="14" t="inlineStr">
+        <is>
+          <t>Kocho / Khocho / Chotscho / Karakhoja / Karachodscha / Gaochang</t>
+        </is>
+      </c>
       <c r="F138" t="inlineStr">
         <is>
           <t>wohl "Kocho" (131)? In m+ korrigieren</t>
@@ -18563,7 +18765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" ht="30" customHeight="1">
+    <row r="140" ht="30" customHeight="1" s="16">
       <c r="A140" s="11" t="inlineStr">
         <is>
           <t>Kindik, Turfan-Urumci, Xinjiang, China</t>
@@ -18577,8 +18779,13 @@
       <c r="D140" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" ht="30" customHeight="1">
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>m+: in eigene Zeilen</t>
+        </is>
+      </c>
+    </row>
+    <row r="141" ht="30" customHeight="1" s="16">
       <c r="A141" s="11" t="inlineStr">
         <is>
           <t>Kizil</t>
@@ -18608,7 +18815,7 @@
         </is>
       </c>
     </row>
-    <row r="142" ht="30" customHeight="1">
+    <row r="142" ht="30" customHeight="1" s="16">
       <c r="A142" s="11" t="inlineStr">
         <is>
           <t>Kizil</t>
@@ -18633,7 +18840,7 @@
         </is>
       </c>
     </row>
-    <row r="143" ht="30" customHeight="1">
+    <row r="143" ht="30" customHeight="1" s="16">
       <c r="A143" s="11" t="inlineStr">
         <is>
           <t>Kizil</t>
@@ -18663,7 +18870,7 @@
         </is>
       </c>
     </row>
-    <row r="144" ht="30" customHeight="1">
+    <row r="144" ht="30" customHeight="1" s="16">
       <c r="A144" s="11" t="inlineStr">
         <is>
           <t>Kizil, Xinjiang, China</t>
@@ -18677,13 +18884,18 @@
       <c r="D144" t="n">
         <v>3</v>
       </c>
+      <c r="E144" s="14" t="inlineStr">
+        <is>
+          <t>Kizil / Qizil / Kyzyl / Kezi’er</t>
+        </is>
+      </c>
       <c r="F144" t="inlineStr">
         <is>
           <t>m+: in eigene Zeilen</t>
         </is>
       </c>
     </row>
-    <row r="145" ht="30" customHeight="1">
+    <row r="145" ht="30" customHeight="1" s="16">
       <c r="A145" s="11" t="inlineStr">
         <is>
           <t>kleine Stupa an westlicher Ruine</t>
@@ -18703,7 +18915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" ht="30" customHeight="1">
+    <row r="146" ht="30" customHeight="1" s="16">
       <c r="A146" s="11" t="inlineStr">
         <is>
           <t>kleiner Stupa</t>
@@ -18717,8 +18929,18 @@
       <c r="D146" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" ht="30" customHeight="1">
+      <c r="E146" s="11" t="inlineStr">
+        <is>
+          <t>Kleiner Stupa-Tempel</t>
+        </is>
+      </c>
+      <c r="F146" s="11" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="147" ht="30" customHeight="1" s="16">
       <c r="A147" s="11" t="inlineStr">
         <is>
           <t>Kleiner Stupa-Tempel</t>
@@ -18733,7 +18955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" ht="45" customHeight="1">
+    <row r="148" ht="45" customHeight="1" s="16">
       <c r="A148" s="11" t="inlineStr">
         <is>
           <t>Kocho</t>
@@ -18749,11 +18971,11 @@
       </c>
       <c r="E148" s="14" t="inlineStr">
         <is>
-          <t>Kocho / Khocho / Chotscho, Karakhoja / Karachodscha, Gaochang</t>
-        </is>
-      </c>
-    </row>
-    <row r="149" ht="45" customHeight="1">
+          <t>Kocho / Khocho / Chotscho / Karakhoja / Karachodscha / Gaochang</t>
+        </is>
+      </c>
+    </row>
+    <row r="149" ht="45" customHeight="1" s="16">
       <c r="A149" s="11" t="inlineStr">
         <is>
           <t>Kocho</t>
@@ -18774,11 +18996,11 @@
       </c>
       <c r="E149" s="14" t="inlineStr">
         <is>
-          <t>Kocho / Khocho / Chotscho, Karakhoja / Karachodscha, Gaochang</t>
-        </is>
-      </c>
-    </row>
-    <row r="150" ht="45" customHeight="1">
+          <t>Kocho / Khocho / Chotscho / Karakhoja / Karachodscha / Gaochang</t>
+        </is>
+      </c>
+    </row>
+    <row r="150" ht="45" customHeight="1" s="16">
       <c r="A150" s="11" t="inlineStr">
         <is>
           <t>Kocho</t>
@@ -18799,11 +19021,11 @@
       </c>
       <c r="E150" s="14" t="inlineStr">
         <is>
-          <t>Kocho / Khocho / Chotscho, Karakhoja / Karachodscha, Gaochang</t>
-        </is>
-      </c>
-    </row>
-    <row r="151" ht="30" customHeight="1">
+          <t>Kocho / Khocho / Chotscho / Karakhoja / Karachodscha / Gaochang</t>
+        </is>
+      </c>
+    </row>
+    <row r="151" ht="30" customHeight="1" s="16">
       <c r="A151" s="11" t="inlineStr">
         <is>
           <t>Kocho, Xinjiang, China</t>
@@ -18883,7 +19105,7 @@
         </is>
       </c>
     </row>
-    <row r="155" ht="30" customHeight="1">
+    <row r="155" ht="30" customHeight="1" s="16">
       <c r="A155" s="11" t="inlineStr">
         <is>
           <t>Kucha</t>
@@ -18904,7 +19126,7 @@
       </c>
       <c r="E155" s="14" t="inlineStr">
         <is>
-          <t>Kucha / Kuqa Kuche/ Qiuci</t>
+          <t>Kucha / Kuqa Kuche / Qiuci</t>
         </is>
       </c>
       <c r="F155" s="11" t="inlineStr">
@@ -18913,7 +19135,7 @@
         </is>
       </c>
     </row>
-    <row r="156" ht="30" customHeight="1">
+    <row r="156" ht="30" customHeight="1" s="16">
       <c r="A156" s="11" t="inlineStr">
         <is>
           <t>Kum Ariq</t>
@@ -18926,6 +19148,11 @@
       </c>
       <c r="D156" t="n">
         <v>1</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Kum Arik / Qum Ariq</t>
+        </is>
       </c>
     </row>
     <row r="157">
@@ -18943,7 +19170,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" ht="30" customHeight="1">
+    <row r="158" ht="30" customHeight="1" s="16">
       <c r="A158" s="11" t="inlineStr">
         <is>
           <t>Kumtura</t>
@@ -18973,7 +19200,7 @@
         </is>
       </c>
     </row>
-    <row r="159" ht="30" customHeight="1">
+    <row r="159" ht="30" customHeight="1" s="16">
       <c r="A159" s="11" t="inlineStr">
         <is>
           <t>Kumtura</t>
@@ -18998,7 +19225,7 @@
         </is>
       </c>
     </row>
-    <row r="160" ht="30" customHeight="1">
+    <row r="160" ht="30" customHeight="1" s="16">
       <c r="A160" s="11" t="inlineStr">
         <is>
           <t>Kumtura</t>
@@ -19018,7 +19245,7 @@
         </is>
       </c>
     </row>
-    <row r="161" ht="30" customHeight="1">
+    <row r="161" ht="30" customHeight="1" s="16">
       <c r="A161" s="11" t="inlineStr">
         <is>
           <t>Kumtura, Xinjiang, China</t>
@@ -19038,7 +19265,7 @@
         </is>
       </c>
     </row>
-    <row r="162">
+    <row r="162" ht="30" customHeight="1" s="16">
       <c r="A162" s="11" t="inlineStr">
         <is>
           <t>Kyôto</t>
@@ -19052,9 +19279,19 @@
       <c r="D162" t="n">
         <v>20</v>
       </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Kyōto</t>
+        </is>
+      </c>
       <c r="F162" t="inlineStr">
         <is>
           <t>wohl immer Stadt</t>
+        </is>
+      </c>
+      <c r="G162" s="11" t="inlineStr">
+        <is>
+          <t>https://de.wikipedia.org/wiki/Ky%C5%8Dto</t>
         </is>
       </c>
     </row>
@@ -19072,6 +19309,21 @@
       <c r="D163" t="n">
         <v>8</v>
       </c>
+      <c r="E163" s="17" t="inlineStr">
+        <is>
+          <t>Kyūshū</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>wohl immer Insel</t>
+        </is>
+      </c>
+      <c r="G163" s="11" t="inlineStr">
+        <is>
+          <t>de.wikipedia</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="11" t="inlineStr">
@@ -19092,8 +19344,18 @@
       <c r="D164" t="n">
         <v>32</v>
       </c>
-    </row>
-    <row r="165" ht="30" customHeight="1">
+      <c r="E164" s="17" t="inlineStr">
+        <is>
+          <t>Kyūshū</t>
+        </is>
+      </c>
+      <c r="G164" s="11" t="inlineStr">
+        <is>
+          <t>de.wikipedia</t>
+        </is>
+      </c>
+    </row>
+    <row r="165" ht="30" customHeight="1" s="16">
       <c r="A165" s="11" t="inlineStr">
         <is>
           <t>Köl</t>
@@ -19108,7 +19370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" ht="30" customHeight="1">
+    <row r="166" ht="30" customHeight="1" s="16">
       <c r="A166" s="11" t="inlineStr">
         <is>
           <t>Letzte Anlage</t>
@@ -19122,8 +19384,13 @@
       <c r="D166" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" ht="30" customHeight="1">
+      <c r="E166" s="11" t="inlineStr">
+        <is>
+          <t>letzte Anlage</t>
+        </is>
+      </c>
+    </row>
+    <row r="167" ht="30" customHeight="1" s="16">
       <c r="A167" s="11" t="inlineStr">
         <is>
           <t>letzte Anlage, Kizil, Xinjiang, China</t>
@@ -19137,13 +19404,18 @@
       <c r="D167" t="n">
         <v>1</v>
       </c>
+      <c r="E167" s="14" t="inlineStr">
+        <is>
+          <t>Kizil / Qizil / Kyzyl / Kezi’er</t>
+        </is>
+      </c>
       <c r="F167" t="inlineStr">
         <is>
           <t>m+: in eigene Zeilen</t>
         </is>
       </c>
     </row>
-    <row r="168" ht="30" customHeight="1">
+    <row r="168" ht="30" customHeight="1" s="16">
       <c r="A168" s="11" t="inlineStr">
         <is>
           <t>Letzte Höhle der Anlage II</t>
@@ -19163,7 +19435,7 @@
         </is>
       </c>
     </row>
-    <row r="169" ht="30" customHeight="1">
+    <row r="169" ht="30" customHeight="1" s="16">
       <c r="A169" s="11" t="inlineStr">
         <is>
           <t>letzte Höhle der Anlage II</t>
@@ -19178,7 +19450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" ht="30" customHeight="1">
+    <row r="170" ht="30" customHeight="1" s="16">
       <c r="A170" s="11" t="inlineStr">
         <is>
           <t>letzte Höhle, Anlage II</t>
@@ -19199,7 +19471,7 @@
       </c>
       <c r="F170" s="11" t="n"/>
     </row>
-    <row r="171" ht="30" customHeight="1">
+    <row r="171" ht="30" customHeight="1" s="16">
       <c r="A171" s="11" t="inlineStr">
         <is>
           <t>letzte Höhle, Kizil, Xinjiang, China</t>
@@ -19219,7 +19491,7 @@
         </is>
       </c>
     </row>
-    <row r="172" ht="30" customHeight="1">
+    <row r="172" ht="30" customHeight="1" s="16">
       <c r="A172" s="11" t="inlineStr">
         <is>
           <t>Letzte Höhle, letzte Anlage</t>
@@ -19234,7 +19506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" ht="30" customHeight="1">
+    <row r="173" ht="30" customHeight="1" s="16">
       <c r="A173" s="11" t="inlineStr">
         <is>
           <t>letzte Höhle, letzte Anlage in  Kizil</t>
@@ -19259,7 +19531,7 @@
         </is>
       </c>
     </row>
-    <row r="174" ht="30" customHeight="1">
+    <row r="174" ht="30" customHeight="1" s="16">
       <c r="A174" s="11" t="inlineStr">
         <is>
           <t>letzter Tempel</t>
@@ -19279,7 +19551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" ht="30" customHeight="1">
+    <row r="175" ht="30" customHeight="1" s="16">
       <c r="A175" s="11" t="inlineStr">
         <is>
           <t>letzter Tempel, letzte Anlage, Kizil, Xinjiang, China</t>
@@ -19348,6 +19620,11 @@
       <c r="D178" t="n">
         <v>1</v>
       </c>
+      <c r="E178" s="11" t="inlineStr">
+        <is>
+          <t>Linru (?)</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="11" t="inlineStr">
@@ -19364,7 +19641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" ht="30" customHeight="1">
+    <row r="180" ht="30" customHeight="1" s="16">
       <c r="A180" s="11" t="inlineStr">
         <is>
           <t>Längar</t>
@@ -19379,7 +19656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" ht="30" customHeight="1">
+    <row r="181" ht="30" customHeight="1" s="16">
       <c r="A181" s="11" t="inlineStr">
         <is>
           <t>Längär (Turfan)</t>
@@ -19444,7 +19721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" ht="30" customHeight="1">
+    <row r="184" ht="30" customHeight="1" s="16">
       <c r="A184" s="11" t="inlineStr">
         <is>
           <t>Ming Oi</t>
@@ -19459,7 +19736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" ht="30" customHeight="1">
+    <row r="185" ht="30" customHeight="1" s="16">
       <c r="A185" s="11" t="inlineStr">
         <is>
           <t>Murtuk</t>
@@ -19478,13 +19755,13 @@
       <c r="D185" t="n">
         <v>1</v>
       </c>
-      <c r="E185" s="15" t="inlineStr">
+      <c r="E185" s="18" t="inlineStr">
         <is>
           <t>Murtuk / Murtuq</t>
         </is>
       </c>
     </row>
-    <row r="186" ht="30" customHeight="1">
+    <row r="186" ht="30" customHeight="1" s="16">
       <c r="A186" s="11" t="inlineStr">
         <is>
           <t>Murtuk</t>
@@ -19498,13 +19775,13 @@
       <c r="D186" t="n">
         <v>2</v>
       </c>
-      <c r="E186" s="15" t="inlineStr">
+      <c r="E186" s="18" t="inlineStr">
         <is>
           <t>Murtuk / Murtuq</t>
         </is>
       </c>
     </row>
-    <row r="187" ht="30" customHeight="1">
+    <row r="187" ht="30" customHeight="1" s="16">
       <c r="A187" s="11" t="inlineStr">
         <is>
           <t>Murtuk</t>
@@ -19523,7 +19800,7 @@
       <c r="D187" t="n">
         <v>1</v>
       </c>
-      <c r="E187" s="15" t="inlineStr">
+      <c r="E187" s="18" t="inlineStr">
         <is>
           <t>Murtuk / Murtuq</t>
         </is>
@@ -19544,7 +19821,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="189" ht="30" customHeight="1">
+    <row r="189" ht="30" customHeight="1" s="16">
       <c r="A189" s="11" t="inlineStr">
         <is>
           <t>Naksatrahöhle</t>
@@ -19589,7 +19866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" ht="30" customHeight="1" s="16">
       <c r="A192" s="11" t="inlineStr">
         <is>
           <t>Ningxia</t>
@@ -19608,8 +19885,18 @@
       <c r="D192" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="193">
+      <c r="F192" s="11" t="inlineStr">
+        <is>
+          <t>Region oder Provinz?</t>
+        </is>
+      </c>
+      <c r="G192" s="11" t="inlineStr">
+        <is>
+          <t>de.wikipedia sagt Autonomes Gebiet</t>
+        </is>
+      </c>
+    </row>
+    <row r="193" ht="30" customHeight="1" s="16">
       <c r="A193" s="11" t="inlineStr">
         <is>
           <t>Ningxia</t>
@@ -19628,6 +19915,16 @@
       <c r="D193" t="n">
         <v>2</v>
       </c>
+      <c r="F193" s="11" t="inlineStr">
+        <is>
+          <t>Region oder Provinz?</t>
+        </is>
+      </c>
+      <c r="G193" s="11" t="inlineStr">
+        <is>
+          <t>de.wikipedia sagt Autonomes Gebiet</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="11" t="inlineStr">
@@ -19669,7 +19966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" ht="30" customHeight="1">
+    <row r="196" ht="30" customHeight="1" s="16">
       <c r="A196" s="11" t="inlineStr">
         <is>
           <t>Nr. 7</t>
@@ -19689,7 +19986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" ht="30" customHeight="1">
+    <row r="197" ht="30" customHeight="1" s="16">
       <c r="A197" s="11" t="inlineStr">
         <is>
           <t>NW-Ruine</t>
@@ -19702,6 +19999,11 @@
       </c>
       <c r="D197" t="n">
         <v>1</v>
+      </c>
+      <c r="E197" s="14" t="inlineStr">
+        <is>
+          <t>nordwestliche Ruine</t>
+        </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -19728,6 +20030,11 @@
       <c r="D198" t="n">
         <v>49</v>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Region?</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="11" t="inlineStr">
@@ -19743,6 +20050,11 @@
       <c r="D199" t="n">
         <v>1</v>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Region?</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="11" t="inlineStr">
@@ -19774,7 +20086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202" ht="30" customHeight="1">
+    <row r="202" ht="30" customHeight="1" s="16">
       <c r="A202" s="11" t="inlineStr">
         <is>
           <t>Ostruine</t>
@@ -19794,7 +20106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" ht="30" customHeight="1">
+    <row r="203" ht="30" customHeight="1" s="16">
       <c r="A203" s="11" t="inlineStr">
         <is>
           <t>Ostsiedlung</t>
@@ -19809,7 +20121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" ht="30" customHeight="1">
+    <row r="204" ht="30" customHeight="1" s="16">
       <c r="A204" s="11" t="inlineStr">
         <is>
           <t>Pfauenhöhle</t>
@@ -19823,8 +20135,18 @@
       <c r="D204" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="205" ht="30" customHeight="1">
+      <c r="E204" s="11" t="inlineStr">
+        <is>
+          <t>Pfauenhöhle, Nr. 76</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>wohl auch Höhle/n</t>
+        </is>
+      </c>
+    </row>
+    <row r="205" ht="30" customHeight="1" s="16">
       <c r="A205" s="11" t="inlineStr">
         <is>
           <t>Pfauenhöhle</t>
@@ -19843,8 +20165,13 @@
       <c r="D205" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="206" ht="30" customHeight="1">
+      <c r="E205" s="11" t="inlineStr">
+        <is>
+          <t>Pfauenhöhle, Nr. 76</t>
+        </is>
+      </c>
+    </row>
+    <row r="206" ht="30" customHeight="1" s="16">
       <c r="A206" s="11" t="inlineStr">
         <is>
           <t>Pfauenhöhle (Höhle 76)</t>
@@ -19858,8 +20185,18 @@
       <c r="D206" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="207" ht="30" customHeight="1">
+      <c r="E206" s="11" t="inlineStr">
+        <is>
+          <t>Pfauenhöhle, Nr. 76</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Bezeichnung in Qualifikator</t>
+        </is>
+      </c>
+    </row>
+    <row r="207" ht="30" customHeight="1" s="16">
       <c r="A207" s="11" t="inlineStr">
         <is>
           <t>Pfauenhöhle, Kizil, Xinjiang, China</t>
@@ -19873,8 +20210,13 @@
       <c r="D207" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="208" ht="30" customHeight="1">
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="208" ht="30" customHeight="1" s="16">
       <c r="A208" s="11" t="inlineStr">
         <is>
           <t>Pfauenhöhle, Nr. 76</t>
@@ -19894,7 +20236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" ht="30" customHeight="1">
+    <row r="209" ht="30" customHeight="1" s="16">
       <c r="A209" s="11" t="inlineStr">
         <is>
           <t>Priesterweihehöhle</t>
@@ -19909,7 +20251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" ht="30" customHeight="1">
+    <row r="210" ht="30" customHeight="1" s="16">
       <c r="A210" s="11" t="inlineStr">
         <is>
           <t>Priesterweihetempel</t>
@@ -19939,7 +20281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" ht="30" customHeight="1">
+    <row r="212" ht="30" customHeight="1" s="16">
       <c r="A212" s="11" t="inlineStr">
         <is>
           <t>Ritterhöhle</t>
@@ -19954,7 +20296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" ht="30" customHeight="1">
+    <row r="213" ht="30" customHeight="1" s="16">
       <c r="A213" s="11" t="inlineStr">
         <is>
           <t>Rotkuppelraum</t>
@@ -19969,7 +20311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" ht="30" customHeight="1">
+    <row r="214" ht="30" customHeight="1" s="16">
       <c r="A214" s="11" t="inlineStr">
         <is>
           <t>Rotkuppelraum, Kizil, Xinjiang, China</t>
@@ -19989,7 +20331,7 @@
         </is>
       </c>
     </row>
-    <row r="215" ht="30" customHeight="1">
+    <row r="215" ht="30" customHeight="1" s="16">
       <c r="A215" s="11" t="inlineStr">
         <is>
           <t>Ruine</t>
@@ -20004,7 +20346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" ht="30" customHeight="1">
+    <row r="216" ht="30" customHeight="1" s="16">
       <c r="A216" s="11" t="inlineStr">
         <is>
           <t>Ruine  Alpha, Raum oberhalb der SW-Treppe</t>
@@ -20018,8 +20360,13 @@
       <c r="D216" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" ht="30" customHeight="1">
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="217" ht="30" customHeight="1" s="16">
       <c r="A217" s="11" t="inlineStr">
         <is>
           <t>Ruine Alpha</t>
@@ -20034,7 +20381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" ht="30" customHeight="1">
+    <row r="218" ht="30" customHeight="1" s="16">
       <c r="A218" s="11" t="inlineStr">
         <is>
           <t>Ruine alpha</t>
@@ -20054,7 +20401,7 @@
         </is>
       </c>
     </row>
-    <row r="219" ht="30" customHeight="1">
+    <row r="219" ht="30" customHeight="1" s="16">
       <c r="A219" s="11" t="inlineStr">
         <is>
           <t>Ruine Alpha, Khocho</t>
@@ -20068,8 +20415,13 @@
       <c r="D219" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" ht="30" customHeight="1">
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="220" ht="30" customHeight="1" s="16">
       <c r="A220" s="11" t="inlineStr">
         <is>
           <t>Ruine Alpha, Khocho, Xinjiang, China</t>
@@ -20083,8 +20435,13 @@
       <c r="D220" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" ht="30" customHeight="1">
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="221" ht="30" customHeight="1" s="16">
       <c r="A221" s="11" t="inlineStr">
         <is>
           <t>Ruine Alpha, Kocho</t>
@@ -20098,8 +20455,13 @@
       <c r="D221" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" ht="30" customHeight="1">
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="222" ht="30" customHeight="1" s="16">
       <c r="A222" s="11" t="inlineStr">
         <is>
           <t>Ruine Alpha, oberhalb der SW-Treppe</t>
@@ -20114,7 +20476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" ht="30" customHeight="1">
+    <row r="223" ht="30" customHeight="1" s="16">
       <c r="A223" s="11" t="inlineStr">
         <is>
           <t>Ruine Alpha, Vorhalle E</t>
@@ -20128,8 +20490,13 @@
       <c r="D223" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" ht="30" customHeight="1">
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="224" ht="30" customHeight="1" s="16">
       <c r="A224" s="11" t="inlineStr">
         <is>
           <t>Ruine Beta</t>
@@ -20144,7 +20511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" ht="30" customHeight="1">
+    <row r="225" ht="30" customHeight="1" s="16">
       <c r="A225" s="11" t="inlineStr">
         <is>
           <t>Ruine D</t>
@@ -20159,7 +20526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" ht="30" customHeight="1">
+    <row r="226" ht="30" customHeight="1" s="16">
       <c r="A226" s="11" t="inlineStr">
         <is>
           <t>Ruine der Nordseite d. Weges</t>
@@ -20174,7 +20541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" ht="30" customHeight="1">
+    <row r="227" ht="30" customHeight="1" s="16">
       <c r="A227" s="11" t="inlineStr">
         <is>
           <t>Ruine H'</t>
@@ -20194,7 +20561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" ht="30" customHeight="1">
+    <row r="228" ht="30" customHeight="1" s="16">
       <c r="A228" s="11" t="inlineStr">
         <is>
           <t>Ruine K</t>
@@ -20209,7 +20576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" ht="30" customHeight="1">
+    <row r="229" ht="30" customHeight="1" s="16">
       <c r="A229" s="11" t="inlineStr">
         <is>
           <t>Ruine K</t>
@@ -20229,7 +20596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" ht="30" customHeight="1">
+    <row r="230" ht="30" customHeight="1" s="16">
       <c r="A230" s="11" t="inlineStr">
         <is>
           <t>Ruine K</t>
@@ -20249,7 +20616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" ht="30" customHeight="1">
+    <row r="231" ht="30" customHeight="1" s="16">
       <c r="A231" s="11" t="inlineStr">
         <is>
           <t>Ruine K, Chotscho, Xinjiang, China</t>
@@ -20263,8 +20630,18 @@
       <c r="D231" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="232" ht="30" customHeight="1">
+      <c r="E231" s="14" t="inlineStr">
+        <is>
+          <t>Kocho / Khocho / Chotscho / Karakhoja / Karachodscha / Gaochang</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="232" ht="30" customHeight="1" s="16">
       <c r="A232" s="11" t="inlineStr">
         <is>
           <t>Ruine Q</t>
@@ -20279,7 +20656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" ht="30" customHeight="1">
+    <row r="233" ht="30" customHeight="1" s="16">
       <c r="A233" s="11" t="inlineStr">
         <is>
           <t>Ruine Q, Kocho</t>
@@ -20293,8 +20670,18 @@
       <c r="D233" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="234" ht="30" customHeight="1">
+      <c r="E233" s="14" t="inlineStr">
+        <is>
+          <t>Kocho / Khocho / Chotscho / Karakhoja / Karachodscha / Gaochang</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="234" ht="30" customHeight="1" s="16">
       <c r="A234" s="11" t="inlineStr">
         <is>
           <t>Ruine Q, Kocho, Xinjiang, China</t>
@@ -20308,8 +20695,18 @@
       <c r="D234" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" ht="30" customHeight="1">
+      <c r="E234" s="14" t="inlineStr">
+        <is>
+          <t>Kocho / Khocho / Chotscho / Karakhoja / Karachodscha / Gaochang</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="235" ht="30" customHeight="1" s="16">
       <c r="A235" s="11" t="inlineStr">
         <is>
           <t>Ruine v I</t>
@@ -20324,7 +20721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" ht="30" customHeight="1">
+    <row r="236" ht="30" customHeight="1" s="16">
       <c r="A236" s="11" t="inlineStr">
         <is>
           <t>Ruine vI</t>
@@ -20339,7 +20736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" ht="30" customHeight="1">
+    <row r="237" ht="30" customHeight="1" s="16">
       <c r="A237" s="11" t="inlineStr">
         <is>
           <t>Ruine X</t>
@@ -20354,7 +20751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" ht="30" customHeight="1">
+    <row r="238" ht="30" customHeight="1" s="16">
       <c r="A238" s="11" t="inlineStr">
         <is>
           <t>Ruine β</t>
@@ -20369,7 +20766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239" ht="30" customHeight="1">
+    <row r="239" ht="30" customHeight="1" s="16">
       <c r="A239" s="11" t="inlineStr">
         <is>
           <t>Ruine β, Kocho, Raum auf dem Turm gegenüber alpha</t>
@@ -20383,8 +20780,13 @@
       <c r="D239" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" ht="30" customHeight="1">
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="240" ht="30" customHeight="1" s="16">
       <c r="A240" s="11" t="inlineStr">
         <is>
           <t>Ruine β, Kocho, Xinjiang, China</t>
@@ -20398,8 +20800,13 @@
       <c r="D240" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" ht="30" customHeight="1">
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="241" ht="30" customHeight="1" s="16">
       <c r="A241" s="11" t="inlineStr">
         <is>
           <t>Ruinen eines großen Klosters</t>
@@ -20414,7 +20821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" ht="30" customHeight="1">
+    <row r="242" ht="30" customHeight="1" s="16">
       <c r="A242" s="11" t="inlineStr">
         <is>
           <t>S.W. Stupa</t>
@@ -20433,8 +20840,13 @@
       <c r="D242" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" ht="30" customHeight="1">
+      <c r="E242" s="11" t="inlineStr">
+        <is>
+          <t>südwestliche Stupa</t>
+        </is>
+      </c>
+    </row>
+    <row r="243" ht="30" customHeight="1" s="16">
       <c r="A243" s="11" t="inlineStr">
         <is>
           <t>Schacht des großen Stupas bei Kum Ariq</t>
@@ -20448,8 +20860,18 @@
       <c r="D243" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" ht="30" customHeight="1">
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Kum Arik / Qum Ariq</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Kum Ariq separat eingaben?</t>
+        </is>
+      </c>
+    </row>
+    <row r="244" ht="30" customHeight="1" s="16">
       <c r="A244" s="11" t="inlineStr">
         <is>
           <t>Schacht des Stupa</t>
@@ -20464,7 +20886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" ht="30" customHeight="1">
+    <row r="245" ht="30" customHeight="1" s="16">
       <c r="A245" s="11" t="inlineStr">
         <is>
           <t>Schlucht Tempel 10, Sängim, Xinjiang, China</t>
@@ -20478,8 +20900,13 @@
       <c r="D245" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" ht="30" customHeight="1">
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="246" ht="30" customHeight="1" s="16">
       <c r="A246" s="11" t="inlineStr">
         <is>
           <t>Sengim</t>
@@ -20498,8 +20925,13 @@
       <c r="D246" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" ht="30" customHeight="1">
+      <c r="E246" s="19" t="inlineStr">
+        <is>
+          <t>Sengim / Sängim / Shengjinxiang</t>
+        </is>
+      </c>
+    </row>
+    <row r="247" ht="30" customHeight="1" s="16">
       <c r="A247" s="11" t="inlineStr">
         <is>
           <t>Sengim Agiz</t>
@@ -20674,7 +21106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" ht="30" customHeight="1">
+    <row r="256" ht="30" customHeight="1" s="16">
       <c r="A256" s="11" t="inlineStr">
         <is>
           <t>Shorchuk</t>
@@ -20694,7 +21126,7 @@
         </is>
       </c>
     </row>
-    <row r="257" ht="30" customHeight="1">
+    <row r="257" ht="30" customHeight="1" s="16">
       <c r="A257" s="11" t="inlineStr">
         <is>
           <t>Shorchuk</t>
@@ -20719,7 +21151,7 @@
         </is>
       </c>
     </row>
-    <row r="258" ht="30" customHeight="1">
+    <row r="258" ht="30" customHeight="1" s="16">
       <c r="A258" s="11" t="inlineStr">
         <is>
           <t>Shorchuk</t>
@@ -20744,7 +21176,7 @@
         </is>
       </c>
     </row>
-    <row r="259" ht="30" customHeight="1">
+    <row r="259" ht="30" customHeight="1" s="16">
       <c r="A259" s="11" t="inlineStr">
         <is>
           <t>Shorchuk</t>
@@ -20769,7 +21201,7 @@
         </is>
       </c>
     </row>
-    <row r="260" ht="30" customHeight="1">
+    <row r="260" ht="30" customHeight="1" s="16">
       <c r="A260" s="11" t="inlineStr">
         <is>
           <t>Shorchuk Stadt, Xinjiang, China</t>
@@ -20789,7 +21221,7 @@
         </is>
       </c>
     </row>
-    <row r="261" ht="30" customHeight="1">
+    <row r="261" ht="30" customHeight="1" s="16">
       <c r="A261" s="11" t="inlineStr">
         <is>
           <t>Shorchuk, Nakshatra Höhle, Xinjiang, China</t>
@@ -20809,7 +21241,7 @@
         </is>
       </c>
     </row>
-    <row r="262" ht="30" customHeight="1">
+    <row r="262" ht="30" customHeight="1" s="16">
       <c r="A262" s="11" t="inlineStr">
         <is>
           <t>Shorchuk, Xinjiang, China</t>
@@ -20834,7 +21266,7 @@
         </is>
       </c>
     </row>
-    <row r="263" ht="30" customHeight="1">
+    <row r="263" ht="30" customHeight="1" s="16">
       <c r="A263" s="11" t="inlineStr">
         <is>
           <t>Shorshuk</t>
@@ -20854,7 +21286,7 @@
         </is>
       </c>
     </row>
-    <row r="264" ht="30" customHeight="1">
+    <row r="264" ht="30" customHeight="1" s="16">
       <c r="A264" s="11" t="inlineStr">
         <is>
           <t>Shortshuk, Stadt zwischen Tempel 12 und 25, Xinjiang, China</t>
@@ -20874,7 +21306,7 @@
         </is>
       </c>
     </row>
-    <row r="265" ht="30" customHeight="1">
+    <row r="265" ht="30" customHeight="1" s="16">
       <c r="A265" s="11" t="inlineStr">
         <is>
           <t>Shortshuk, Xinjiang, China</t>
@@ -20914,7 +21346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" ht="30" customHeight="1">
+    <row r="267" ht="30" customHeight="1" s="16">
       <c r="A267" s="11" t="inlineStr">
         <is>
           <t>Stadt auf dem Yar, Xinjiang, China</t>
@@ -20929,7 +21361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" ht="30" customHeight="1">
+    <row r="268" ht="30" customHeight="1" s="16">
       <c r="A268" s="11" t="inlineStr">
         <is>
           <t>Statuenhöhle</t>
@@ -20944,7 +21376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" ht="30" customHeight="1">
+    <row r="269" ht="30" customHeight="1" s="16">
       <c r="A269" s="11" t="inlineStr">
         <is>
           <t>Statuenhöhle (Höhle 77)</t>
@@ -20959,7 +21391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" ht="30" customHeight="1">
+    <row r="270" ht="30" customHeight="1" s="16">
       <c r="A270" s="11" t="inlineStr">
         <is>
           <t>Stupa nördlich von Ruine v</t>
@@ -20974,7 +21406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" ht="30" customHeight="1">
+    <row r="271" ht="30" customHeight="1" s="16">
       <c r="A271" s="11" t="inlineStr">
         <is>
           <t>Stupa, Tumschuk</t>
@@ -20993,8 +21425,18 @@
       <c r="D271" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" ht="30" customHeight="1">
+      <c r="E271" s="19" t="inlineStr">
+        <is>
+          <t>Tumshuk  / Tumschuk / Tumushuke</t>
+        </is>
+      </c>
+      <c r="F271" s="11" t="inlineStr">
+        <is>
+          <t>Stupa isloiert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="272" ht="30" customHeight="1" s="16">
       <c r="A272" s="11" t="inlineStr">
         <is>
           <t>Stupentempel</t>
@@ -21009,7 +21451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" ht="30" customHeight="1">
+    <row r="273" ht="30" customHeight="1" s="16">
       <c r="A273" s="11" t="inlineStr">
         <is>
           <t>Stupentempel</t>
@@ -21028,8 +21470,13 @@
       <c r="D273" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="274" ht="30" customHeight="1">
+      <c r="F273" s="11" t="inlineStr">
+        <is>
+          <t>Bezeichnung hier eher redundant</t>
+        </is>
+      </c>
+    </row>
+    <row r="274" ht="30" customHeight="1" s="16">
       <c r="A274" s="11" t="inlineStr">
         <is>
           <t>Stupentempel D</t>
@@ -21044,7 +21491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" ht="30" customHeight="1">
+    <row r="275" ht="30" customHeight="1" s="16">
       <c r="A275" s="11" t="inlineStr">
         <is>
           <t>Stupentempel T</t>
@@ -21059,7 +21506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" ht="30" customHeight="1">
+    <row r="276" ht="30" customHeight="1" s="16">
       <c r="A276" s="11" t="inlineStr">
         <is>
           <t>Subashi</t>
@@ -21074,7 +21521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" ht="30" customHeight="1">
+    <row r="277" ht="30" customHeight="1" s="16">
       <c r="A277" s="11" t="inlineStr">
         <is>
           <t>Sängim</t>
@@ -21093,13 +21540,13 @@
       <c r="D277" t="n">
         <v>4</v>
       </c>
-      <c r="E277" s="16" t="inlineStr">
+      <c r="E277" s="19" t="inlineStr">
         <is>
           <t>Sengim / Sängim / Shengjinxiang</t>
         </is>
       </c>
     </row>
-    <row r="278" ht="30" customHeight="1">
+    <row r="278" ht="30" customHeight="1" s="16">
       <c r="A278" s="11" t="inlineStr">
         <is>
           <t>Sängim</t>
@@ -21113,13 +21560,13 @@
       <c r="D278" t="n">
         <v>2</v>
       </c>
-      <c r="E278" s="16" t="inlineStr">
+      <c r="E278" s="19" t="inlineStr">
         <is>
           <t>Sengim / Sängim / Shengjinxiang</t>
         </is>
       </c>
     </row>
-    <row r="279" ht="30" customHeight="1">
+    <row r="279" ht="30" customHeight="1" s="16">
       <c r="A279" s="11" t="inlineStr">
         <is>
           <t>Sängim A</t>
@@ -21138,14 +21585,14 @@
       <c r="D279" t="n">
         <v>2</v>
       </c>
-      <c r="E279" s="16" t="n"/>
+      <c r="E279" s="15" t="n"/>
       <c r="F279" s="11" t="inlineStr">
         <is>
           <t>oben gibt’s auch Sengim Agiz</t>
         </is>
       </c>
     </row>
-    <row r="280" ht="30" customHeight="1">
+    <row r="280" ht="30" customHeight="1" s="16">
       <c r="A280" s="11" t="inlineStr">
         <is>
           <t>Sängim Agiz</t>
@@ -21185,7 +21632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="282" ht="30" customHeight="1">
+    <row r="282" ht="30" customHeight="1" s="16">
       <c r="A282" s="11" t="inlineStr">
         <is>
           <t>Südseite des goßen Tempels, Ostanlage, Tumschuk, Xinjiang, China</t>
@@ -21205,7 +21652,7 @@
         </is>
       </c>
     </row>
-    <row r="283" ht="30" customHeight="1">
+    <row r="283" ht="30" customHeight="1" s="16">
       <c r="A283" s="11" t="inlineStr">
         <is>
           <t>Südwest-Stupa, Chotscho, Xinjiang, China</t>
@@ -21219,13 +21666,18 @@
       <c r="D283" t="n">
         <v>1</v>
       </c>
+      <c r="E283" s="14" t="inlineStr">
+        <is>
+          <t>Kocho / Khocho / Chotscho / Karakhoja / Karachodscha / Gaochang</t>
+        </is>
+      </c>
       <c r="F283" t="inlineStr">
         <is>
           <t>isoliert eingeben</t>
         </is>
       </c>
     </row>
-    <row r="284" ht="30" customHeight="1">
+    <row r="284" ht="30" customHeight="1" s="16">
       <c r="A284" s="11" t="inlineStr">
         <is>
           <t>Tempel 1</t>
@@ -21250,7 +21702,7 @@
         </is>
       </c>
     </row>
-    <row r="285" ht="30" customHeight="1">
+    <row r="285" ht="30" customHeight="1" s="16">
       <c r="A285" s="11" t="inlineStr">
         <is>
           <t>Tempel 10</t>
@@ -21265,7 +21717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" ht="30" customHeight="1">
+    <row r="286" ht="30" customHeight="1" s="16">
       <c r="A286" s="11" t="inlineStr">
         <is>
           <t>Tempel 12 und 25, Shorchuk, Xinjiang, China</t>
@@ -21285,7 +21737,7 @@
         </is>
       </c>
     </row>
-    <row r="287" ht="30" customHeight="1">
+    <row r="287" ht="30" customHeight="1" s="16">
       <c r="A287" s="11" t="inlineStr">
         <is>
           <t>Tempel 12, 15</t>
@@ -21300,7 +21752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" ht="30" customHeight="1">
+    <row r="288" ht="30" customHeight="1" s="16">
       <c r="A288" s="11" t="inlineStr">
         <is>
           <t>Tempel 12, 15, Shorchuk, Xinjiang, China</t>
@@ -21320,7 +21772,7 @@
         </is>
       </c>
     </row>
-    <row r="289" ht="30" customHeight="1">
+    <row r="289" ht="30" customHeight="1" s="16">
       <c r="A289" s="11" t="inlineStr">
         <is>
           <t>Tempel 12, 15, Shortshuk, Xinjiang, China</t>
@@ -21340,7 +21792,7 @@
         </is>
       </c>
     </row>
-    <row r="290" ht="30" customHeight="1">
+    <row r="290" ht="30" customHeight="1" s="16">
       <c r="A290" s="11" t="inlineStr">
         <is>
           <t>Tempel 12, Kumtura, Xinjiang, China</t>
@@ -21360,7 +21812,7 @@
         </is>
       </c>
     </row>
-    <row r="291" ht="30" customHeight="1">
+    <row r="291" ht="30" customHeight="1" s="16">
       <c r="A291" s="11" t="inlineStr">
         <is>
           <t>Tempel 15 und 25, Shorchuk, Xinjiang, China</t>
@@ -21380,7 +21832,7 @@
         </is>
       </c>
     </row>
-    <row r="292" ht="30" customHeight="1">
+    <row r="292" ht="30" customHeight="1" s="16">
       <c r="A292" s="11" t="inlineStr">
         <is>
           <t>Tempel 7</t>
@@ -21395,7 +21847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" ht="30" customHeight="1">
+    <row r="293" ht="30" customHeight="1" s="16">
       <c r="A293" s="11" t="inlineStr">
         <is>
           <t>Tempel 7, Sängim, Xinjiang, China</t>
@@ -21415,7 +21867,7 @@
         </is>
       </c>
     </row>
-    <row r="294" ht="30" customHeight="1">
+    <row r="294" ht="30" customHeight="1" s="16">
       <c r="A294" s="11" t="inlineStr">
         <is>
           <t>Tempel 9</t>
@@ -21430,7 +21882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" ht="30" customHeight="1">
+    <row r="295" ht="30" customHeight="1" s="16">
       <c r="A295" s="11" t="inlineStr">
         <is>
           <t>Tempel auf der Insel</t>
@@ -21450,7 +21902,7 @@
         </is>
       </c>
     </row>
-    <row r="296" ht="30" customHeight="1">
+    <row r="296" ht="30" customHeight="1" s="16">
       <c r="A296" s="11" t="inlineStr">
         <is>
           <t>Tempel auf Insel</t>
@@ -21465,7 +21917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" ht="30" customHeight="1">
+    <row r="297" ht="30" customHeight="1" s="16">
       <c r="A297" s="11" t="inlineStr">
         <is>
           <t>Tempel auf Westseite, Tumshuk, Xinjiang, China</t>
@@ -21485,7 +21937,7 @@
         </is>
       </c>
     </row>
-    <row r="298" ht="30" customHeight="1">
+    <row r="298" ht="30" customHeight="1" s="16">
       <c r="A298" s="11" t="inlineStr">
         <is>
           <t>Tempel B, Khocho</t>
@@ -21500,7 +21952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" ht="30" customHeight="1">
+    <row r="299" ht="30" customHeight="1" s="16">
       <c r="A299" s="11" t="inlineStr">
         <is>
           <t>Tempel der Behelmten, Kizil, Xinjiang, China</t>
@@ -21520,7 +21972,7 @@
         </is>
       </c>
     </row>
-    <row r="300" ht="30" customHeight="1">
+    <row r="300" ht="30" customHeight="1" s="16">
       <c r="A300" s="11" t="inlineStr">
         <is>
           <t>Tempel des Lokapalas</t>
@@ -21540,7 +21992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" ht="30" customHeight="1">
+    <row r="301" ht="30" customHeight="1" s="16">
       <c r="A301" s="11" t="inlineStr">
         <is>
           <t>Tempel H</t>
@@ -21555,7 +22007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" ht="30" customHeight="1">
+    <row r="302" ht="30" customHeight="1" s="16">
       <c r="A302" s="11" t="inlineStr">
         <is>
           <t>Tempel im Süden der Stadt</t>
@@ -21570,7 +22022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" ht="30" customHeight="1">
+    <row r="303" ht="30" customHeight="1" s="16">
       <c r="A303" s="11" t="inlineStr">
         <is>
           <t>Tempel im Süden der Stadt</t>
@@ -21590,7 +22042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" ht="30" customHeight="1">
+    <row r="304" ht="30" customHeight="1" s="16">
       <c r="A304" s="11" t="inlineStr">
         <is>
           <t>Tempel in der Ebene, Kumtura, Xinjiang, China</t>
@@ -21610,7 +22062,7 @@
         </is>
       </c>
     </row>
-    <row r="305" ht="30" customHeight="1">
+    <row r="305" ht="30" customHeight="1" s="16">
       <c r="A305" s="11" t="inlineStr">
         <is>
           <t>Tempel Lokapalas</t>
@@ -21625,7 +22077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" ht="30" customHeight="1">
+    <row r="306" ht="30" customHeight="1" s="16">
       <c r="A306" s="11" t="inlineStr">
         <is>
           <t>Tempel Mü, Khocho, Xinjiang, China</t>
@@ -21645,7 +22097,7 @@
         </is>
       </c>
     </row>
-    <row r="307" ht="30" customHeight="1">
+    <row r="307" ht="30" customHeight="1" s="16">
       <c r="A307" s="11" t="inlineStr">
         <is>
           <t>Tempel neben Tura</t>
@@ -21660,7 +22112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" ht="30" customHeight="1">
+    <row r="308" ht="30" customHeight="1" s="16">
       <c r="A308" s="11" t="inlineStr">
         <is>
           <t>Tempel oberhalb der Kassettenhöhle</t>
@@ -21675,7 +22127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" ht="30" customHeight="1">
+    <row r="309" ht="30" customHeight="1" s="16">
       <c r="A309" s="11" t="inlineStr">
         <is>
           <t>Tempel oberhalb, Kasettenhöhle</t>
@@ -21695,7 +22147,7 @@
         </is>
       </c>
     </row>
-    <row r="310" ht="30" customHeight="1">
+    <row r="310" ht="30" customHeight="1" s="16">
       <c r="A310" s="11" t="inlineStr">
         <is>
           <t>Tempel Q</t>
@@ -21715,7 +22167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" ht="30" customHeight="1">
+    <row r="311" ht="30" customHeight="1" s="16">
       <c r="A311" s="11" t="inlineStr">
         <is>
           <t>Tempelchen bei Tura</t>
@@ -21730,7 +22182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" ht="30" customHeight="1">
+    <row r="312" ht="30" customHeight="1" s="16">
       <c r="A312" s="11" t="inlineStr">
         <is>
           <t>Tempelchen bei Tura, Tschikkan Köl, Xinxiang, China</t>
@@ -21750,7 +22202,7 @@
         </is>
       </c>
     </row>
-    <row r="313" ht="30" customHeight="1">
+    <row r="313" ht="30" customHeight="1" s="16">
       <c r="A313" s="11" t="inlineStr">
         <is>
           <t>Terasse, Bäzäklik, Murtuk, Xinjiang, China</t>
@@ -21845,7 +22297,7 @@
         </is>
       </c>
     </row>
-    <row r="318" ht="30" customHeight="1">
+    <row r="318" ht="30" customHeight="1" s="16">
       <c r="A318" s="11" t="inlineStr">
         <is>
           <t>Tschikan Köl</t>
@@ -21859,13 +22311,13 @@
       <c r="D318" t="n">
         <v>1</v>
       </c>
-      <c r="E318" s="15" t="inlineStr">
+      <c r="E318" s="18" t="inlineStr">
         <is>
           <t>Chikkan Köl / Tschikkan Köl / Qikanghu</t>
         </is>
       </c>
     </row>
-    <row r="319" ht="30" customHeight="1">
+    <row r="319" ht="30" customHeight="1" s="16">
       <c r="A319" s="11" t="inlineStr">
         <is>
           <t>Tschikkan Köl</t>
@@ -21879,13 +22331,13 @@
       <c r="D319" t="n">
         <v>4</v>
       </c>
-      <c r="E319" s="15" t="inlineStr">
+      <c r="E319" s="18" t="inlineStr">
         <is>
           <t>Chikkan Köl / Tschikkan Köl / Qikanghu</t>
         </is>
       </c>
     </row>
-    <row r="320" ht="30" customHeight="1">
+    <row r="320" ht="30" customHeight="1" s="16">
       <c r="A320" s="11" t="inlineStr">
         <is>
           <t>Tumschuk</t>
@@ -21904,7 +22356,7 @@
       <c r="D320" t="n">
         <v>1</v>
       </c>
-      <c r="E320" s="15" t="inlineStr">
+      <c r="E320" s="18" t="inlineStr">
         <is>
           <t>Tumshuk / Tumschuk / Tumushuke</t>
         </is>
@@ -21915,7 +22367,7 @@
         </is>
       </c>
     </row>
-    <row r="321" ht="30" customHeight="1">
+    <row r="321" ht="30" customHeight="1" s="16">
       <c r="A321" s="11" t="inlineStr">
         <is>
           <t>Tumschuk</t>
@@ -21929,7 +22381,7 @@
       <c r="D321" t="n">
         <v>2</v>
       </c>
-      <c r="E321" s="15" t="inlineStr">
+      <c r="E321" s="18" t="inlineStr">
         <is>
           <t>Tumshuk / Tumschuk / Tumushuke</t>
         </is>
@@ -21940,7 +22392,7 @@
         </is>
       </c>
     </row>
-    <row r="322" ht="30" customHeight="1">
+    <row r="322" ht="30" customHeight="1" s="16">
       <c r="A322" s="11" t="inlineStr">
         <is>
           <t>Tumschuk, 2. Zimmer nördlich vom verbrannten Tempel; China</t>
@@ -21954,7 +22406,7 @@
       <c r="D322" t="n">
         <v>1</v>
       </c>
-      <c r="E322" s="15" t="inlineStr">
+      <c r="E322" s="18" t="inlineStr">
         <is>
           <t>Tumshuk / Tumschuk / Tumushuke</t>
         </is>
@@ -21965,7 +22417,7 @@
         </is>
       </c>
     </row>
-    <row r="323" ht="30" customHeight="1">
+    <row r="323" ht="30" customHeight="1" s="16">
       <c r="A323" s="11" t="inlineStr">
         <is>
           <t>Tumshuk</t>
@@ -21979,7 +22431,7 @@
       <c r="D323" t="n">
         <v>14</v>
       </c>
-      <c r="E323" s="15" t="inlineStr">
+      <c r="E323" s="18" t="inlineStr">
         <is>
           <t>Tumshuk / Tumschuk / Tumushuke</t>
         </is>
@@ -21990,7 +22442,7 @@
         </is>
       </c>
     </row>
-    <row r="324" ht="30" customHeight="1">
+    <row r="324" ht="30" customHeight="1" s="16">
       <c r="A324" s="11" t="inlineStr">
         <is>
           <t>Tumshuk</t>
@@ -22009,7 +22461,7 @@
       <c r="D324" t="n">
         <v>5</v>
       </c>
-      <c r="E324" s="15" t="inlineStr">
+      <c r="E324" s="18" t="inlineStr">
         <is>
           <t>Tumshuk / Tumschuk / Tumushuke</t>
         </is>
@@ -22020,7 +22472,7 @@
         </is>
       </c>
     </row>
-    <row r="325" ht="30" customHeight="1">
+    <row r="325" ht="30" customHeight="1" s="16">
       <c r="A325" s="11" t="inlineStr">
         <is>
           <t>Tumshuk</t>
@@ -22039,7 +22491,7 @@
       <c r="D325" t="n">
         <v>1</v>
       </c>
-      <c r="E325" s="15" t="inlineStr">
+      <c r="E325" s="18" t="inlineStr">
         <is>
           <t>Tumshuk / Tumschuk / Tumushuke</t>
         </is>
@@ -22050,7 +22502,7 @@
         </is>
       </c>
     </row>
-    <row r="326" ht="30" customHeight="1">
+    <row r="326" ht="30" customHeight="1" s="16">
       <c r="A326" s="11" t="inlineStr">
         <is>
           <t>Tumshuk</t>
@@ -22069,7 +22521,7 @@
       <c r="D326" t="n">
         <v>1</v>
       </c>
-      <c r="E326" s="15" t="inlineStr">
+      <c r="E326" s="18" t="inlineStr">
         <is>
           <t>Tumshuk / Tumschuk / Tumushuke</t>
         </is>
@@ -22080,7 +22532,7 @@
         </is>
       </c>
     </row>
-    <row r="327" ht="30" customHeight="1">
+    <row r="327" ht="30" customHeight="1" s="16">
       <c r="A327" s="11" t="inlineStr">
         <is>
           <t>Tumshuk, Xinjiang, China</t>
@@ -22094,7 +22546,7 @@
       <c r="D327" t="n">
         <v>1</v>
       </c>
-      <c r="E327" s="15" t="inlineStr">
+      <c r="E327" s="18" t="inlineStr">
         <is>
           <t>Tumshuk / Tumschuk / Tumushuke</t>
         </is>
@@ -22105,7 +22557,7 @@
         </is>
       </c>
     </row>
-    <row r="328" ht="30" customHeight="1">
+    <row r="328" ht="30" customHeight="1" s="16">
       <c r="A328" s="11" t="inlineStr">
         <is>
           <t>Turm IV, Chotscho, Xinjiang, China</t>
@@ -22119,13 +22571,18 @@
       <c r="D328" t="n">
         <v>1</v>
       </c>
+      <c r="E328" s="14" t="inlineStr">
+        <is>
+          <t>Kocho / Khocho / Chotscho / Karakhoja / Karachodscha / Gaochang</t>
+        </is>
+      </c>
       <c r="F328" t="inlineStr">
         <is>
           <t>isoliert eingeben</t>
         </is>
       </c>
     </row>
-    <row r="329" ht="30" customHeight="1">
+    <row r="329" ht="30" customHeight="1" s="16">
       <c r="A329" s="11" t="inlineStr">
         <is>
           <t>Turm vI, Chotscho, Xinjiang, China</t>
@@ -22139,13 +22596,18 @@
       <c r="D329" t="n">
         <v>1</v>
       </c>
+      <c r="E329" s="14" t="inlineStr">
+        <is>
+          <t>Kocho / Khocho / Chotscho / Karakhoja / Karachodscha / Gaochang</t>
+        </is>
+      </c>
       <c r="F329" t="inlineStr">
         <is>
           <t>isoliert eingeben</t>
         </is>
       </c>
     </row>
-    <row r="330" ht="30" customHeight="1">
+    <row r="330" ht="30" customHeight="1" s="16">
       <c r="A330" s="11" t="inlineStr">
         <is>
           <t>Unfallhöhle, Nr. 10</t>
@@ -22160,7 +22622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" ht="30" customHeight="1">
+    <row r="331" ht="30" customHeight="1" s="16">
       <c r="A331" s="11" t="inlineStr">
         <is>
           <t>Untergeschoss, N. O. - Turm Beta</t>
@@ -22175,7 +22637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" ht="30" customHeight="1">
+    <row r="332" ht="30" customHeight="1" s="16">
       <c r="A332" s="11" t="inlineStr">
         <is>
           <t>v1</t>
@@ -22190,7 +22652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" ht="30" customHeight="1">
+    <row r="333" ht="30" customHeight="1" s="16">
       <c r="A333" s="11" t="inlineStr">
         <is>
           <t>Verbrannten Tempel</t>
@@ -22210,7 +22672,7 @@
         </is>
       </c>
     </row>
-    <row r="334" ht="30" customHeight="1">
+    <row r="334" ht="30" customHeight="1" s="16">
       <c r="A334" s="11" t="inlineStr">
         <is>
           <t>Verbrannter Tempel</t>
@@ -22225,7 +22687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" ht="30" customHeight="1">
+    <row r="335" ht="30" customHeight="1" s="16">
       <c r="A335" s="11" t="inlineStr">
         <is>
           <t>W-ruine</t>
@@ -22250,7 +22712,7 @@
         </is>
       </c>
     </row>
-    <row r="336" ht="30" customHeight="1">
+    <row r="336" ht="30" customHeight="1" s="16">
       <c r="A336" s="11" t="inlineStr">
         <is>
           <t>W. Ruine</t>
@@ -22275,7 +22737,7 @@
         </is>
       </c>
     </row>
-    <row r="337" ht="30" customHeight="1">
+    <row r="337" ht="30" customHeight="1" s="16">
       <c r="A337" s="11" t="inlineStr">
         <is>
           <t>Westanlage, Tumshuk, Xinjiang, China</t>
@@ -22295,7 +22757,7 @@
         </is>
       </c>
     </row>
-    <row r="338" ht="30" customHeight="1">
+    <row r="338" ht="30" customHeight="1" s="16">
       <c r="A338" s="11" t="inlineStr">
         <is>
           <t>Westklippe</t>
@@ -22310,7 +22772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" ht="30" customHeight="1">
+    <row r="339" ht="30" customHeight="1" s="16">
       <c r="A339" s="11" t="inlineStr">
         <is>
           <t>Westklippe, Westruine, Tumshuk, Xinjiang, China</t>
@@ -22324,8 +22786,18 @@
       <c r="D339" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="340" ht="30" customHeight="1">
+      <c r="E339" s="18" t="inlineStr">
+        <is>
+          <t>Tumshuk / Tumschuk / Tumushuke</t>
+        </is>
+      </c>
+      <c r="F339" s="11" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
+      </c>
+    </row>
+    <row r="340" ht="30" customHeight="1" s="16">
       <c r="A340" s="11" t="inlineStr">
         <is>
           <t>Westseite der Westklippe</t>
@@ -22340,7 +22812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" ht="30" customHeight="1">
+    <row r="341" ht="30" customHeight="1" s="16">
       <c r="A341" s="11" t="inlineStr">
         <is>
           <t>Xianjing</t>
@@ -22375,7 +22847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" ht="30" customHeight="1">
+    <row r="343" ht="30" customHeight="1" s="16">
       <c r="A343" s="11" t="inlineStr">
         <is>
           <t>Xinjang</t>
@@ -22394,8 +22866,13 @@
       <c r="D343" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="344" ht="30" customHeight="1">
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>Tippfehler? Xinjiang / Sinkiang  gemeint?</t>
+        </is>
+      </c>
+    </row>
+    <row r="344" ht="30" customHeight="1" s="16">
       <c r="A344" s="11" t="inlineStr">
         <is>
           <t>Xinjian</t>
@@ -22420,7 +22897,7 @@
         </is>
       </c>
     </row>
-    <row r="345" ht="30" customHeight="1">
+    <row r="345" ht="30" customHeight="1" s="16">
       <c r="A345" s="11" t="inlineStr">
         <is>
           <t>Xinjiang</t>
@@ -22445,7 +22922,7 @@
         </is>
       </c>
     </row>
-    <row r="346" ht="30" customHeight="1">
+    <row r="346" ht="30" customHeight="1" s="16">
       <c r="A346" s="11" t="inlineStr">
         <is>
           <t>Xinjiang</t>
@@ -22470,7 +22947,7 @@
         </is>
       </c>
     </row>
-    <row r="347" ht="30" customHeight="1">
+    <row r="347" ht="30" customHeight="1" s="16">
       <c r="A347" s="11" t="inlineStr">
         <is>
           <t>Xinjiang, China</t>
@@ -22484,13 +22961,18 @@
       <c r="D347" t="n">
         <v>18</v>
       </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xinjiang / Sinkiang </t>
+        </is>
+      </c>
       <c r="F347" t="inlineStr">
         <is>
           <t>isoliert eingeben</t>
         </is>
       </c>
     </row>
-    <row r="348" ht="30" customHeight="1">
+    <row r="348" ht="30" customHeight="1" s="16">
       <c r="A348" s="11" t="inlineStr">
         <is>
           <t>Xinjinang</t>
@@ -22509,8 +22991,18 @@
       <c r="D348" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="349" ht="30" customHeight="1">
+      <c r="E348" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xinjiang / Sinkiang </t>
+        </is>
+      </c>
+      <c r="F348" s="11" t="inlineStr">
+        <is>
+          <t>Tippfehler? Xinjiang / Sinkiang  gemeint?</t>
+        </is>
+      </c>
+    </row>
+    <row r="349" ht="30" customHeight="1" s="16">
       <c r="A349" s="11" t="inlineStr">
         <is>
           <t>Xinjinang, China</t>
@@ -22523,6 +23015,11 @@
       </c>
       <c r="D349" t="n">
         <v>1</v>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xinjiang / Sinkiang </t>
+        </is>
       </c>
       <c r="F349" t="inlineStr">
         <is>
@@ -22560,7 +23057,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="352" ht="30" customHeight="1">
+    <row r="352" ht="30" customHeight="1" s="16">
       <c r="A352" s="11" t="inlineStr">
         <is>
           <t>Yarkhoto</t>
@@ -22575,7 +23072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" ht="30" customHeight="1">
+    <row r="353" ht="30" customHeight="1" s="16">
       <c r="A353" s="11" t="inlineStr">
         <is>
           <t>Yarkhoto, Xinjiang, China</t>
@@ -22595,7 +23092,7 @@
         </is>
       </c>
     </row>
-    <row r="354" ht="30" customHeight="1">
+    <row r="354" ht="30" customHeight="1" s="16">
       <c r="A354" s="11" t="inlineStr">
         <is>
           <t>Yarkoto</t>
@@ -22720,7 +23217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" ht="30" customHeight="1">
+    <row r="361" ht="30" customHeight="1" s="16">
       <c r="A361" s="11" t="inlineStr">
         <is>
           <t>Zwischen Tempel 12 und 25</t>
@@ -22735,7 +23232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="362" ht="30" customHeight="1">
+    <row r="362" ht="30" customHeight="1" s="16">
       <c r="A362" s="11" t="inlineStr">
         <is>
           <t>zwischen Tempel 12 und 25, Shortshuk, Xinjiang, China</t>
@@ -22748,6 +23245,11 @@
       </c>
       <c r="D362" t="n">
         <v>7</v>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>isoliert eingeben</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -22782,9 +23284,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="51.42578125" customWidth="1" min="1" max="1"/>
-    <col width="40.85546875" customWidth="1" min="2" max="2"/>
-    <col width="34.140625" customWidth="1" min="3" max="3"/>
+    <col width="51.42578125" customWidth="1" style="16" min="1" max="1"/>
+    <col width="40.85546875" customWidth="1" style="16" min="2" max="2"/>
+    <col width="34.140625" customWidth="1" style="16" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -28384,12 +28886,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="3.85546875" customWidth="1" min="2" max="2"/>
-    <col width="3.7109375" customWidth="1" min="3" max="3"/>
-    <col width="10.28515625" customWidth="1" min="4" max="4"/>
-    <col width="18.7109375" customWidth="1" min="5" max="5"/>
-    <col width="37.85546875" customWidth="1" min="6" max="6"/>
+    <col width="23" customWidth="1" style="16" min="1" max="1"/>
+    <col width="3.85546875" customWidth="1" style="16" min="2" max="2"/>
+    <col width="3.7109375" customWidth="1" style="16" min="3" max="3"/>
+    <col width="10.28515625" customWidth="1" style="16" min="4" max="4"/>
+    <col width="18.7109375" customWidth="1" style="16" min="5" max="5"/>
+    <col width="37.85546875" customWidth="1" style="16" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -28518,10 +29020,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="17.28515625" customWidth="1" min="1" max="1"/>
-    <col width="5.28515625" customWidth="1" min="2" max="2"/>
-    <col width="2.42578125" customWidth="1" min="3" max="3"/>
-    <col width="21.5703125" customWidth="1" min="6" max="6"/>
+    <col width="17.28515625" customWidth="1" style="16" min="1" max="1"/>
+    <col width="5.28515625" customWidth="1" style="16" min="2" max="2"/>
+    <col width="2.42578125" customWidth="1" style="16" min="3" max="3"/>
+    <col width="21.5703125" customWidth="1" style="16" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -28730,7 +29232,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="23.140625" customWidth="1" min="1" max="1"/>
+    <col width="23.140625" customWidth="1" style="16" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -28931,9 +29433,9 @@
   <cols>
     <col width="39.140625" customWidth="1" style="7" min="1" max="1"/>
     <col width="41.140625" customWidth="1" style="7" min="2" max="2"/>
-    <col width="32.42578125" customWidth="1" min="5" max="5"/>
-    <col width="26.7109375" customWidth="1" min="6" max="6"/>
-    <col width="26.28515625" customWidth="1" min="7" max="7"/>
+    <col width="32.42578125" customWidth="1" style="16" min="5" max="5"/>
+    <col width="26.7109375" customWidth="1" style="16" min="6" max="6"/>
+    <col width="26.28515625" customWidth="1" style="16" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -28973,7 +29475,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="30" customHeight="1">
+    <row r="2" ht="30" customHeight="1" s="16">
       <c r="A2" s="7" t="inlineStr">
         <is>
           <t>"Guan yao"-Stil, Porzellan, grünlich und blau glasiert</t>
@@ -28983,7 +29485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="30" customHeight="1">
+    <row r="3" ht="30" customHeight="1" s="16">
       <c r="A3" s="7" t="inlineStr">
         <is>
           <t>"Jun yao"-Ware, Porzellan, hellblau glasiert</t>
@@ -28993,7 +29495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="45" customHeight="1">
+    <row r="4" ht="45" customHeight="1" s="16">
       <c r="A4" s="7" t="inlineStr">
         <is>
           <t>32-fach geschweifter Porzellanteller (imari), Unterglasurblau mit Eisenrot und Gold, Unterglasurblau</t>
@@ -29003,7 +29505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="45" customHeight="1">
+    <row r="5" ht="45" customHeight="1" s="16">
       <c r="A5" s="7" t="inlineStr">
         <is>
           <t>Agano-Keramik, Steinzeug mit Ascheglasur und getauchter grüner Kupferglasur</t>
@@ -29013,7 +29515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="30" customHeight="1">
+    <row r="6" ht="30" customHeight="1" s="16">
       <c r="A6" s="7" t="inlineStr">
         <is>
           <t>Agano-Keramik, Steinzeug mit grüner Kupferglasur</t>
@@ -29023,7 +29525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="30" customHeight="1">
+    <row r="7" ht="30" customHeight="1" s="16">
       <c r="A7" s="7" t="inlineStr">
         <is>
           <t>Agano-Keramik, Steinzeug mit rotbrauner Glasur und hellen Flecken</t>
@@ -29033,7 +29535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="45" customHeight="1">
+    <row r="8" ht="45" customHeight="1" s="16">
       <c r="A8" s="7" t="inlineStr">
         <is>
           <t>Aizu-Hongô-Keramik mit Aizu-Suigetsu, Steinzeug mit Landschafts-Dekor in Kobalt-Unterglasur</t>
@@ -29043,7 +29545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="30" customHeight="1">
+    <row r="9" ht="30" customHeight="1" s="16">
       <c r="A9" s="7" t="inlineStr">
         <is>
           <t>Aizu-Hongô-Keramik mit Aizu-Suigetsu, Steinzeug mit Reisstrohascheglasur</t>
@@ -29053,7 +29555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="45" customHeight="1">
+    <row r="10" ht="45" customHeight="1" s="16">
       <c r="A10" s="7" t="inlineStr">
         <is>
           <t>Akahada-Keramik, Steinzeug mit Reisstrohascheglasur und Schreinmotiven in Aufglasurfarben</t>
@@ -29063,7 +29565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="30" customHeight="1">
+    <row r="11" ht="30" customHeight="1" s="16">
       <c r="A11" s="7" t="inlineStr">
         <is>
           <t>Albumblatt als Hängerolle montiert, Tusche und Farben auf Seide</t>
@@ -29073,7 +29575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="45" customHeight="1">
+    <row r="12" ht="45" customHeight="1" s="16">
       <c r="A12" s="7" t="inlineStr">
         <is>
           <t>Arita-Keramik, Porzellan mit aufgedrucktem Dekor in Kobalt-Unterglasur, Serienfertigung</t>
@@ -29083,7 +29585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="30" customHeight="1">
+    <row r="13" ht="30" customHeight="1" s="16">
       <c r="A13" s="7" t="inlineStr">
         <is>
           <t>Arita-Porzellan mit Dekor in Unterglasurblau</t>
@@ -29093,7 +29595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="30" customHeight="1">
+    <row r="14" ht="30" customHeight="1" s="16">
       <c r="A14" s="7" t="inlineStr">
         <is>
           <t>Arita-Porzellan, Kakiemon, Unterglasurmalerei</t>
@@ -29103,7 +29605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="30" customHeight="1">
+    <row r="15" ht="30" customHeight="1" s="16">
       <c r="A15" s="7" t="inlineStr">
         <is>
           <t>Asahi-Keramik, Steinzeug mit dunkler gohon-de-Glasur</t>
@@ -29113,7 +29615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="30" customHeight="1">
+    <row r="16" ht="30" customHeight="1" s="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
           <t>Asahi-Keramik, Steinzeug mit gohon-de-Glasur</t>
@@ -29123,7 +29625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="30" customHeight="1">
+    <row r="17" ht="30" customHeight="1" s="16">
       <c r="A17" s="7" t="inlineStr">
         <is>
           <t>Asahi-Keramik, Steinzeug mit gohon-de-Glasur und Fingerspuren</t>
@@ -29133,7 +29635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="45" customHeight="1">
+    <row r="18" ht="45" customHeight="1" s="16">
       <c r="A18" s="7" t="inlineStr">
         <is>
           <t>Beigefarbener Ton, Engobe, teilweise tranparent oder dunkelbraun glasiert, Eisenbraunes Schriftdekor</t>
@@ -29153,7 +29655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" ht="30" customHeight="1">
+    <row r="20" ht="30" customHeight="1" s="16">
       <c r="A20" s="7" t="inlineStr">
         <is>
           <t>Beigefarbener Ton, weiße Engobe, transparent opak glasiert, Sgraffitodekor</t>
@@ -29173,7 +29675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" ht="30" customHeight="1">
+    <row r="22" ht="30" customHeight="1" s="16">
       <c r="A22" s="7" t="inlineStr">
         <is>
           <t>Bihoro-Keramik, Steinzeug mit blauer Kupferglasur und weißem Glasurdekor</t>
@@ -29183,7 +29685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" ht="30" customHeight="1">
+    <row r="23" ht="30" customHeight="1" s="16">
       <c r="A23" s="7" t="inlineStr">
         <is>
           <t>Bizen-Keramik, Steinzeug mit natürlicher Ascheanflugglasur und Brandeffekten</t>
@@ -29193,7 +29695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="30" customHeight="1">
+    <row r="24" ht="30" customHeight="1" s="16">
       <c r="A24" s="7" t="inlineStr">
         <is>
           <t>Bizen-Keramik, Steinzeug mit natürlicher Ascheanflugglasur und Brandspuren</t>
@@ -29203,7 +29705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" ht="45" customHeight="1">
+    <row r="25" ht="45" customHeight="1" s="16">
       <c r="A25" s="7" t="inlineStr">
         <is>
           <t>Bizen-Keramik, Steinzeug mit natürlicher Ascheanflugglasur und Sesamkorn-Glasurflecken</t>
@@ -29213,7 +29715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" ht="30" customHeight="1">
+    <row r="26" ht="30" customHeight="1" s="16">
       <c r="A26" s="7" t="inlineStr">
         <is>
           <t>Bizen-Keramik, Unglasiertes Steinzeug mit Feuerschnurdekor</t>
@@ -29253,7 +29755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" ht="30" customHeight="1">
+    <row r="30" ht="30" customHeight="1" s="16">
       <c r="A30" s="7" t="inlineStr">
         <is>
           <t>Braun-roter Ton mit bläulich-grüner, rot gefleckter Glasur</t>
@@ -29263,7 +29765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" ht="30" customHeight="1">
+    <row r="31" ht="30" customHeight="1" s="16">
       <c r="A31" s="7" t="inlineStr">
         <is>
           <t>Brauner Ton mit gelber, rosa-gefleckter Glasur</t>
@@ -29293,7 +29795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" ht="45" customHeight="1">
+    <row r="34" ht="45" customHeight="1" s="16">
       <c r="A34" s="7" t="inlineStr">
         <is>
           <t>Braungebrannter Biskuit, braun glasiert (innen), applizierte honiggelbe Glasurtropfen</t>
@@ -29303,7 +29805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" ht="30" customHeight="1">
+    <row r="35" ht="30" customHeight="1" s="16">
       <c r="A35" s="7" t="inlineStr">
         <is>
           <t>Braungrauer Ton, dünn gelbolivfarbend glasiert</t>
@@ -29313,7 +29815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" ht="30" customHeight="1">
+    <row r="36" ht="30" customHeight="1" s="16">
       <c r="A36" s="7" t="inlineStr">
         <is>
           <t>Braungrauer Ton, opak dunkelbraun glasiert (Teestaubglasur)</t>
@@ -29323,7 +29825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" ht="30" customHeight="1">
+    <row r="37" ht="30" customHeight="1" s="16">
       <c r="A37" s="7" t="inlineStr">
         <is>
           <t>Braungrauer Ton, transparent graugrün glasiert</t>
@@ -29333,7 +29835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" ht="30" customHeight="1">
+    <row r="38" ht="30" customHeight="1" s="16">
       <c r="A38" s="7" t="inlineStr">
         <is>
           <t>Braungrauer Ton, weiße Engobe, honiggelb glasiert</t>
@@ -29343,7 +29845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" ht="30" customHeight="1">
+    <row r="39" ht="30" customHeight="1" s="16">
       <c r="A39" s="7" t="inlineStr">
         <is>
           <t>Braungrauer Ton, weiße Engobe, tranparent glasiert</t>
@@ -29383,7 +29885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" ht="30" customHeight="1">
+    <row r="43" ht="30" customHeight="1" s="16">
       <c r="A43" s="7" t="inlineStr">
         <is>
           <t>Bronze mit Goldauflage, Golddraht und Goldplättchen</t>
@@ -29403,7 +29905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" ht="60" customHeight="1">
+    <row r="45" ht="60" customHeight="1" s="16">
       <c r="A45" s="7" t="inlineStr">
         <is>
           <t>Buncheong-Ware, grauer Ton mit halbopaker, krakelierter Glasur über eingeritzten Irisblüten, Reparaturen in Goldlack</t>
@@ -29423,7 +29925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" ht="30" customHeight="1">
+    <row r="47" ht="30" customHeight="1" s="16">
       <c r="A47" s="7" t="inlineStr">
         <is>
           <t>Cizou-Ware, Ton mit weißer Engobe, Sgraffitodekor</t>
@@ -29433,7 +29935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" ht="30" customHeight="1">
+    <row r="48" ht="30" customHeight="1" s="16">
       <c r="A48" s="7" t="inlineStr">
         <is>
           <t>Cremefarbener Ton, blassblau glasiert (qingbai)</t>
@@ -29443,7 +29945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" ht="30" customHeight="1">
+    <row r="49" ht="30" customHeight="1" s="16">
       <c r="A49" s="7" t="inlineStr">
         <is>
           <t>Cremefarbener Ton, Engobe, tranparent gelblich  glasiert</t>
@@ -29453,7 +29955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" ht="30" customHeight="1">
+    <row r="50" ht="30" customHeight="1" s="16">
       <c r="A50" s="7" t="inlineStr">
         <is>
           <t>Cremefarbener Ton, graublau glasiert, bläulich getönte Purpurflecken</t>
@@ -29463,7 +29965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" ht="45" customHeight="1">
+    <row r="51" ht="45" customHeight="1" s="16">
       <c r="A51" s="7" t="inlineStr">
         <is>
           <t>Cremefarbener Ton, helle Engobe, bernsteinfarbend glasiert, marmoriertes Muster</t>
@@ -29483,7 +29985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" ht="30" customHeight="1">
+    <row r="53" ht="30" customHeight="1" s="16">
       <c r="A53" s="7" t="inlineStr">
         <is>
           <t>Cremefarbener Ton, weiße Engobe, elfenbeinfarbend glasiert</t>
@@ -29493,7 +29995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" ht="45" customHeight="1">
+    <row r="54" ht="45" customHeight="1" s="16">
       <c r="A54" s="7" t="inlineStr">
         <is>
           <t>Cremefarbener Ton, weiße Engobe, transparent gelblich glasiert, Sgraffitodekor</t>
@@ -29503,7 +30005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" ht="30" customHeight="1">
+    <row r="55" ht="30" customHeight="1" s="16">
       <c r="A55" s="7" t="inlineStr">
         <is>
           <t>Cremefarbener Ton, weiße Engobe, transparent glasiert</t>
@@ -29513,7 +30015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" ht="30" customHeight="1">
+    <row r="56" ht="30" customHeight="1" s="16">
       <c r="A56" s="7" t="inlineStr">
         <is>
           <t>Cremefarbener Ton,Engobe, elfenbeinfarbend glasiert</t>
@@ -29523,7 +30025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" ht="30" customHeight="1">
+    <row r="57" ht="30" customHeight="1" s="16">
       <c r="A57" s="7" t="inlineStr">
         <is>
           <t>Cremefarbiges Protoporzellan, grün-braun glasiert</t>
@@ -29533,7 +30035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" ht="30" customHeight="1">
+    <row r="58" ht="30" customHeight="1" s="16">
       <c r="A58" s="7" t="inlineStr">
         <is>
           <t>Cremeweißer Ton, bernsteinfarbend, grün und transparent glasiert (sancai)</t>
@@ -29543,7 +30045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" ht="45" customHeight="1">
+    <row r="59" ht="45" customHeight="1" s="16">
       <c r="A59" s="7" t="inlineStr">
         <is>
           <t>Cremeweißer Ton, Engobe, leuchtend grün glasiert, transparent gelb glasiert (innen)</t>
@@ -29553,7 +30055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" ht="45" customHeight="1">
+    <row r="60" ht="45" customHeight="1" s="16">
       <c r="A60" s="7" t="inlineStr">
         <is>
           <t>Cremeweißer Ton, mit grüner, gelber und brauner Glasur betupft (sancai), transparent gelb glasiert (innen)</t>
@@ -29573,7 +30075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" ht="30" customHeight="1">
+    <row r="62" ht="30" customHeight="1" s="16">
       <c r="A62" s="7" t="inlineStr">
         <is>
           <t>Dunkel patiniertes Gelbmetall, Mittelöse, Dekor von Schriftzeichen und Blumen</t>
@@ -29613,7 +30115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" ht="30" customHeight="1">
+    <row r="66" ht="30" customHeight="1" s="16">
       <c r="A66" s="7" t="inlineStr">
         <is>
           <t>Dunkelgrauer Ton mit Ritzdekor auf dem Deckel</t>
@@ -29623,7 +30125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" ht="30" customHeight="1">
+    <row r="67" ht="30" customHeight="1" s="16">
       <c r="A67" s="7" t="inlineStr">
         <is>
           <t>Dunkelgrauer Ton, mit weißer Engobe überzogen, hell braungelb glasiert</t>
@@ -29633,7 +30135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" ht="45" customHeight="1">
+    <row r="68" ht="45" customHeight="1" s="16">
       <c r="A68" s="7" t="inlineStr">
         <is>
           <t>Dunkelgrauer Ton, weiße Engobe, transparent elfenbeinfarbend glasiert, feines Craquelé</t>
@@ -29653,7 +30155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" ht="30" customHeight="1">
+    <row r="70" ht="30" customHeight="1" s="16">
       <c r="A70" s="7" t="inlineStr">
         <is>
           <t>Dunkler Ton mit grauer Glasur und feinem Craquelé</t>
@@ -29673,7 +30175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" ht="30" customHeight="1">
+    <row r="72" ht="30" customHeight="1" s="16">
       <c r="A72" s="7" t="inlineStr">
         <is>
           <t>Elfenbeinfarbener Ton, weiße Engobe, gelblich glasiert</t>
@@ -29683,7 +30185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" ht="30" customHeight="1">
+    <row r="73" ht="30" customHeight="1" s="16">
       <c r="A73" s="7" t="inlineStr">
         <is>
           <t>Elfenbeinfarbener Ton, weiße Engobe, transparent grünlich glasiert</t>
@@ -29723,7 +30225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" ht="30" customHeight="1">
+    <row r="77" ht="30" customHeight="1" s="16">
       <c r="A77" s="7" t="inlineStr">
         <is>
           <t>Farbe auf Holz, chinesischem Blumendekor</t>
@@ -29773,7 +30275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" ht="30" customHeight="1">
+    <row r="82" ht="30" customHeight="1" s="16">
       <c r="A82" s="7" t="inlineStr">
         <is>
           <t>Fujina-Keramik, Steinzeug mit gelber Bleiglasur</t>
@@ -29783,7 +30285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" ht="30" customHeight="1">
+    <row r="83" ht="30" customHeight="1" s="16">
       <c r="A83" s="7" t="inlineStr">
         <is>
           <t>Fujina-Keramik, Steinzeug mit grüner Kupferglasur</t>
@@ -29793,7 +30295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" ht="45" customHeight="1">
+    <row r="84" ht="45" customHeight="1" s="16">
       <c r="A84" s="7" t="inlineStr">
         <is>
           <t>Fujina-Keramik, Steinzeug mit Reisstrohascheglasur über Eisenglasur und Wachsreservedekor</t>
@@ -29803,7 +30305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" ht="45" customHeight="1">
+    <row r="85" ht="45" customHeight="1" s="16">
       <c r="A85" s="7" t="inlineStr">
         <is>
           <t>Fujina-Keramik, Steinzeug mit Schlickerdekor aus gelber Bleiglasur auf schwarzbrauner Eisenglasur</t>
@@ -29823,7 +30325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" ht="30" customHeight="1">
+    <row r="87" ht="30" customHeight="1" s="16">
       <c r="A87" s="7" t="inlineStr">
         <is>
           <t>Gegossenes Porzellan mit Kobalt-Unterglasurdekor</t>
@@ -29843,7 +30345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" ht="30" customHeight="1">
+    <row r="89" ht="30" customHeight="1" s="16">
       <c r="A89" s="7" t="inlineStr">
         <is>
           <t>Gelbbrauner Ton, dichtgefleckt, dunkelbraun glasiert</t>
@@ -29853,7 +30355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" ht="45" customHeight="1">
+    <row r="90" ht="45" customHeight="1" s="16">
       <c r="A90" s="7" t="inlineStr">
         <is>
           <t>Gelbbrauner Ton, Engobelinien, transparent und opak schwarzbraun glasiert</t>
@@ -29873,7 +30375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" ht="45" customHeight="1">
+    <row r="92" ht="45" customHeight="1" s="16">
       <c r="A92" s="7" t="inlineStr">
         <is>
           <t>Gelbbrauner Ton, opak dunkelbraun glasiert, bläuliche bis cremefarbene Flecken</t>
@@ -29893,7 +30395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" ht="45" customHeight="1">
+    <row r="94" ht="45" customHeight="1" s="16">
       <c r="A94" s="7" t="inlineStr">
         <is>
           <t>Gelblich-beigefarbener Ton, opak schwarzbraun glasiert, echtes Blatt als Dekor</t>
@@ -29903,7 +30405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" ht="45" customHeight="1">
+    <row r="95" ht="45" customHeight="1" s="16">
       <c r="A95" s="7" t="inlineStr">
         <is>
           <t>Gelblich-beigefarbener Ton, opak schwarzbraun glasiert, Scherenschnittdekor</t>
@@ -29913,7 +30415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" ht="30" customHeight="1">
+    <row r="96" ht="30" customHeight="1" s="16">
       <c r="A96" s="7" t="inlineStr">
         <is>
           <t>Gelblich-graubraunes Protoporzellan, dunkelgrün glasiert</t>
@@ -29923,7 +30425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" ht="30" customHeight="1">
+    <row r="97" ht="30" customHeight="1" s="16">
       <c r="A97" s="7" t="inlineStr">
         <is>
           <t>Gelblich-rotbrauner Ton mit grau-blauer Glasur</t>
@@ -29933,7 +30435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" ht="30" customHeight="1">
+    <row r="98" ht="30" customHeight="1" s="16">
       <c r="A98" s="7" t="inlineStr">
         <is>
           <t>Gelbmetall mit Reliefdekor von Drachen, Klöppel</t>
@@ -30063,7 +30565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" ht="30" customHeight="1">
+    <row r="111" ht="30" customHeight="1" s="16">
       <c r="A111" s="7" t="inlineStr">
         <is>
           <t>Grau-brauner Ton, opak dunkelbraun glasiert, Sgrafittodekor</t>
@@ -30103,7 +30605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" ht="30" customHeight="1">
+    <row r="115" ht="30" customHeight="1" s="16">
       <c r="A115" s="7" t="inlineStr">
         <is>
           <t>Graubrauner Ton, opak graugrün glasiert, Craquelé</t>
@@ -30113,7 +30615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" ht="45" customHeight="1">
+    <row r="116" ht="45" customHeight="1" s="16">
       <c r="A116" s="7" t="inlineStr">
         <is>
           <t>Graubrauner Ton, teilweise mit Engobe und tranparenter Glasur bedeckt, Eisenbraunes Dekor, Unterglasurmalerei</t>
@@ -30123,7 +30625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" ht="30" customHeight="1">
+    <row r="117" ht="30" customHeight="1" s="16">
       <c r="A117" s="7" t="inlineStr">
         <is>
           <t>Graubrauner Ton, weiße Engobe, dunkel bernsteinfarbend glasiert</t>
@@ -30133,7 +30635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" ht="45" customHeight="1">
+    <row r="118" ht="45" customHeight="1" s="16">
       <c r="A118" s="7" t="inlineStr">
         <is>
           <t>Graubrauner Ton, weiße Engobe, gelbe, grüne Glasurtupfen (sancai), transparent gelblich glasiert</t>
@@ -30153,7 +30655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" ht="30" customHeight="1">
+    <row r="120" ht="30" customHeight="1" s="16">
       <c r="A120" s="7" t="inlineStr">
         <is>
           <t>Grauer Ton mit eingelegtem Dekor unter Seladonglasur</t>
@@ -30163,7 +30665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" ht="30" customHeight="1">
+    <row r="121" ht="30" customHeight="1" s="16">
       <c r="A121" s="7" t="inlineStr">
         <is>
           <t>Grauer Ton mit grüner Seladonglasur über eingelegtem Dekor</t>
@@ -30173,7 +30675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" ht="30" customHeight="1">
+    <row r="122" ht="30" customHeight="1" s="16">
       <c r="A122" s="7" t="inlineStr">
         <is>
           <t>Grauer Ton mit grünlich-sandfarbener Glasur</t>
@@ -30183,7 +30685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" ht="30" customHeight="1">
+    <row r="123" ht="30" customHeight="1" s="16">
       <c r="A123" s="7" t="inlineStr">
         <is>
           <t>Grauer Ton mit hellem Anguss und transparent-weißer Glasur</t>
@@ -30213,7 +30715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" ht="30" customHeight="1">
+    <row r="126" ht="30" customHeight="1" s="16">
       <c r="A126" s="7" t="inlineStr">
         <is>
           <t>Grauer Ton,  Engobe, tranparent olivgrün glasiert</t>
@@ -30243,7 +30745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" ht="30" customHeight="1">
+    <row r="129" ht="30" customHeight="1" s="16">
       <c r="A129" s="7" t="inlineStr">
         <is>
           <t>Grauer Ton, Dawenkou- oder Longshan-Kultur</t>
@@ -30263,7 +30765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" ht="30" customHeight="1">
+    <row r="131" ht="30" customHeight="1" s="16">
       <c r="A131" s="7" t="inlineStr">
         <is>
           <t>Grauer Ton, eingekerbtes Dekor, Majiayao-Kultur</t>
@@ -30363,7 +30865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" ht="30" customHeight="1">
+    <row r="141" ht="30" customHeight="1" s="16">
       <c r="A141" s="7" t="inlineStr">
         <is>
           <t>Grauer Ton, opak dunkelbraun glasiert (Teestaubglasur)</t>
@@ -30373,7 +30875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" ht="45" customHeight="1">
+    <row r="142" ht="45" customHeight="1" s="16">
       <c r="A142" s="7" t="inlineStr">
         <is>
           <t>Grauer Ton, opak glänzend schwarz glasiert, weißblaue, phosphathaltige Glasurflecken</t>
@@ -30403,7 +30905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" ht="30" customHeight="1">
+    <row r="145" ht="30" customHeight="1" s="16">
       <c r="A145" s="7" t="inlineStr">
         <is>
           <t>Grauer Ton, schwarz glasiert, rostbraune Flecken</t>
@@ -30423,7 +30925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" ht="30" customHeight="1">
+    <row r="147" ht="30" customHeight="1" s="16">
       <c r="A147" s="7" t="inlineStr">
         <is>
           <t>Grauer Ton, weiße Engobe, braungelb glasiert</t>
@@ -30433,7 +30935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" ht="30" customHeight="1">
+    <row r="148" ht="30" customHeight="1" s="16">
       <c r="A148" s="7" t="inlineStr">
         <is>
           <t>Grauer Ton, weiße Engobe, olivbraun glasiert</t>
@@ -30443,7 +30945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" ht="30" customHeight="1">
+    <row r="149" ht="30" customHeight="1" s="16">
       <c r="A149" s="7" t="inlineStr">
         <is>
           <t>Grauer Ton, weiße Engobe, teilweise schwarzbraun glasiert</t>
@@ -30453,7 +30955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" ht="30" customHeight="1">
+    <row r="150" ht="30" customHeight="1" s="16">
       <c r="A150" s="7" t="inlineStr">
         <is>
           <t>Grauer Ton, weiße Engobe, transparent gelblich glasiert</t>
@@ -30463,7 +30965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" ht="30" customHeight="1">
+    <row r="151" ht="30" customHeight="1" s="16">
       <c r="A151" s="7" t="inlineStr">
         <is>
           <t>Grauer Ton, weiße Engobe, transparent glasiert</t>
@@ -30473,7 +30975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" ht="30" customHeight="1">
+    <row r="152" ht="30" customHeight="1" s="16">
       <c r="A152" s="7" t="inlineStr">
         <is>
           <t>Grauer Ton, weiße Engobe, transparent glasiert, Sgraffitodekor</t>
@@ -30483,7 +30985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" ht="30" customHeight="1">
+    <row r="153" ht="30" customHeight="1" s="16">
       <c r="A153" s="7" t="inlineStr">
         <is>
           <t>Grauer Ton, weiße Engobe, transparent opak glasiert, Sgraffitodekor</t>
@@ -30543,7 +31045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" ht="30" customHeight="1">
+    <row r="159" ht="30" customHeight="1" s="16">
       <c r="A159" s="7" t="inlineStr">
         <is>
           <t>Graues Steinzeug mit gesprüngelter (gelblich-) grüner Transparentglasur</t>
@@ -30563,7 +31065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" ht="30" customHeight="1">
+    <row r="161" ht="30" customHeight="1" s="16">
       <c r="A161" s="7" t="inlineStr">
         <is>
           <t>Grauweißer Ton, elfenbeinfarbend glasiert</t>
@@ -30573,7 +31075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" ht="30" customHeight="1">
+    <row r="162" ht="30" customHeight="1" s="16">
       <c r="A162" s="7" t="inlineStr">
         <is>
           <t>Grauweißer Ton, Seladonglasur, braunschwarze Eisenflecken</t>
@@ -30583,7 +31085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" ht="30" customHeight="1">
+    <row r="163" ht="30" customHeight="1" s="16">
       <c r="A163" s="7" t="inlineStr">
         <is>
           <t>Grauweißer Ton, weiße Engobe, transparent blassgrün glasiert</t>
@@ -30593,7 +31095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" ht="45" customHeight="1">
+    <row r="164" ht="45" customHeight="1" s="16">
       <c r="A164" s="7" t="inlineStr">
         <is>
           <t>Grobkörniger Ton, Engobe, elfenbeinfarbend glasiert, Eisenbraunes Dekor, Unterglasurmalerei</t>
@@ -30663,7 +31165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" ht="30" customHeight="1">
+    <row r="171" ht="30" customHeight="1" s="16">
       <c r="A171" s="7" t="inlineStr">
         <is>
           <t>Hachiman-Keramik, Steinzeug mit Reisstrohascheglasur über Eisenglasur</t>
@@ -30673,7 +31175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" ht="45" customHeight="1">
+    <row r="172" ht="45" customHeight="1" s="16">
       <c r="A172" s="7" t="inlineStr">
         <is>
           <t>Hagi-Keramik, Eisenhaltiges Steinzeug mit Kerben-Dekor und grau-rosa gefärbter Holzascheglasur</t>
@@ -30683,7 +31185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" ht="30" customHeight="1">
+    <row r="173" ht="30" customHeight="1" s="16">
       <c r="A173" s="7" t="inlineStr">
         <is>
           <t>Hagi-Keramik, Steinzeug mit weißer Hagi-Glasur</t>
@@ -30713,7 +31215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" ht="45" customHeight="1">
+    <row r="176" ht="45" customHeight="1" s="16">
       <c r="A176" s="7" t="inlineStr">
         <is>
           <t>Hasami-Keramik, Porzellan mit Kobalt-Unterglasur und gedrucktem Dekor in Blau und Rot im Stil der Jingdezhen-Öfen</t>
@@ -30723,7 +31225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" ht="60" customHeight="1">
+    <row r="177" ht="60" customHeight="1" s="16">
       <c r="A177" s="7" t="inlineStr">
         <is>
           <t>Hasami-Keramik, Porzellan mit Netzmuster, außen in roter Aufglasurfarbe und innen in Kobalt-Unterglasur</t>
@@ -30733,7 +31235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" ht="45" customHeight="1">
+    <row r="178" ht="45" customHeight="1" s="16">
       <c r="A178" s="7" t="inlineStr">
         <is>
           <t>Hasami-Keramik, Porzellan, außen mit roter Glasur und innen Landschafts-Dekor in Kobalt-Unterglasur</t>
@@ -30743,7 +31245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" ht="45" customHeight="1">
+    <row r="179" ht="45" customHeight="1" s="16">
       <c r="A179" s="7" t="inlineStr">
         <is>
           <t>Hashima-Keramik, Steinzeug mit olivgrüner Eisenglasur und Wachsreserveglasur</t>
@@ -30753,7 +31255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" ht="30" customHeight="1">
+    <row r="180" ht="30" customHeight="1" s="16">
       <c r="A180" s="7" t="inlineStr">
         <is>
           <t>Hellbrauner feinkörniger Ton, teilweise olivgrün glasiert</t>
@@ -30763,7 +31265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" ht="30" customHeight="1">
+    <row r="181" ht="30" customHeight="1" s="16">
       <c r="A181" s="7" t="inlineStr">
         <is>
           <t>Hellbrauner Protoporzellan, dünn olivgrün glasiert</t>
@@ -30773,7 +31275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" ht="30" customHeight="1">
+    <row r="182" ht="30" customHeight="1" s="16">
       <c r="A182" s="7" t="inlineStr">
         <is>
           <t>Hellbrauner Ton mit schwarzer Glasur und brauner Bemalung</t>
@@ -30793,7 +31295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" ht="30" customHeight="1">
+    <row r="184" ht="30" customHeight="1" s="16">
       <c r="A184" s="7" t="inlineStr">
         <is>
           <t>Hellbrauner Ton, opak braun glasiert, Sgrafittodekor</t>
@@ -30803,7 +31305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" ht="30" customHeight="1">
+    <row r="185" ht="30" customHeight="1" s="16">
       <c r="A185" s="7" t="inlineStr">
         <is>
           <t>Hellbraunes Protoporzellan, olivgrün glasiert</t>
@@ -30813,7 +31315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" ht="30" customHeight="1">
+    <row r="186" ht="30" customHeight="1" s="16">
       <c r="A186" s="7" t="inlineStr">
         <is>
           <t>Heller gelbrauner Ton, bernsteinfarbend glasiert, grüne Glasurtupfen (sancai)</t>
@@ -30823,7 +31325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" ht="45" customHeight="1">
+    <row r="187" ht="45" customHeight="1" s="16">
       <c r="A187" s="7" t="inlineStr">
         <is>
           <t>Heller rötlicher Ton, weißer Anguss, cremeweiße, honiggelbe und hellgrüne Glasur</t>
@@ -30833,7 +31335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" ht="30" customHeight="1">
+    <row r="188" ht="30" customHeight="1" s="16">
       <c r="A188" s="7" t="inlineStr">
         <is>
           <t>Heller steinfarbener Ton, helle  Engobe, honiggelb glasiert</t>
@@ -30853,7 +31355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" ht="30" customHeight="1">
+    <row r="190" ht="30" customHeight="1" s="16">
       <c r="A190" s="7" t="inlineStr">
         <is>
           <t>Heller Ton mit transparenter sandfarbener Glasur</t>
@@ -30863,7 +31365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" ht="30" customHeight="1">
+    <row r="191" ht="30" customHeight="1" s="16">
       <c r="A191" s="7" t="inlineStr">
         <is>
           <t>Heller Ton mit weißlich-grauer Glasur und Verfärbungen</t>
@@ -30873,7 +31375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" ht="30" customHeight="1">
+    <row r="192" ht="30" customHeight="1" s="16">
       <c r="A192" s="7" t="inlineStr">
         <is>
           <t>Heller Ton, grüne Glasur mit feiner Krakelierung</t>
@@ -30883,7 +31385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" ht="30" customHeight="1">
+    <row r="193" ht="30" customHeight="1" s="16">
       <c r="A193" s="7" t="inlineStr">
         <is>
           <t>Heller, sandfarbener Ton mit hellem Anguss und braun-schwarzer Glasur</t>
@@ -30893,7 +31395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" ht="45" customHeight="1">
+    <row r="194" ht="45" customHeight="1" s="16">
       <c r="A194" s="7" t="inlineStr">
         <is>
           <t>Helles Steinzeug mit bläulich-cremefarbener Glasur und bräunlichen Verfärbungen</t>
@@ -30903,7 +31405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" ht="30" customHeight="1">
+    <row r="195" ht="30" customHeight="1" s="16">
       <c r="A195" s="7" t="inlineStr">
         <is>
           <t>Hellgelber Ton, weiße Engobe, gelblich glasiert</t>
@@ -30933,7 +31435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" ht="30" customHeight="1">
+    <row r="198" ht="30" customHeight="1" s="16">
       <c r="A198" s="7" t="inlineStr">
         <is>
           <t>Hellgrauer Ton, durchscheinend gelbgrün glasiert</t>
@@ -30983,7 +31485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" ht="30" customHeight="1">
+    <row r="203" ht="30" customHeight="1" s="16">
       <c r="A203" s="7" t="inlineStr">
         <is>
           <t>Hellgrauer Ton, opak dunkelbraun glasiert (Teestaubglasur)</t>
@@ -30993,7 +31495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" ht="30" customHeight="1">
+    <row r="204" ht="30" customHeight="1" s="16">
       <c r="A204" s="7" t="inlineStr">
         <is>
           <t>Hellgrauer Ton, transparent blaugrün glasiert</t>
@@ -31003,7 +31505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" ht="30" customHeight="1">
+    <row r="205" ht="30" customHeight="1" s="16">
       <c r="A205" s="7" t="inlineStr">
         <is>
           <t>Hellgrauer Ton, wässrig-grün glasiert, Craquelé</t>
@@ -31173,7 +31675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" ht="30" customHeight="1">
+    <row r="222" ht="30" customHeight="1" s="16">
       <c r="A222" s="7" t="inlineStr">
         <is>
           <t>Holz, geschnitzt, mit Spuren von Bemalung</t>
@@ -31203,7 +31705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" ht="30" customHeight="1">
+    <row r="225" ht="30" customHeight="1" s="16">
       <c r="A225" s="7" t="inlineStr">
         <is>
           <t>Holzkasten mit Schiebedeckel und Knochen</t>
@@ -31223,7 +31725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" ht="30" customHeight="1">
+    <row r="227" ht="30" customHeight="1" s="16">
       <c r="A227" s="7" t="inlineStr">
         <is>
           <t>Iga-Ware, Steinzeug mit natürlicher Ascheanflugglasur</t>
@@ -31233,7 +31735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" ht="30" customHeight="1">
+    <row r="228" ht="30" customHeight="1" s="16">
       <c r="A228" s="7" t="inlineStr">
         <is>
           <t>Imari-Keramik, Porzellan mit Dekor in Kobalt-Unterglasur</t>
@@ -31243,7 +31745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" ht="45" customHeight="1">
+    <row r="229" ht="45" customHeight="1" s="16">
       <c r="A229" s="7" t="inlineStr">
         <is>
           <t>Imari-Ware, Porzellan, bemalt, Unterglasurblau, Aufglasurfarben Eisenrot und Gold</t>
@@ -31253,7 +31755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" ht="30" customHeight="1">
+    <row r="230" ht="30" customHeight="1" s="16">
       <c r="A230" s="7" t="inlineStr">
         <is>
           <t>Izushi-Keramik, Porzellan mit Wischdekor in Kobalt-Unterglasur</t>
@@ -31263,7 +31765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" ht="30" customHeight="1">
+    <row r="231" ht="30" customHeight="1" s="16">
       <c r="A231" s="7" t="inlineStr">
         <is>
           <t>Karatsu-Keramik, Steinzeug mit Eisen-Unterglasurdekor</t>
@@ -31273,7 +31775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" ht="45" customHeight="1">
+    <row r="232" ht="45" customHeight="1" s="16">
       <c r="A232" s="7" t="inlineStr">
         <is>
           <t>Karatsu-Keramik, Steinzeug mit gestempeltem Blüten-Dekor in weißer Toneinlage unter transparenter Glasur</t>
@@ -31283,7 +31785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" ht="60" customHeight="1">
+    <row r="233" ht="60" customHeight="1" s="16">
       <c r="A233" s="7" t="inlineStr">
         <is>
           <t>Karatsu-Keramik, Steinzeug mit getauchtem Engobendekor, eingeritztem Muster und floralem Dekor mit Kobalt-Unterglasur</t>
@@ -31293,7 +31795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" ht="30" customHeight="1">
+    <row r="234" ht="30" customHeight="1" s="16">
       <c r="A234" s="7" t="inlineStr">
         <is>
           <t>Karatsu-Keramik, Steinzeug mit Gräser-Dekor in Eisen-Unterglasur</t>
@@ -31303,7 +31805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" ht="45" customHeight="1">
+    <row r="235" ht="45" customHeight="1" s="16">
       <c r="A235" s="7" t="inlineStr">
         <is>
           <t>Karatsu-Keramik, Steinzeug mit Trauben-Dekor in Eisen-Unterglasur unter getauchtem Engobendekor</t>
@@ -31313,7 +31815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" ht="45" customHeight="1">
+    <row r="236" ht="45" customHeight="1" s="16">
       <c r="A236" s="7" t="inlineStr">
         <is>
           <t>Kasama-Keramik, Steinzeug mit Ascheglasur über Kupfer- und Eisen-Unterglasurdekor</t>
@@ -31323,7 +31825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" ht="45" customHeight="1">
+    <row r="237" ht="45" customHeight="1" s="16">
       <c r="A237" s="7" t="inlineStr">
         <is>
           <t>Kasama-Keramik, Steinzeug mit grüner Kupferglasur und Eisenoxiddekor auf weißer Engobe</t>
@@ -31333,7 +31835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" ht="30" customHeight="1">
+    <row r="238" ht="30" customHeight="1" s="16">
       <c r="A238" s="7" t="inlineStr">
         <is>
           <t>Kasama-Keramik, Steinzeug mit Holzascheglasur über Eisenglasur</t>
@@ -31343,7 +31845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" ht="45" customHeight="1">
+    <row r="239" ht="45" customHeight="1" s="16">
       <c r="A239" s="7" t="inlineStr">
         <is>
           <t>Kasama-Keramik, unglasiertes und poliertes Steinzeug aus marmoriertem Ton</t>
@@ -31363,7 +31865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" ht="30" customHeight="1">
+    <row r="241" ht="30" customHeight="1" s="16">
       <c r="A241" s="7" t="inlineStr">
         <is>
           <t>Kiyomizu-Keramik, Porzellan mit Drehrillen und Seladonglasur</t>
@@ -31373,7 +31875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" ht="60" customHeight="1">
+    <row r="242" ht="60" customHeight="1" s="16">
       <c r="A242" s="7" t="inlineStr">
         <is>
           <t>Kiyomizu-Keramik, Porzellan mit floralem Dekor in Kobalt-Unterglasur und polychromen Aufglasurfarben im Stil der Kôchi-Keramik</t>
@@ -31383,7 +31885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" ht="45" customHeight="1">
+    <row r="243" ht="45" customHeight="1" s="16">
       <c r="A243" s="7" t="inlineStr">
         <is>
           <t>Kiyomizu-Keramik, Porzellan mit Kobaltglasur und Kirschblüten-Dekor in Kobalt-Unterglasur</t>
@@ -31393,7 +31895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" ht="30" customHeight="1">
+    <row r="244" ht="30" customHeight="1" s="16">
       <c r="A244" s="7" t="inlineStr">
         <is>
           <t>Kiyomizu-Keramik, Porzellan mit Landschafts-Dekor in Kobalt-Unterglasur</t>
@@ -31403,7 +31905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" ht="30" customHeight="1">
+    <row r="245" ht="30" customHeight="1" s="16">
       <c r="A245" s="7" t="inlineStr">
         <is>
           <t>Kiyomizu-Keramik, Porzellan mit linearem Dekor in Kobalt-Unterglasur</t>
@@ -31413,7 +31915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" ht="30" customHeight="1">
+    <row r="246" ht="30" customHeight="1" s="16">
       <c r="A246" s="7" t="inlineStr">
         <is>
           <t>Kiyomizu-Keramik, Steinzeug mit gelbgrüner Seladonglasur</t>
@@ -31423,7 +31925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" ht="45" customHeight="1">
+    <row r="247" ht="45" customHeight="1" s="16">
       <c r="A247" s="7" t="inlineStr">
         <is>
           <t>Kiyomizu-Keramik, Steinzeug mit Ritz- und gestempeltem Blüten-Dekor in weißer Toneinlage unter Seladonglasur</t>
@@ -31433,7 +31935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" ht="30" customHeight="1">
+    <row r="248" ht="30" customHeight="1" s="16">
       <c r="A248" s="7" t="inlineStr">
         <is>
           <t>Kiyomizu-Keramik, Weißes Porzellan mit floralem Dekor in Kobalt-Unterglasur</t>
@@ -31443,7 +31945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" ht="45" customHeight="1">
+    <row r="249" ht="45" customHeight="1" s="16">
       <c r="A249" s="7" t="inlineStr">
         <is>
           <t>Koishiwara-Keramik, Steinzeug mit Seladonglasur über dunkler Eisenglasur und ausgespartem Ahornblatt- Dekor</t>
@@ -31453,7 +31955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" ht="45" customHeight="1">
+    <row r="250" ht="45" customHeight="1" s="16">
       <c r="A250" s="7" t="inlineStr">
         <is>
           <t>Koishiwara-Keramik, Steinzeug mit weißer Ascheglasur und floralem Dekor in Sgraffito und Aufglasurfarben</t>
@@ -31463,7 +31965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" ht="30" customHeight="1">
+    <row r="251" ht="30" customHeight="1" s="16">
       <c r="A251" s="7" t="inlineStr">
         <is>
           <t>Koito-Keramik, Steinzeug mit kobaltblauer Irabo-Glasur</t>
@@ -31473,7 +31975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" ht="60" customHeight="1">
+    <row r="252" ht="60" customHeight="1" s="16">
       <c r="A252" s="7" t="inlineStr">
         <is>
           <t>Kutani-Keramik, Porzellan mit Dekor von "Einhundert Gedichten von einhundert Dichtern" in polychromen Aufglasurfarben im Brokatstil mit Gold</t>
@@ -31483,7 +31985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" ht="45" customHeight="1">
+    <row r="253" ht="45" customHeight="1" s="16">
       <c r="A253" s="7" t="inlineStr">
         <is>
           <t>Kutani-Keramik, Porzellan mit polychromen Aufglasurfarben im Brokatstil mit Gold</t>
@@ -31493,7 +31995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" ht="45" customHeight="1">
+    <row r="254" ht="45" customHeight="1" s="16">
       <c r="A254" s="7" t="inlineStr">
         <is>
           <t>Kutani-Keramik, Steinzeug mit Eisenglasur und Medaillon in polychromen Aufglasurfarben</t>
@@ -31503,7 +32005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" ht="45" customHeight="1">
+    <row r="255" ht="45" customHeight="1" s="16">
       <c r="A255" s="7" t="inlineStr">
         <is>
           <t>Kutani-Keramik, Steinzeug mit Ölfleck-Tenmoku-Glasur und Bambus-Dekor in grüner Aufglasurfarbe und Golddekor</t>
@@ -31513,7 +32015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" ht="45" customHeight="1">
+    <row r="256" ht="45" customHeight="1" s="16">
       <c r="A256" s="7" t="inlineStr">
         <is>
           <t>Kyôto-Keramik mit Kiyomizu, Steinzeug mit dreifarbiger Glasur in Weiß, Grün und Braun</t>
@@ -31523,7 +32025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" ht="45" customHeight="1">
+    <row r="257" ht="45" customHeight="1" s="16">
       <c r="A257" s="7" t="inlineStr">
         <is>
           <t>Kyôto-Keramik mit Kiyomizu, Steinzeug mit grauer Feldspatglasur und Blatt-Dekor in Aufglasurfarben mit Golddekor</t>
@@ -31533,7 +32035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" ht="30" customHeight="1">
+    <row r="258" ht="30" customHeight="1" s="16">
       <c r="A258" s="7" t="inlineStr">
         <is>
           <t>Kyôto-Keramik mit Kiyomizu, Steinzeug mit Seladonglasur</t>
@@ -31543,7 +32045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" ht="30" customHeight="1">
+    <row r="259" ht="30" customHeight="1" s="16">
       <c r="A259" s="7" t="inlineStr">
         <is>
           <t>Kyôto-Keramik mit Kiyomizu, Steinzeug mit Stoffabdruck und grüner Kristallglasur</t>
@@ -31553,7 +32055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" ht="45" customHeight="1">
+    <row r="260" ht="45" customHeight="1" s="16">
       <c r="A260" s="7" t="inlineStr">
         <is>
           <t>Kyôto-Keramik mit Kiyomizu, Unglasiertes Steinzeug mit Dekor von Kirschblüten und Ahornblättern in Aufglasurfarben</t>
@@ -31563,7 +32065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" ht="45" customHeight="1">
+    <row r="261" ht="45" customHeight="1" s="16">
       <c r="A261" s="7" t="inlineStr">
         <is>
           <t>Kyôto-Keramik, Porzellan mit Dekor in Kobalt-Unterglasur im Stil der Blauweiß-Keramik der Jingdezhen-Öfen</t>
@@ -31573,7 +32075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" ht="30" customHeight="1">
+    <row r="262" ht="30" customHeight="1" s="16">
       <c r="A262" s="7" t="inlineStr">
         <is>
           <t>Kyôto-Keramik, Steinzeug mit blauer Ölfleck-Temmoku-Glasur</t>
@@ -31583,7 +32085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" ht="30" customHeight="1">
+    <row r="263" ht="30" customHeight="1" s="16">
       <c r="A263" s="7" t="inlineStr">
         <is>
           <t>Kyôto-Keramik, Steinzeug mit Hasenfell-Temmoku-Glasur</t>
@@ -31593,7 +32095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" ht="30" customHeight="1">
+    <row r="264" ht="30" customHeight="1" s="16">
       <c r="A264" s="7" t="inlineStr">
         <is>
           <t>Lederfarbender Ton, dünner heller Anguss, grün-silbrige Glasur</t>
@@ -31603,7 +32105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" ht="30" customHeight="1">
+    <row r="265" ht="30" customHeight="1" s="16">
       <c r="A265" s="7" t="inlineStr">
         <is>
           <t>Lederfarbener Ton, opak dunkelbraun glasiert (Teestaubglasur)</t>
@@ -31623,7 +32125,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="267" ht="45" customHeight="1">
+    <row r="267" ht="45" customHeight="1" s="16">
       <c r="A267" s="7" t="inlineStr">
         <is>
           <t>Lehm  mit Resten einer rötlichen Tonschicht, ursprünglich vermutlich bemalt</t>
@@ -31793,7 +32295,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="284" ht="30" customHeight="1">
+    <row r="284" ht="30" customHeight="1" s="16">
       <c r="A284" s="7" t="inlineStr">
         <is>
           <t>Lehm, mit Resten von Malschicht und Vergoldung</t>
@@ -31823,7 +32325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" ht="30" customHeight="1">
+    <row r="287" ht="30" customHeight="1" s="16">
       <c r="A287" s="7" t="inlineStr">
         <is>
           <t>Lehm, mit Spuren von Bemalung und Vergoldung (im Haarkranz)</t>
@@ -31883,7 +32385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" ht="30" customHeight="1">
+    <row r="293" ht="30" customHeight="1" s="16">
       <c r="A293" s="7" t="inlineStr">
         <is>
           <t>Longquan-Ware, Steinzeug mit Seladonglasur</t>
@@ -31913,7 +32415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" ht="45" customHeight="1">
+    <row r="296" ht="45" customHeight="1" s="16">
       <c r="A296" s="7" t="inlineStr">
         <is>
           <t>Mashiko-Keramik, Steinzeug mit Ascheglasur und linearem Dekor in Eisenglasur</t>
@@ -31923,7 +32425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" ht="30" customHeight="1">
+    <row r="297" ht="30" customHeight="1" s="16">
       <c r="A297" s="7" t="inlineStr">
         <is>
           <t>Mashiko-Keramik, Steinzeug mit Ascheglasur und Rillendekor</t>
@@ -31933,7 +32435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" ht="30" customHeight="1">
+    <row r="298" ht="30" customHeight="1" s="16">
       <c r="A298" s="7" t="inlineStr">
         <is>
           <t>Mashiko-Keramik, Steinzeug mit grünlicher Ascheglasur und Kamm-Dekor</t>
@@ -31943,7 +32445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" ht="30" customHeight="1">
+    <row r="299" ht="30" customHeight="1" s="16">
       <c r="A299" s="7" t="inlineStr">
         <is>
           <t>Mashiko-Keramik, Steinzeug mit Kaki-Glasur und Wachsreservedekor</t>
@@ -31953,7 +32455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" ht="45" customHeight="1">
+    <row r="300" ht="45" customHeight="1" s="16">
       <c r="A300" s="7" t="inlineStr">
         <is>
           <t>Mashiko-Keramik, Steinzeug mit Landschafts-Dekor in Eisen-Unterglasur auf weißer Engobe</t>
@@ -31963,7 +32465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" ht="30" customHeight="1">
+    <row r="301" ht="30" customHeight="1" s="16">
       <c r="A301" s="7" t="inlineStr">
         <is>
           <t>Mashiko-Keramik, Steinzeug mit linearem Dekor in Asche- und Eisenglasur</t>
@@ -31973,7 +32475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" ht="45" customHeight="1">
+    <row r="302" ht="45" customHeight="1" s="16">
       <c r="A302" s="7" t="inlineStr">
         <is>
           <t>Mashiko-Keramik, Steinzeug mit Stoffabdruck, dunkler Engobe und abstraktem Dekor in Aufglasurfarben</t>
@@ -31983,7 +32485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" ht="45" customHeight="1">
+    <row r="303" ht="45" customHeight="1" s="16">
       <c r="A303" s="7" t="inlineStr">
         <is>
           <t>Mashiko-Keramik, Steinzeug mit vegetabilem Dekor in Unterglasur-Eisenrot</t>
@@ -31993,7 +32495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" ht="45" customHeight="1">
+    <row r="304" ht="45" customHeight="1" s="16">
       <c r="A304" s="7" t="inlineStr">
         <is>
           <t>Mashiko-Keramik, Steinzeug mit weißen Pinselstreifen, Zuckerrohrdekor und hellgrauer Glasur in Unterglasur-Eisenrot</t>
@@ -32003,7 +32505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" ht="30" customHeight="1">
+    <row r="305" ht="30" customHeight="1" s="16">
       <c r="A305" s="7" t="inlineStr">
         <is>
           <t>Mashiko-Keramik, Steinzeug mit weißer Ascheglasur</t>
@@ -32013,7 +32515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" ht="30" customHeight="1">
+    <row r="306" ht="30" customHeight="1" s="16">
       <c r="A306" s="7" t="inlineStr">
         <is>
           <t>Mashiko-Keramik, Steinzeug mit weißer Ascheglasur mit Eisen-Flecken</t>
@@ -32023,7 +32525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" ht="45" customHeight="1">
+    <row r="307" ht="45" customHeight="1" s="16">
       <c r="A307" s="7" t="inlineStr">
         <is>
           <t>Mashiko-Keramik, Steinzeug mit weißer Ascheglasur und Dekor in Eisen- und Kobalt-Unterglasur</t>
@@ -32033,7 +32535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" ht="30" customHeight="1">
+    <row r="308" ht="30" customHeight="1" s="16">
       <c r="A308" s="7" t="inlineStr">
         <is>
           <t>Mashiko-Keramik, Steinzeug mit weißer Ascheglasur über Eisenglasur</t>
@@ -32043,7 +32545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" ht="45" customHeight="1">
+    <row r="309" ht="45" customHeight="1" s="16">
       <c r="A309" s="7" t="inlineStr">
         <is>
           <t>Mashiko-Keramik, Steinzeug mit weißer Ascheglasur, Stoffabdruck und abstraktem Dekor in Aufglasurfarben</t>
@@ -32073,7 +32575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" ht="30" customHeight="1">
+    <row r="312" ht="30" customHeight="1" s="16">
       <c r="A312" s="7" t="inlineStr">
         <is>
           <t>Mingei-Keramik, Steinzeug mit weißem Anguss unter bläulicher Glasur</t>
@@ -32083,7 +32585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" ht="30" customHeight="1">
+    <row r="313" ht="30" customHeight="1" s="16">
       <c r="A313" s="7" t="inlineStr">
         <is>
           <t>Mino-Keramik, Steinzeug mit Eisen-Unterglasurdekor und Shino-Glasur</t>
@@ -32093,7 +32595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" ht="30" customHeight="1">
+    <row r="314" ht="30" customHeight="1" s="16">
       <c r="A314" s="7" t="inlineStr">
         <is>
           <t>Mino-Keramik, Steinzeug mit linearem Dekor in Eisen- und Kobalt-Unterglasur</t>
@@ -32103,7 +32605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" ht="60" customHeight="1">
+    <row r="315" ht="60" customHeight="1" s="16">
       <c r="A315" s="7" t="inlineStr">
         <is>
           <t>Mino-Keramik, Steinzeug mit rotem und weißem Pflaumenblüten-Dekor in Eisen-Unterglasur und Aufglasurfarben über weißer Engobe</t>
@@ -32113,7 +32615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" ht="30" customHeight="1">
+    <row r="316" ht="30" customHeight="1" s="16">
       <c r="A316" s="7" t="inlineStr">
         <is>
           <t>Miyajima-Keramik, Steinzeug mit facettiertem Dekor und Holzascheglasur</t>
@@ -32123,7 +32625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" ht="30" customHeight="1">
+    <row r="317" ht="30" customHeight="1" s="16">
       <c r="A317" s="7" t="inlineStr">
         <is>
           <t>Mizunodaira-Keramik, Steinzeug mit Reisstrohascheglasur über Eisenglasur</t>
@@ -32133,7 +32635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" ht="30" customHeight="1">
+    <row r="318" ht="30" customHeight="1" s="16">
       <c r="A318" s="7" t="inlineStr">
         <is>
           <t>Mumyôi-Keramik, unglasiertes Steinzeug mit Blumenmuster aus marmoriertem Ton</t>
@@ -32143,7 +32645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" ht="30" customHeight="1">
+    <row r="319" ht="30" customHeight="1" s="16">
       <c r="A319" s="7" t="inlineStr">
         <is>
           <t>Mumyôi-Keramik, unglasiertes Steinzeug, polierte Shudei-Ware mit Brandeffekten</t>
@@ -32153,7 +32655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" ht="45" customHeight="1">
+    <row r="320" ht="45" customHeight="1" s="16">
       <c r="A320" s="7" t="inlineStr">
         <is>
           <t>Mumyôi-Keramik, unglasiertes Steinzeug, polierte Shudei-Ware mit Landschafts-Dekor in Kobalt-Unterglasur</t>
@@ -32163,7 +32665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" ht="45" customHeight="1">
+    <row r="321" ht="45" customHeight="1" s="16">
       <c r="A321" s="7" t="inlineStr">
         <is>
           <t>Mushiake-Keramik, Steinzeug mit Ascheglasur und floralem Dekor in Kobalt-Unterglasur</t>
@@ -32183,7 +32685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" ht="45" customHeight="1">
+    <row r="323" ht="45" customHeight="1" s="16">
       <c r="A323" s="7" t="inlineStr">
         <is>
           <t>Onta-Keramik, Steinzeug mit brauner Eisenglasur und gegossener Resisstrohascheglasur</t>
@@ -32193,7 +32695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" ht="45" customHeight="1">
+    <row r="324" ht="45" customHeight="1" s="16">
       <c r="A324" s="7" t="inlineStr">
         <is>
           <t>Onta-Keramik, Steinzeug mit brauner Eisenglasur über getropftem weißen Glasurdekor</t>
@@ -32203,7 +32705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" ht="45" customHeight="1">
+    <row r="325" ht="45" customHeight="1" s="16">
       <c r="A325" s="7" t="inlineStr">
         <is>
           <t>Onta-Keramik, Steinzeug mit engobiertem Scheppermarken-Dekor unter Seladonglasur</t>
@@ -32263,7 +32765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" ht="30" customHeight="1">
+    <row r="331" ht="30" customHeight="1" s="16">
       <c r="A331" s="7" t="inlineStr">
         <is>
           <t>Porzellan mit Blatt-Dekor in Kobalt-Unterglasur</t>
@@ -32293,7 +32795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" ht="30" customHeight="1">
+    <row r="334" ht="30" customHeight="1" s="16">
       <c r="A334" s="7" t="inlineStr">
         <is>
           <t>Porzellan mit blauer Unterglasur-Bemalung</t>
@@ -32303,7 +32805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="335" ht="30" customHeight="1">
+    <row r="335" ht="30" customHeight="1" s="16">
       <c r="A335" s="7" t="inlineStr">
         <is>
           <t>Porzellan mit bläulichweißer Glasur (qingbai)</t>
@@ -32313,7 +32815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" ht="30" customHeight="1">
+    <row r="336" ht="30" customHeight="1" s="16">
       <c r="A336" s="7" t="inlineStr">
         <is>
           <t>Porzellan mit Dekor in Unterglasur-Blau und Eisenrot</t>
@@ -32333,7 +32835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" ht="60" customHeight="1">
+    <row r="338" ht="60" customHeight="1" s="16">
       <c r="A338" s="7" t="inlineStr">
         <is>
           <t>Porzellan mit engobiertem Scheppermarken-Dekor und aufgesetztem Porzellan-Dekorband in Kobalt-Unterglasur</t>
@@ -32353,7 +32855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" ht="30" customHeight="1">
+    <row r="340" ht="30" customHeight="1" s="16">
       <c r="A340" s="7" t="inlineStr">
         <is>
           <t>Porzellan mit gelber Glasur, Eisenrot und brauner Binnenzeichnung</t>
@@ -32383,7 +32885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" ht="30" customHeight="1">
+    <row r="343" ht="30" customHeight="1" s="16">
       <c r="A343" s="7" t="inlineStr">
         <is>
           <t>Porzellan mit grau-weißer Glasur und blauer Unterglasurmalerei</t>
@@ -32393,7 +32895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" ht="30" customHeight="1">
+    <row r="344" ht="30" customHeight="1" s="16">
       <c r="A344" s="7" t="inlineStr">
         <is>
           <t>Porzellan mit matter grau-blauer Unterglasurmalerei und weißer Glasur</t>
@@ -32413,7 +32915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" ht="30" customHeight="1">
+    <row r="346" ht="30" customHeight="1" s="16">
       <c r="A346" s="7" t="inlineStr">
         <is>
           <t>Porzellan mit puderblauer Glasur und Dekor in Gold</t>
@@ -32443,7 +32945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" ht="30" customHeight="1">
+    <row r="349" ht="30" customHeight="1" s="16">
       <c r="A349" s="7" t="inlineStr">
         <is>
           <t>Porzellan mit Schmelzfarben der famille rose</t>
@@ -32453,7 +32955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" ht="30" customHeight="1">
+    <row r="350" ht="30" customHeight="1" s="16">
       <c r="A350" s="7" t="inlineStr">
         <is>
           <t>Porzellan mit Schmelzfarben der famille verte, Eisenrot, schwarzer Farbe und Gold</t>
@@ -32463,7 +32965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" ht="30" customHeight="1">
+    <row r="351" ht="30" customHeight="1" s="16">
       <c r="A351" s="7" t="inlineStr">
         <is>
           <t>Porzellan mit Schmelzfarben, Eisenrot und Gold</t>
@@ -32473,7 +32975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" ht="45" customHeight="1">
+    <row r="352" ht="45" customHeight="1" s="16">
       <c r="A352" s="7" t="inlineStr">
         <is>
           <t>Porzellan mit Streifen in Kobalt-Unterglasur und Punkten in roter Aufglasurfarbe</t>
@@ -32493,7 +32995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" ht="60" customHeight="1">
+    <row r="354" ht="60" customHeight="1" s="16">
       <c r="A354" s="7" t="inlineStr">
         <is>
           <t>Porzellan mit Unterglasurblau, grünem und auberginefarbendem Schmelzfarbendekor, durchbrochen gearbeiteter Rand</t>
@@ -32523,7 +33025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="357" ht="30" customHeight="1">
+    <row r="357" ht="30" customHeight="1" s="16">
       <c r="A357" s="7" t="inlineStr">
         <is>
           <t>Porzellan mit violetter, honigbrauner und blauer Glasur (fahua)</t>
@@ -32533,7 +33035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" ht="30" customHeight="1">
+    <row r="358" ht="30" customHeight="1" s="16">
       <c r="A358" s="7" t="inlineStr">
         <is>
           <t>Porzellan mit weißer und violett-blauer Glasur</t>
@@ -32603,7 +33105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="365" ht="30" customHeight="1">
+    <row r="365" ht="30" customHeight="1" s="16">
       <c r="A365" s="7" t="inlineStr">
         <is>
           <t>Porzellan, blau und rot glasiert, Goldlackreparatur</t>
@@ -32623,7 +33125,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="367" ht="30" customHeight="1">
+    <row r="367" ht="30" customHeight="1" s="16">
       <c r="A367" s="7" t="inlineStr">
         <is>
           <t>Porzellan, blaue Unterglasurmalerei, bläulich-weiß glasiert</t>
@@ -32633,7 +33135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" ht="30" customHeight="1">
+    <row r="368" ht="30" customHeight="1" s="16">
       <c r="A368" s="7" t="inlineStr">
         <is>
           <t>Porzellan, blaue Unterglasurmalerei, glasiert</t>
@@ -32663,7 +33165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="371" ht="30" customHeight="1">
+    <row r="371" ht="30" customHeight="1" s="16">
       <c r="A371" s="7" t="inlineStr">
         <is>
           <t>Porzellan, bläulichweiß, blauviolett glasiert</t>
@@ -32673,7 +33175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" ht="30" customHeight="1">
+    <row r="372" ht="30" customHeight="1" s="16">
       <c r="A372" s="7" t="inlineStr">
         <is>
           <t>Porzellan, dunkelblaue und goldene Bemalung, Glasur</t>
@@ -32703,7 +33205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" ht="30" customHeight="1">
+    <row r="375" ht="30" customHeight="1" s="16">
       <c r="A375" s="7" t="inlineStr">
         <is>
           <t>Porzellan, Grisaille-Malerei, Eisenrot, Gold</t>
@@ -32723,7 +33225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" ht="30" customHeight="1">
+    <row r="377" ht="30" customHeight="1" s="16">
       <c r="A377" s="7" t="inlineStr">
         <is>
           <t>Porzellan, Grisaille-Malerei, Gold, Eisenrot</t>
@@ -32743,7 +33245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" ht="30" customHeight="1">
+    <row r="379" ht="30" customHeight="1" s="16">
       <c r="A379" s="7" t="inlineStr">
         <is>
           <t>Porzellan, Grisaille-Malerei, Schmelzfarben, Gold</t>
@@ -32763,7 +33265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" ht="30" customHeight="1">
+    <row r="381" ht="30" customHeight="1" s="16">
       <c r="A381" s="7" t="inlineStr">
         <is>
           <t>Porzellan, königsblau glasiert, Reste von Goldbemalung</t>
@@ -32793,7 +33295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="384" ht="30" customHeight="1">
+    <row r="384" ht="30" customHeight="1" s="16">
       <c r="A384" s="7" t="inlineStr">
         <is>
           <t>Porzellan, Schmelzfarben, Goldbemalung, Goldblechaufsatz, Einlegearbeit</t>
@@ -32803,7 +33305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" ht="30" customHeight="1">
+    <row r="385" ht="30" customHeight="1" s="16">
       <c r="A385" s="7" t="inlineStr">
         <is>
           <t>Porzellan, Schmelzfarben, Goldblechaufsatz, Einlegearbeit</t>
@@ -32813,7 +33315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" ht="30" customHeight="1">
+    <row r="386" ht="30" customHeight="1" s="16">
       <c r="A386" s="7" t="inlineStr">
         <is>
           <t>Porzellan, schwarzbraun bemalt, Vergoldung, glasiert</t>
@@ -32823,7 +33325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" ht="60" customHeight="1">
+    <row r="387" ht="60" customHeight="1" s="16">
       <c r="A387" s="7" t="inlineStr">
         <is>
           <t>Porzellan, schwarze, blaue, grüne, rosafarbene, bräunlich-gelbe und manganfarbene Überglasurmalerei, Eisenrot, glasiert</t>
@@ -32833,7 +33335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" ht="30" customHeight="1">
+    <row r="388" ht="30" customHeight="1" s="16">
       <c r="A388" s="7" t="inlineStr">
         <is>
           <t>Porzellan, unterglasurblau und eisenrot bemalt, glasiert</t>
@@ -32843,7 +33345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" ht="30" customHeight="1">
+    <row r="389" ht="30" customHeight="1" s="16">
       <c r="A389" s="7" t="inlineStr">
         <is>
           <t>Porzellan, Unterglasurblau, Schmelzfarben, Eisenrot</t>
@@ -32853,7 +33355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" ht="45" customHeight="1">
+    <row r="390" ht="45" customHeight="1" s="16">
       <c r="A390" s="7" t="inlineStr">
         <is>
           <t>Porzellan, Unterglasurblau, Schmelzfarben, Gold, Eisenrot, chinesisches Imari</t>
@@ -32873,7 +33375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" ht="30" customHeight="1">
+    <row r="392" ht="30" customHeight="1" s="16">
       <c r="A392" s="7" t="inlineStr">
         <is>
           <t>Porzellan, Unterglasurmalerei, Schmelzfarben, Eisenrot</t>
@@ -32883,7 +33385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="393" ht="30" customHeight="1">
+    <row r="393" ht="30" customHeight="1" s="16">
       <c r="A393" s="7" t="inlineStr">
         <is>
           <t>Porzellan, violett-rote Überglasur- und blaue Unterglasurmalerei</t>
@@ -32903,7 +33405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" ht="30" customHeight="1">
+    <row r="395" ht="30" customHeight="1" s="16">
       <c r="A395" s="7" t="inlineStr">
         <is>
           <t>Rosabraunes Protoporzellan, gelbgrüne Glasur</t>
@@ -32933,7 +33435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" ht="30" customHeight="1">
+    <row r="398" ht="30" customHeight="1" s="16">
       <c r="A398" s="7" t="inlineStr">
         <is>
           <t>Rotbrauner Ton, dunkelgrün, bernsteingelb und braun glasiert (sancai)</t>
@@ -32943,7 +33445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" ht="30" customHeight="1">
+    <row r="399" ht="30" customHeight="1" s="16">
       <c r="A399" s="7" t="inlineStr">
         <is>
           <t>Rotbrauner Ton, hell gelbgrün glasiert, grünblaue Unterglasurmalerei</t>
@@ -32953,7 +33455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" ht="45" customHeight="1">
+    <row r="400" ht="45" customHeight="1" s="16">
       <c r="A400" s="7" t="inlineStr">
         <is>
           <t>Rotbrauner Ton, weiße Engobe, bernsteinfarbend und grün glasiert (sancai)</t>
@@ -32963,7 +33465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" ht="45" customHeight="1">
+    <row r="401" ht="45" customHeight="1" s="16">
       <c r="A401" s="7" t="inlineStr">
         <is>
           <t>Rotbrauner Ton, weiße Engobe, transparent hellgrün glasiert, Sgrafitto-Dekor</t>
@@ -32973,7 +33475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" ht="30" customHeight="1">
+    <row r="402" ht="30" customHeight="1" s="16">
       <c r="A402" s="7" t="inlineStr">
         <is>
           <t>Rotbraunes Steinzeug mit transparenter Glasur über weißer Engobe</t>
@@ -33033,7 +33535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" ht="45" customHeight="1">
+    <row r="408" ht="45" customHeight="1" s="16">
       <c r="A408" s="7" t="inlineStr">
         <is>
           <t>Ryûmonji-Keramik, Steinzeug mit dreifarbiger Glasur in Weiß, Grün und Braun</t>
@@ -33043,7 +33545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" ht="45" customHeight="1">
+    <row r="409" ht="45" customHeight="1" s="16">
       <c r="A409" s="7" t="inlineStr">
         <is>
           <t>Ryûmonji-Keramik, Steinzeug mit schwarzer Eisenglasur und gegossenem Dekor in Reisstrohascheglasur</t>
@@ -33053,7 +33555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" ht="45" customHeight="1">
+    <row r="410" ht="45" customHeight="1" s="16">
       <c r="A410" s="7" t="inlineStr">
         <is>
           <t>Rötlich-brauner Ton mit grünlich-gelblicher Glasur und metallisch-braunen Flecken</t>
@@ -33063,7 +33565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" ht="30" customHeight="1">
+    <row r="411" ht="30" customHeight="1" s="16">
       <c r="A411" s="7" t="inlineStr">
         <is>
           <t>Rötlich-brauner Ton mit sandfarbener Engobe und  transparenter Glasur</t>
@@ -33073,7 +33575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" ht="30" customHeight="1">
+    <row r="412" ht="30" customHeight="1" s="16">
       <c r="A412" s="7" t="inlineStr">
         <is>
           <t>Rötlich-graue Ton, heller Anguss, grüne Glasur</t>
@@ -33083,7 +33585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" ht="30" customHeight="1">
+    <row r="413" ht="30" customHeight="1" s="16">
       <c r="A413" s="7" t="inlineStr">
         <is>
           <t>Rötlichbrauner Ton, mit Eisenbraun bemalt, transparent glasiert</t>
@@ -33093,7 +33595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" ht="30" customHeight="1">
+    <row r="414" ht="30" customHeight="1" s="16">
       <c r="A414" s="7" t="inlineStr">
         <is>
           <t>Rötlicher Ton mit Dekor einer stilisierten Lotosblüte</t>
@@ -33103,7 +33605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" ht="30" customHeight="1">
+    <row r="415" ht="30" customHeight="1" s="16">
       <c r="A415" s="7" t="inlineStr">
         <is>
           <t>Rötlicher Ton mit glänzender Glasur und Kammmuster</t>
@@ -33113,7 +33615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" ht="30" customHeight="1">
+    <row r="416" ht="30" customHeight="1" s="16">
       <c r="A416" s="7" t="inlineStr">
         <is>
           <t>Rötlicher Ton mit transparenter grauer Glasur</t>
@@ -33133,7 +33635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" ht="30" customHeight="1">
+    <row r="418" ht="30" customHeight="1" s="16">
       <c r="A418" s="7" t="inlineStr">
         <is>
           <t>Sakazu-Keramik, Steinzeug mit Reisstrohascheglasur und Eisenglasur</t>
@@ -33153,7 +33655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" ht="45" customHeight="1">
+    <row r="420" ht="45" customHeight="1" s="16">
       <c r="A420" s="7" t="inlineStr">
         <is>
           <t>Sandfarbener Ton, Engobe, tranparent  glasiert, Eisenbraunes Dekor, Unterglasurmalerei</t>
@@ -33163,7 +33665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" ht="30" customHeight="1">
+    <row r="421" ht="30" customHeight="1" s="16">
       <c r="A421" s="7" t="inlineStr">
         <is>
           <t>Sandfarbener Ton, transparent-grünes Craquelé</t>
@@ -33173,7 +33675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" ht="45" customHeight="1">
+    <row r="422" ht="45" customHeight="1" s="16">
       <c r="A422" s="7" t="inlineStr">
         <is>
           <t>Schwarzbrauner Ton, tiefschwarz glasiert mit hellbraunen Strichen  versehen, Hasenfellglasur</t>
@@ -33183,7 +33685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" ht="45" customHeight="1">
+    <row r="423" ht="45" customHeight="1" s="16">
       <c r="A423" s="7" t="inlineStr">
         <is>
           <t>Schwarzbrauner Ton, tiefschwarz glasiert mit hellbraunen Strichen  versehen, Hasenfellglasur, metallgefasste Lippe</t>
@@ -33223,7 +33725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" ht="30" customHeight="1">
+    <row r="427" ht="30" customHeight="1" s="16">
       <c r="A427" s="7" t="inlineStr">
         <is>
           <t>Seto-Keramik, Porzellan mit Kobalt-Unterglasurdekor</t>
@@ -33233,7 +33735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" ht="30" customHeight="1">
+    <row r="428" ht="30" customHeight="1" s="16">
       <c r="A428" s="7" t="inlineStr">
         <is>
           <t>Seto-Keramik, Steinzeug mit grauer Shino-Glasur</t>
@@ -33243,7 +33745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" ht="30" customHeight="1">
+    <row r="429" ht="30" customHeight="1" s="16">
       <c r="A429" s="7" t="inlineStr">
         <is>
           <t>Seto-Keramik, Steinzeug mit grüngelber Holzascheglasur</t>
@@ -33253,7 +33755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" ht="30" customHeight="1">
+    <row r="430" ht="30" customHeight="1" s="16">
       <c r="A430" s="7" t="inlineStr">
         <is>
           <t>Seto-Keramik, Steinzeug mit Kobalt-Unterglasur über weißer Engobe</t>
@@ -33263,7 +33765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" ht="45" customHeight="1">
+    <row r="431" ht="45" customHeight="1" s="16">
       <c r="A431" s="7" t="inlineStr">
         <is>
           <t>Seto-Keramik, Steinzeug mit schwarzer Seto-Glasur und eisenhaltigem Engobendekor</t>
@@ -33283,7 +33785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" ht="30" customHeight="1">
+    <row r="433" ht="30" customHeight="1" s="16">
       <c r="A433" s="7" t="inlineStr">
         <is>
           <t>Seto-Keramik, Steinzeug mit Stoffabdruck und Bambus-Dekor in Kobalt-Unterglasur</t>
@@ -33293,7 +33795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" ht="45" customHeight="1">
+    <row r="434" ht="45" customHeight="1" s="16">
       <c r="A434" s="7" t="inlineStr">
         <is>
           <t>Shibukusa-Keramik, Porzellan mit Dekor in Kobalt-Unterglasur und polychromen Aufglasurfarben</t>
@@ -33303,7 +33805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" ht="45" customHeight="1">
+    <row r="435" ht="45" customHeight="1" s="16">
       <c r="A435" s="7" t="inlineStr">
         <is>
           <t>Shibukusa-Keramik, Steinzeug mit Stoffabdruck und floralem Kobalt-Unterglasurdekor</t>
@@ -33313,7 +33815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" ht="45" customHeight="1">
+    <row r="436" ht="45" customHeight="1" s="16">
       <c r="A436" s="7" t="inlineStr">
         <is>
           <t>Shibukusa-Keramik,Steinzeug mit Eisen-Unterglasur und Dekor in grüner und roter Aufglasurfarbe</t>
@@ -33323,7 +33825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" ht="45" customHeight="1">
+    <row r="437" ht="45" customHeight="1" s="16">
       <c r="A437" s="7" t="inlineStr">
         <is>
           <t>Shibukusa-Keramik,Steinzeug mit Feldspatglasur und Kirschblüten-Dekor in polychromen Aufglasurfarben</t>
@@ -33333,7 +33835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" ht="45" customHeight="1">
+    <row r="438" ht="45" customHeight="1" s="16">
       <c r="A438" s="7" t="inlineStr">
         <is>
           <t>Shibukusa-Keramik,Steinzeug mit Feldspatglasur und Pflaumenblüten-Dekor in polychromen Aufglasurfarben</t>
@@ -33343,7 +33845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" ht="30" customHeight="1">
+    <row r="439" ht="30" customHeight="1" s="16">
       <c r="A439" s="7" t="inlineStr">
         <is>
           <t>Shiraiwa-yaki Ware, im Spiegel blau glasiert</t>
@@ -33353,7 +33855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="440" ht="30" customHeight="1">
+    <row r="440" ht="30" customHeight="1" s="16">
       <c r="A440" s="7" t="inlineStr">
         <is>
           <t>Shitoro-Keramik, Steinzeug mit Asche- über Eisenglasur</t>
@@ -33363,7 +33865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" ht="45" customHeight="1">
+    <row r="441" ht="45" customHeight="1" s="16">
       <c r="A441" s="7" t="inlineStr">
         <is>
           <t>Shitoro-Keramik, Steinzeug mit Asche- über Eisenglasur, Innenseite mit Holzascheglasur</t>
@@ -33373,7 +33875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" ht="45" customHeight="1">
+    <row r="442" ht="45" customHeight="1" s="16">
       <c r="A442" s="7" t="inlineStr">
         <is>
           <t>Shussai-Keramik, Steinzeug mit dreifarbiger Glasur in Beige, Grün und Braun</t>
@@ -33383,7 +33885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" ht="45" customHeight="1">
+    <row r="443" ht="45" customHeight="1" s="16">
       <c r="A443" s="7" t="inlineStr">
         <is>
           <t>Sodeshi-Keramik, Steinzeug mit Eisenoxid und Sgraffito-Dekor unter heller Ascheglasur</t>
@@ -33393,7 +33895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" ht="45" customHeight="1">
+    <row r="444" ht="45" customHeight="1" s="16">
       <c r="A444" s="7" t="inlineStr">
         <is>
           <t>Sodeshi-Keramik, Steinzeug mit floralem Dekor in Kobalt- und Eisen-Unterglasur und grauer Ascheglasur</t>
@@ -33423,7 +33925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="447" ht="45" customHeight="1">
+    <row r="447" ht="45" customHeight="1" s="16">
       <c r="A447" s="7" t="inlineStr">
         <is>
           <t>Steinzeug mit aufgebürstetem Engobendekor unter transparenter Ascheglasur</t>
@@ -33433,7 +33935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" ht="30" customHeight="1">
+    <row r="448" ht="30" customHeight="1" s="16">
       <c r="A448" s="7" t="inlineStr">
         <is>
           <t>Steinzeug mit Bemalung in Unterglasur-Eisenrot</t>
@@ -33453,7 +33955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="450" ht="45" customHeight="1">
+    <row r="450" ht="45" customHeight="1" s="16">
       <c r="A450" s="7" t="inlineStr">
         <is>
           <t>Steinzeug mit dunkler Eisenglasur und geometrischem Muster in Sgraffito-Technik</t>
@@ -33463,7 +33965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" ht="30" customHeight="1">
+    <row r="451" ht="30" customHeight="1" s="16">
       <c r="A451" s="7" t="inlineStr">
         <is>
           <t>Steinzeug mit Einlagen unter graugrüner Seldadonglasur</t>
@@ -33473,7 +33975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" ht="45" customHeight="1">
+    <row r="452" ht="45" customHeight="1" s="16">
       <c r="A452" s="7" t="inlineStr">
         <is>
           <t>Steinzeug mit Eisenglasur und gegossenem Dekor in Reisstrohascheglasur</t>
@@ -33493,7 +33995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" ht="45" customHeight="1">
+    <row r="454" ht="45" customHeight="1" s="16">
       <c r="A454" s="7" t="inlineStr">
         <is>
           <t>Steinzeug mit Engobe über eingedrücktem Schnurmuster und Ascheglasur</t>
@@ -33503,7 +34005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" ht="60" customHeight="1">
+    <row r="455" ht="60" customHeight="1" s="16">
       <c r="A455" s="7" t="inlineStr">
         <is>
           <t>Steinzeug mit Engobe über eingedrücktem Schnurmuster und Gräsern, Ascheglasur und Kaki-Glasurdekor</t>
@@ -33513,7 +34015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" ht="30" customHeight="1">
+    <row r="456" ht="30" customHeight="1" s="16">
       <c r="A456" s="7" t="inlineStr">
         <is>
           <t>Steinzeug mit europäischer Goldbronzefassung</t>
@@ -33563,7 +34065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" ht="30" customHeight="1">
+    <row r="461" ht="30" customHeight="1" s="16">
       <c r="A461" s="7" t="inlineStr">
         <is>
           <t>Steinzeug mit floralem Dekor in Schlicker und polychromen Glasuren</t>
@@ -33573,7 +34075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" ht="30" customHeight="1">
+    <row r="462" ht="30" customHeight="1" s="16">
       <c r="A462" s="7" t="inlineStr">
         <is>
           <t>Steinzeug mit grünlicher Salzglasur, Engobe und Eisenbraun</t>
@@ -33593,7 +34095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" ht="30" customHeight="1">
+    <row r="464" ht="30" customHeight="1" s="16">
       <c r="A464" s="7" t="inlineStr">
         <is>
           <t>Steinzeug mit Kirschblütendekor in weißer Toneinlage unter Seladonglasur</t>
@@ -33623,7 +34125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="467" ht="30" customHeight="1">
+    <row r="467" ht="30" customHeight="1" s="16">
       <c r="A467" s="7" t="inlineStr">
         <is>
           <t>Steinzeug mit Reisstrohascheglasur über Eisenglasur</t>
@@ -33633,7 +34135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" ht="30" customHeight="1">
+    <row r="468" ht="30" customHeight="1" s="16">
       <c r="A468" s="7" t="inlineStr">
         <is>
           <t>Steinzeug mit Sanggam-Dekor unter Seladon-Glasur</t>
@@ -33643,7 +34145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" ht="30" customHeight="1">
+    <row r="469" ht="30" customHeight="1" s="16">
       <c r="A469" s="7" t="inlineStr">
         <is>
           <t>Steinzeug mit Schmelzfarbendekor, innen weiß glasiert</t>
@@ -33653,7 +34155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" ht="30" customHeight="1">
+    <row r="470" ht="30" customHeight="1" s="16">
       <c r="A470" s="7" t="inlineStr">
         <is>
           <t>Steinzeug mit schwarzer Eisenglasur und eisenroter Angußglasur.</t>
@@ -33683,7 +34185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" ht="30" customHeight="1">
+    <row r="473" ht="30" customHeight="1" s="16">
       <c r="A473" s="7" t="inlineStr">
         <is>
           <t>Steinzeug mit Seladonglasur und Kamelienblüte in Aufglasurfarben</t>
@@ -33693,7 +34195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" ht="30" customHeight="1">
+    <row r="474" ht="30" customHeight="1" s="16">
       <c r="A474" s="7" t="inlineStr">
         <is>
           <t>Steinzeug mit teilweiser Aschenglasur und Ritzdekor</t>
@@ -33703,7 +34205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" ht="45" customHeight="1">
+    <row r="475" ht="45" customHeight="1" s="16">
       <c r="A475" s="7" t="inlineStr">
         <is>
           <t>Steinzeug mit weiß engobiertem Scheppermarken-Dekor und getauchtem Glasurdekor</t>
@@ -33713,7 +34215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" ht="45" customHeight="1">
+    <row r="476" ht="45" customHeight="1" s="16">
       <c r="A476" s="7" t="inlineStr">
         <is>
           <t>Steinzeug mit weißer Ascheglasur und Trauben-Dekor in Aufglasurfarben und Gold</t>
@@ -33733,7 +34235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" ht="30" customHeight="1">
+    <row r="478" ht="30" customHeight="1" s="16">
       <c r="A478" s="7" t="inlineStr">
         <is>
           <t>Steinzeug rmit heller "Daizu mame"-Glasur</t>
@@ -33743,7 +34245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" ht="30" customHeight="1">
+    <row r="479" ht="30" customHeight="1" s="16">
       <c r="A479" s="7" t="inlineStr">
         <is>
           <t>Stellenweise grün patinierte Bronze, Dekor von Drachen und Blumen, Mittelöse</t>
@@ -33763,7 +34265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" ht="45" customHeight="1">
+    <row r="481" ht="45" customHeight="1" s="16">
       <c r="A481" s="7" t="inlineStr">
         <is>
           <t>Sôma-Koma-Keramik, Steinzeug mit Pferde-Dekor in Eisen-Unterglasur und Seladonglasur</t>
@@ -33773,7 +34275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" ht="30" customHeight="1">
+    <row r="482" ht="30" customHeight="1" s="16">
       <c r="A482" s="7" t="inlineStr">
         <is>
           <t>Taisetsu-Keramik, Steinzeug mit blauer Kristallglasur</t>
@@ -33783,7 +34285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" ht="30" customHeight="1">
+    <row r="483" ht="30" customHeight="1" s="16">
       <c r="A483" s="7" t="inlineStr">
         <is>
           <t>Takahama-Keramik, Porzellan mit Blütendekor in Kobalt-Unterglasur</t>
@@ -33793,7 +34295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" ht="30" customHeight="1">
+    <row r="484" ht="30" customHeight="1" s="16">
       <c r="A484" s="7" t="inlineStr">
         <is>
           <t>Takatori-Keramik, Steinzeug mit Eisenglasur unter brauner Engobe</t>
@@ -33803,7 +34305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" ht="45" customHeight="1">
+    <row r="485" ht="45" customHeight="1" s="16">
       <c r="A485" s="7" t="inlineStr">
         <is>
           <t>Takatori-Keramik, Steinzeug mit matter Eisenglasur und gegossener Reisstrohascheglasur</t>
@@ -33813,7 +34315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" ht="45" customHeight="1">
+    <row r="486" ht="45" customHeight="1" s="16">
       <c r="A486" s="7" t="inlineStr">
         <is>
           <t>Takeo-Keramik, Steinzeug mit Seladonglasur und floralem Muster in Sgraffito</t>
@@ -33823,7 +34325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" ht="45" customHeight="1">
+    <row r="487" ht="45" customHeight="1" s="16">
       <c r="A487" s="7" t="inlineStr">
         <is>
           <t>Teil eines Paares, milchig-weißblaues Porzellan mit Unterglasurblau und roter, gelber, grüner und violetter Schmelzfarbe</t>
@@ -33833,7 +34335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" ht="45" customHeight="1">
+    <row r="488" ht="45" customHeight="1" s="16">
       <c r="A488" s="7" t="inlineStr">
         <is>
           <t>Teil eines Paares, milchig-weißblaues Porzellan, Unterglasurblau, rote, gelbe, grüne und violette Schmelzfarbe</t>
@@ -33853,7 +34355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" ht="30" customHeight="1">
+    <row r="490" ht="30" customHeight="1" s="16">
       <c r="A490" s="7" t="inlineStr">
         <is>
           <t>Terrakottafarbener Ton, milchig türkisblau glasiert</t>
@@ -33863,7 +34365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" ht="45" customHeight="1">
+    <row r="491" ht="45" customHeight="1" s="16">
       <c r="A491" s="7" t="inlineStr">
         <is>
           <t>Terrakottafarbener Ton, milchig türkisblau und olivgrün glasiert, Purpurfleck mittig zu erkennen</t>
@@ -33873,7 +34375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" ht="30" customHeight="1">
+    <row r="492" ht="30" customHeight="1" s="16">
       <c r="A492" s="7" t="inlineStr">
         <is>
           <t>Tobe-Keramik, Porzellan mit Landschafts-Dekor in Kobalt-Unterglasur</t>
@@ -33883,7 +34385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="493" ht="30" customHeight="1">
+    <row r="493" ht="30" customHeight="1" s="16">
       <c r="A493" s="7" t="inlineStr">
         <is>
           <t>Tobe-Keramik, Steinzeug mit gohon-de-Glasur</t>
@@ -33893,7 +34395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" ht="30" customHeight="1">
+    <row r="494" ht="30" customHeight="1" s="16">
       <c r="A494" s="7" t="inlineStr">
         <is>
           <t>Tobe-Keramik, Steinzeug mit grüner Kristallglasur</t>
@@ -33903,7 +34405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" ht="45" customHeight="1">
+    <row r="495" ht="45" customHeight="1" s="16">
       <c r="A495" s="7" t="inlineStr">
         <is>
           <t>Tokoname-Keramik, Porzellan, weißes Seladon mit Kobalt-Unterglasurdekor auf der Gefäßunterseite</t>
@@ -33913,7 +34415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" ht="30" customHeight="1">
+    <row r="496" ht="30" customHeight="1" s="16">
       <c r="A496" s="7" t="inlineStr">
         <is>
           <t>Tokoname-Keramik, Steinzeug mit Streifen graugrüner Holzascheglasur</t>
@@ -33923,7 +34425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" ht="45" customHeight="1">
+    <row r="497" ht="45" customHeight="1" s="16">
       <c r="A497" s="7" t="inlineStr">
         <is>
           <t>Tokoname-Keramik, unglasiertes Steinzeug, polierte Shudei-Ware mit eingeschnittenem Bambus-Dekor</t>
@@ -33943,7 +34445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" ht="30" customHeight="1">
+    <row r="499" ht="30" customHeight="1" s="16">
       <c r="A499" s="7" t="inlineStr">
         <is>
           <t>Ton (biskuit) mit grüner, weißer, gelber und brauner Glasur</t>
@@ -33993,7 +34495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" ht="30" customHeight="1">
+    <row r="504" ht="30" customHeight="1" s="16">
       <c r="A504" s="7" t="inlineStr">
         <is>
           <t>Ton mit eingelegtem Dekor unter Seladon-Glasur</t>
@@ -34003,7 +34505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="505" ht="30" customHeight="1">
+    <row r="505" ht="30" customHeight="1" s="16">
       <c r="A505" s="7" t="inlineStr">
         <is>
           <t>Ton mit grau-grüner Glasur und eisenbraunen Tupfen</t>
@@ -34023,7 +34525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" ht="30" customHeight="1">
+    <row r="507" ht="30" customHeight="1" s="16">
       <c r="A507" s="7" t="inlineStr">
         <is>
           <t>Ton mit graugrüner Seladonglasur und Craquelé</t>
@@ -34033,7 +34535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" ht="30" customHeight="1">
+    <row r="508" ht="30" customHeight="1" s="16">
       <c r="A508" s="7" t="inlineStr">
         <is>
           <t>Ton mit graugrüner Seladonglasur über weißen Engobeeinlagen</t>
@@ -34043,7 +34545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" ht="30" customHeight="1">
+    <row r="509" ht="30" customHeight="1" s="16">
       <c r="A509" s="7" t="inlineStr">
         <is>
           <t>Ton mit graugrüner Seladonglasur, Yaozhou-Ware</t>
@@ -34073,7 +34575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" ht="30" customHeight="1">
+    <row r="512" ht="30" customHeight="1" s="16">
       <c r="A512" s="7" t="inlineStr">
         <is>
           <t>Ton mit hellgrüner, grob krakelierter Seladon-Glasur</t>
@@ -34123,7 +34625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" ht="30" customHeight="1">
+    <row r="517" ht="30" customHeight="1" s="16">
       <c r="A517" s="7" t="inlineStr">
         <is>
           <t>Ton mit weißem Engobedekor unter transparenter Glasur</t>
@@ -34163,7 +34665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="521" ht="45" customHeight="1">
+    <row r="521" ht="45" customHeight="1" s="16">
       <c r="A521" s="7" t="inlineStr">
         <is>
           <t>Ton, bernsteinfarbend und kobaltblau glasiert, transparent gelblich glasierter Untergrund</t>
@@ -34213,7 +34715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" ht="45" customHeight="1">
+    <row r="526" ht="45" customHeight="1" s="16">
       <c r="A526" s="7" t="inlineStr">
         <is>
           <t>Ton, Engobe, grün, bernsteinfarbend und transparent glasiert (sancai), grün-weiße Tupfenborte</t>
@@ -34303,7 +34805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" ht="30" customHeight="1">
+    <row r="535" ht="30" customHeight="1" s="16">
       <c r="A535" s="7" t="inlineStr">
         <is>
           <t>Ton, olivbraun glasiert, bläulichweiße Glasursträhnen</t>
@@ -34333,7 +34835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" ht="30" customHeight="1">
+    <row r="538" ht="30" customHeight="1" s="16">
       <c r="A538" s="7" t="inlineStr">
         <is>
           <t>Ton, opak weiß glasiert (innen), applizierte weiße Glasurtropfen</t>
@@ -34353,7 +34855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" ht="30" customHeight="1">
+    <row r="540" ht="30" customHeight="1" s="16">
       <c r="A540" s="7" t="inlineStr">
         <is>
           <t>Ton, schwarz glasiert, silbrige Flecken, Ölfleckenglasur</t>
@@ -34393,7 +34895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" ht="45" customHeight="1">
+    <row r="544" ht="45" customHeight="1" s="16">
       <c r="A544" s="7" t="inlineStr">
         <is>
           <t>Tsugaru-Keramik, Steinzeug mit Kirschblüten-Dekor in Sgraffito und Kobalt-Unterglasur</t>
@@ -34403,7 +34905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" ht="30" customHeight="1">
+    <row r="545" ht="30" customHeight="1" s="16">
       <c r="A545" s="7" t="inlineStr">
         <is>
           <t>Uchidasarayama-Keramik, weißes Porzellan, Form geschnitten</t>
@@ -34423,7 +34925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="547" ht="45" customHeight="1">
+    <row r="547" ht="45" customHeight="1" s="16">
       <c r="A547" s="7" t="inlineStr">
         <is>
           <t>Unterstellteller für Öllampe, japanisch: abura-zara, sandfarbener Ton, grauweiße gesprüngelte Glasur, braune Malerei</t>
@@ -34433,7 +34935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" ht="45" customHeight="1">
+    <row r="548" ht="45" customHeight="1" s="16">
       <c r="A548" s="7" t="inlineStr">
         <is>
           <t>Unzen-Keramik, Steinzeug mit Seladonglasur über geritztem Wellen-Dekor</t>
@@ -34453,7 +34955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="550" ht="30" customHeight="1">
+    <row r="550" ht="30" customHeight="1" s="16">
       <c r="A550" s="7" t="inlineStr">
         <is>
           <t>Watasuge-Keramik, Steinzeug mit flambierter Kupferglasur</t>
@@ -34463,7 +34965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" ht="30" customHeight="1">
+    <row r="551" ht="30" customHeight="1" s="16">
       <c r="A551" s="7" t="inlineStr">
         <is>
           <t>Weiß, bernsteingelb und hellgrün glasiertes Steinzeug</t>
@@ -34483,7 +34985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" ht="30" customHeight="1">
+    <row r="553" ht="30" customHeight="1" s="16">
       <c r="A553" s="7" t="inlineStr">
         <is>
           <t>Weißer Ton, cremefarbend glasiert, Craquelé</t>
@@ -34533,7 +35035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" ht="30" customHeight="1">
+    <row r="558" ht="30" customHeight="1" s="16">
       <c r="A558" s="7" t="inlineStr">
         <is>
           <t>Weißer Ton, opak rostbraun glasiert, dunkelbraune Flecken</t>
@@ -34553,7 +35055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" ht="30" customHeight="1">
+    <row r="560" ht="30" customHeight="1" s="16">
       <c r="A560" s="7" t="inlineStr">
         <is>
           <t>Weißer Ton, transparent bläulichen glasiert (qingbai)</t>
@@ -34573,7 +35075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" ht="30" customHeight="1">
+    <row r="562" ht="30" customHeight="1" s="16">
       <c r="A562" s="7" t="inlineStr">
         <is>
           <t>Weißer Ton, transparent gelblich glasiert (qingbai)</t>
@@ -34583,7 +35085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" ht="30" customHeight="1">
+    <row r="563" ht="30" customHeight="1" s="16">
       <c r="A563" s="7" t="inlineStr">
         <is>
           <t>Weißer Ton, transparent grünbläulichen glasiert (qingbai)</t>
@@ -34593,7 +35095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" ht="30" customHeight="1">
+    <row r="564" ht="30" customHeight="1" s="16">
       <c r="A564" s="7" t="inlineStr">
         <is>
           <t>Weißer Ton, transparent hell graugrün glasiert</t>
@@ -34603,7 +35105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" ht="30" customHeight="1">
+    <row r="565" ht="30" customHeight="1" s="16">
       <c r="A565" s="7" t="inlineStr">
         <is>
           <t>Weißer Ton, transparent hellblau glasiert (qingbai)</t>
@@ -34613,7 +35115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="566" ht="30" customHeight="1">
+    <row r="566" ht="30" customHeight="1" s="16">
       <c r="A566" s="7" t="inlineStr">
         <is>
           <t>Weißer Ton, transparent hellblau glasiert (qingbai), Craquelé</t>
@@ -34623,7 +35125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" ht="30" customHeight="1">
+    <row r="567" ht="30" customHeight="1" s="16">
       <c r="A567" s="7" t="inlineStr">
         <is>
           <t>Weißer Ton, weiße Engobe, cremefarbend glasiert</t>
@@ -34633,7 +35135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="568" ht="30" customHeight="1">
+    <row r="568" ht="30" customHeight="1" s="16">
       <c r="A568" s="7" t="inlineStr">
         <is>
           <t>Weißer Ton, weiße Engobe, transparent glasiert</t>
@@ -34643,7 +35145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" ht="30" customHeight="1">
+    <row r="569" ht="30" customHeight="1" s="16">
       <c r="A569" s="7" t="inlineStr">
         <is>
           <t>Weißer, fast durchscheinender Ton, transparent elfenbeinfarbend glasiert</t>
@@ -34653,7 +35155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" ht="30" customHeight="1">
+    <row r="570" ht="30" customHeight="1" s="16">
       <c r="A570" s="7" t="inlineStr">
         <is>
           <t>Weißes Porzellan, transparent blaugrün glasiert (qingbai)</t>
@@ -34663,7 +35165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" ht="30" customHeight="1">
+    <row r="571" ht="30" customHeight="1" s="16">
       <c r="A571" s="7" t="inlineStr">
         <is>
           <t>Weißes Porzellan, transparent bläulich glasiert (qingbai)</t>
@@ -34673,7 +35175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" ht="30" customHeight="1">
+    <row r="572" ht="30" customHeight="1" s="16">
       <c r="A572" s="7" t="inlineStr">
         <is>
           <t>Weißes Porzellan, transparent hellblau glasiert (qingbai)</t>
@@ -34683,7 +35185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="573" ht="30" customHeight="1">
+    <row r="573" ht="30" customHeight="1" s="16">
       <c r="A573" s="7" t="inlineStr">
         <is>
           <t>Weißlicher Ton, transparent blassgrün glasiert</t>
@@ -34693,7 +35195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" ht="30" customHeight="1">
+    <row r="574" ht="30" customHeight="1" s="16">
       <c r="A574" s="7" t="inlineStr">
         <is>
           <t>Yamada-Keramik, Steinzeug mit Eisen- und Ascheglasur</t>
@@ -34703,7 +35205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" ht="45" customHeight="1">
+    <row r="575" ht="45" customHeight="1" s="16">
       <c r="A575" s="7" t="inlineStr">
         <is>
           <t>Yokkaichi-Banko-Keramik, Steinzeug mit grauer Feldspatglasur und Dekor in Aufglasurfarben</t>
@@ -34713,7 +35215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" ht="30" customHeight="1">
+    <row r="576" ht="30" customHeight="1" s="16">
       <c r="A576" s="7" t="inlineStr">
         <is>
           <t>Ôhi-Keramik, Raku-Keramik mit  weißer Glasur</t>
@@ -34723,7 +35225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" ht="30" customHeight="1">
+    <row r="577" ht="30" customHeight="1" s="16">
       <c r="A577" s="7" t="inlineStr">
         <is>
           <t>Ôhi-Keramik, Raku-Keramik mit Bernstein-Glasur</t>
@@ -34733,7 +35235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" ht="30" customHeight="1">
+    <row r="578" ht="30" customHeight="1" s="16">
       <c r="A578" s="7" t="inlineStr">
         <is>
           <t>Ôiso-Keramik, Steinzeug mit getropftem Glasurdekor</t>
@@ -34764,12 +35266,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="25.140625" customWidth="1" min="1" max="1"/>
-    <col width="4.7109375" customWidth="1" min="2" max="2"/>
-    <col width="32.85546875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="31" customWidth="1" min="5" max="5"/>
-    <col width="35" customWidth="1" min="6" max="6"/>
-    <col width="43.5703125" customWidth="1" min="7" max="7"/>
+    <col width="25.140625" customWidth="1" style="16" min="1" max="1"/>
+    <col width="4.7109375" customWidth="1" style="16" min="2" max="2"/>
+    <col width="32.85546875" bestFit="1" customWidth="1" style="16" min="3" max="3"/>
+    <col width="31" customWidth="1" style="16" min="5" max="5"/>
+    <col width="35" customWidth="1" style="16" min="6" max="6"/>
+    <col width="43.5703125" customWidth="1" style="16" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
